--- a/Results/data63.xlsx
+++ b/Results/data63.xlsx
@@ -255,7 +255,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6214853281497846E-2"/>
+          <c:y val="0.14684068997828387"/>
+          <c:w val="0.91418480815192604"/>
+          <c:h val="0.84084079205130213"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2259,7 +2269,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0955931934636834E-2"/>
+          <c:y val="0.11906549997272506"/>
+          <c:w val="0.70921120058338438"/>
+          <c:h val="0.63314846023588056"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5307,16 +5327,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>592931</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602456</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5337,16 +5357,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>280988</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533402</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5631,13 +5651,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AE1" activeCellId="4" sqref="B1:B1048576 AB1:AB1048576 AC1:AC1048576 AD1:AD1048576 AE1:AE1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" customWidth="1"/>
+    <col min="15" max="15" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -12829,6 +12856,24 @@
       </c>
       <c r="AL62">
         <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <f>MAX(O2:O62)</f>
+        <v>1.1388312657345523E-6</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ref="P63:R63" si="0">MAX(P2:P62)</f>
+        <v>4.322282478597117E-7</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>3.4580114771642911E-8</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="0"/>
+        <v>2.082666167524394E-6</v>
       </c>
     </row>
   </sheetData>

--- a/Results/data63.xlsx
+++ b/Results/data63.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13208" windowHeight="6368"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="16103"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>n</t>
   </si>
@@ -32,7 +32,16 @@
     <t>s</t>
   </si>
   <si>
-    <t>dualbound_exitflag</t>
+    <t>dualbound_DDFact_exitflag</t>
+  </si>
+  <si>
+    <t>dualbound_DDFact_comp_exitflag</t>
+  </si>
+  <si>
+    <t>dualbound_Linx_exitflag</t>
+  </si>
+  <si>
+    <t>dualbound_Linxsdpt3_exitflag</t>
   </si>
   <si>
     <t>dualbound_DDFact</t>
@@ -181,5211 +190,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Int Gap</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.6214853281497846E-2"/>
-          <c:y val="0.14684068997828387"/>
-          <c:w val="0.91418480815192604"/>
-          <c:h val="0.84084079205130213"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>intgap_DDFact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$2:$K$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.12142888960772869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12365854914476593</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13675392382357465</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16496783895226486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13263471913006519</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19294367615279384</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23426028793661224</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.24301393880512556</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29393371913684163</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.35076509652267518</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.37582939075436528</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.38009875948326766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.38188250047435801</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.38493155119735079</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.39715057634891338</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.39149652199158425</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.40082443380713784</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.37612521993541037</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.40341940240387686</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.42650986382906808</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4354101206291574</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.4511769081384216</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.47359229929303837</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.47696135839065334</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.48083512325627709</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.48339306906840562</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.48658652029229188</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.47890764407161157</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.46405326562060623</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.43955784666370334</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.43129878979750913</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.43374515201709585</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.43048485013724758</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.44715981883790334</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.45875223443985647</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.48255136459177095</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.50221987028724868</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.50484473603764002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.49916132208528552</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.50967433614839308</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.50984319453701232</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.54447845348470025</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.57530248838540388</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.5805422453980924</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.57319571339513686</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.54831674164704225</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.51357728689913529</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.49063638005637245</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.44466936189890305</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.40678661650184722</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.35137898836312331</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.29495341301715428</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.26067053637095228</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.21422264040450045</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.18463693389352898</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.18420147530599706</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.16692212894059821</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.13357386643494351</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.12027675042179453</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.12989176072679243</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.7602600816154563E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FC1-4D80-8378-8E1EC696CCAF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>intgap_DDFact_comp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$2:$L$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>1.9004926896058429</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2120458003824144</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3156882311466118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3663981314049209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3372423639395041</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3968891309277698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4371283403409034</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.4390894177286242</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.472777535002141</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.4672269983169173</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.4493188615925696</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4160687922825375</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3793943743238124</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.3385947622179621</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.3038930101170152</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.2449832360534856</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.214533224566047</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.1559302941934888</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.1595858067348743</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1564360758151651</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.1102248961362307</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0786810897821368</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.0575155026449394</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.0256277503866968</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.9888040917580057</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.9534012417505338</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.9327049008656658</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8813377986667774</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.821580856744923</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.7388710848652664</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.6873267298160357</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.6429356637017207</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.5728822049099733</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.499860563322855</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.4190276434602396</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.3331990869886994</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.2528798889084243</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1701510385494771</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.078910831841938</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.99228761680205935</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.8907792359806308</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.83274845714858259</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.78775618836280614</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.7284980883233203</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.66767809599144812</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.60468009485805396</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.54200068036948323</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.50314946437637786</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.46134476792744294</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.43192220303200202</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.39268225453150762</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.3678085358219505</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.37103011974315336</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.30276387991409592</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.22168382389745034</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.16188875356516519</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.10154776276468169</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.1764539496938369E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.0986143779168742E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.9329355337816878E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-4.7694982185930712E-8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FC1-4D80-8378-8E1EC696CCAF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>intgap_Linx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.35279583843262818</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43052460251811642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4622575849017645</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47181982340199724</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44073518804693279</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51286062558557788</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.559192153651761</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56858966116285536</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61523913510832884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65780339121365117</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.66553287012015971</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.64896348986276564</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.62185163817338562</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.60536825898013902</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.59998071308933021</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.58029380250292917</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.57732405191275404</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.54431083445278006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.56967749223680642</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.59367758807191251</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.60156211730095777</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.61462707241315684</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.63237037639645166</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.63492936245654619</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.63618038155334489</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.63396255454140515</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.6307318174176757</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.61511956313079708</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.59139563568329123</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.55797047032304192</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.5392082074974951</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.52686913193088003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.50510540672827631</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.50096865790021639</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.48812354028034122</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.48143644663258556</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46573749619038551</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.4299934930947984</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38468220621963667</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.35858405818167682</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.32633516389913098</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.33299202232231551</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.34156834421271753</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.32917064417108577</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.30941310578582204</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.2788746720073334</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.24463050840998335</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.23005031967784362</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.19843511640476663</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.17928453482866757</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.14710771315634474</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.11896535088924054</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.11487733898913177</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5855491210357968E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.595514918837921E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.9459702403189567E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.8197244748205321E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.3011921249624265E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.5585466722399133E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.5788716214321994E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.5206154518621133E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FC1-4D80-8378-8E1EC696CCAF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>intgap_Linx_sdpt3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$N$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.3527958396606965</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.43052462888484211</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46225779319743143</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47181994424353491</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44073517293562503</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51286068958361497</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55919215017060075</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56859004981292571</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61524009355226639</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65780341320091296</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.66553287147843676</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.64896348714099616</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.62185164122783831</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.60536839019402322</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.59998082330823621</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.58029430352625866</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.57732437018942306</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.54431083506799638</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.56967749251695921</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.59367764967232972</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.60156226651395173</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.61462712956220855</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.63237045403954539</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.6349293676540313</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.63618038818891165</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.63396257321944205</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.63073190494692</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.61511956461875172</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.59139575209406559</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.55797068941443229</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.53920825824141616</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.52686918075592359</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.50510588250868693</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.5009686963357467</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.4881237229254225</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.48143691572207103</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.46573753286875785</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.42999352783901656</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.38468222685551723</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.35858463013705943</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.3263353202615491</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.33299206646161394</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.34156836758319287</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.32917064495744341</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.30941308634442066</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.27887472297248905</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.24463051694681326</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.2300503196050272</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.19843513800549317</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.17928460853717354</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.14710801433656684</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.11896535313348977</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.11487733743248896</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5855466664744426E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.5955291061793559E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.9459703100089882E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.8197245967411391E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.3011987304320201E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.5585467937512476E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.5788725228522935E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.5206155602909348E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0FC1-4D80-8378-8E1EC696CCAF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="226705480"/>
-        <c:axId val="226699248"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="226705480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="226699248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="226699248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="226705480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.0955931934636834E-2"/>
-          <c:y val="0.11906549997272506"/>
-          <c:w val="0.70921120058338438"/>
-          <c:h val="0.63314846023588056"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AB$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wall_clock time_DDFact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AB$2:$AB$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.30550505679026285</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17283503560857891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15025235840281637</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13207729326047826</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.8057225186574588E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2435290661199544E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16816602026821581</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17437619235175708</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18002410683471742</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.0659069827711182E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.6486598832249023E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13664495469223692</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.17941470042222243</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17212876565051891</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12177030638388499</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.4079161251502665E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17909556390620529</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17135546098708443</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1743421938887442</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.0361499883892041E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.20632801203930479</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.20745284798068375</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.16400537817196037</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.21583218615249017</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.10124197026866484</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26706658695203139</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.47762644541578836</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.11002159223141535</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.15474817402594404</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.13097106025169125</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.24856115938607756</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.21066377829409824</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.24365126814267038</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27005588577542794</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.2168226319429031</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.15495825886814626</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.42871612822937288</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.13073563693233792</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.18231226754352767</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.30458838124978349</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41279330089152949</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.33567131568920017</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.12231909289534761</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.27597546722227423</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.14332212453187965</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.15099358904454055</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.27008635609605269</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.35948595606885392</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.40047848025587374</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.2578151561299229</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.15043934994938718</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.41717557447780285</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.14855211451195527</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.19435734565660012</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.55234480343115056</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.16789788144671799</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.46133925719131641</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.46253914634349735</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.39934370136776459</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.37214493095746087</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.1619651496509705</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F7B-46D3-8874-8BB3AA9B087B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AC$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wall_clock time_DDFact_comp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AC$2:$AC$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.14344240211329315</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12028784510043659</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13540304857161553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1632288661063549</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39892032428118912</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4214212127315905</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1850398423497685</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46012172732719481</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.37341923184000964</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3161603675426297</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.40151350893646393</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.55643552416007758</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.20804974552471175</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.46565128867004429</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.37825278691174641</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.23359991121910792</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.22453707564465578</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1997759308843321</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.30103233446276656</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.40610907476711056</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.53100595678731199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.3937509542021459</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.2064165363392251</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.46826275551769397</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.19277449268519861</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.21899211877138536</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.19180521574911444</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.19512519773634385</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.1898300974921964</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.20961976888742917</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.18694375627848975</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.15477479546396355</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.17379821848053811</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.19178532985565408</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.18033779076704382</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.21704779157530915</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.23156481454159167</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.17764517664446716</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.15532967603955111</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.1687257119470599</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.20462167408431875</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.43491796106726949</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.18813883432741418</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.17454778836790699</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.18213938856650932</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.1240113182807812</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.1825723878595979</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.557311465692985</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.16058917411960016</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.1529321429167089</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.14222711743069125</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.10762085170640211</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.7673376124354829E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.1166557828819661E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.2255791606100229E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.8566034637377523E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.1150482329138476E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.1442676666918984E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6.2109739340840367E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.741346108202354E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.314276660247586E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6F7B-46D3-8874-8BB3AA9B087B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AD$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wall_clock time_Linx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AD$2:$AD$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>0.11380344013127255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6873013816205589E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.934235425885275E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.655832917440185E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.297245354719436E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1116971391255593E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.2273753058257968E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.8431169790890206E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0979053097901459E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.017527811384225E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9988928047705617E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.1979955019391949E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.1561196591942746E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.6115220149670213E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.0305614108464073E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.8171485681515227E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.8726686997319892E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.0911697652309904E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.856391775194465E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.0458645680848082E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.191095738388883E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.4212229952774211E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.354965764189227E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.1725454071925352E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.4860330465060487E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.977371136202975E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.3265327854235121E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.6422207026263487E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9402294190624888E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.4657455862938727E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.6555724763838976E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.6615703184437173E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.0755497166580924E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.7972113562564226E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.6630777974640996E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.8053658555360405E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.7601658611810682E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.6615061704002964E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.7327425726187927E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.966241450669513E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.5689084697227647E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.7098737951393741E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.1207740872695645E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.4293864752831173E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.3532465966255561E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.7111888300294951E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.715494446703881E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.118059342072007E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.1041879691627524E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.0949827249319068E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.9712565447041297E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.4210228533819488E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.601335305671842E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.0837362899594197E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.5654239480041621E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.85221445460692E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.8634082881838021E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6.1870146398664692E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.5607898933474631E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.2679617728979651E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.0699329139761908E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6F7B-46D3-8874-8BB3AA9B087B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AE$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>wall_clock time_Linx_sdpt3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AE$2:$AE$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>4.0141966034893972</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.282490021771846</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2937095145660962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74489958906763387</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2118274238017466</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88170523460863925</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87926440155648811</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72352770618143381</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.69203037538152046</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72268672533219069</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94604411845834291</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.88849241834274817</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.83715409771286564</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.904276044426369</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.69010914148107572</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.80161223277528815</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.84805862361392115</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.83156552017006924</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.79656891360156623</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78823929016341077</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.99969786271548933</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.723906500377832</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.79996266583872921</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.71732715630440558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.80968750922128119</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.96078309365486048</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.65975204215296235</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.6744210959821515</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.86629783679967975</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78652044333995774</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.84637698265565198</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.77271385995455755</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.72116032263899921</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.69806702700760925</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.69382042653317033</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.80806841260534712</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.65780996013840587</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.67916484379309949</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.72728036672153462</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.67512319631738915</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.87468262755517689</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.6903426403591264</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.69364722681593494</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.7007962055149356</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.6966653922588707</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.88332304826370489</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.71448219057870521</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.88523016959459722</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.68708295753271231</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.68106907846203779</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.69654832207962825</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.68844578271518142</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.73466957984314518</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.0468113932056959</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.71583378985357571</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.69441892777828385</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.92627240851526793</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.8639881864963237</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.0127385184624484</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.72384299381484563</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.74913079401165183</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6F7B-46D3-8874-8BB3AA9B087B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="373987816"/>
-        <c:axId val="373990768"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="373987816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="373990768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="373990768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="373987816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>602456</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533402</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5651,20 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL63"/>
+  <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+      <selection activeCell="A2" sqref="A2:AL62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" customWidth="1"/>
-    <col min="15" max="15" width="11.59765625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -5677,109 +474,109 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -5865,28 +662,28 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.30550505679026285</v>
+        <v>0.33897718510687708</v>
       </c>
       <c r="AC2">
-        <v>0.14344240211329315</v>
+        <v>0.13950499520814116</v>
       </c>
       <c r="AD2">
-        <v>0.11380344013127255</v>
+        <v>7.207257196448251E-2</v>
       </c>
       <c r="AE2">
-        <v>4.0141966034893972</v>
+        <v>3.6523406979563715</v>
       </c>
       <c r="AF2">
-        <v>0.59375</v>
+        <v>0.765625</v>
       </c>
       <c r="AG2">
         <v>0.171875</v>
       </c>
       <c r="AH2">
-        <v>0.140625</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AI2">
-        <v>5.40625</v>
+        <v>4.90625</v>
       </c>
       <c r="AJ2">
         <v>19</v>
@@ -5981,28 +778,28 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.17283503560857891</v>
+        <v>0.18758780263443184</v>
       </c>
       <c r="AC3">
-        <v>0.12028784510043659</v>
+        <v>0.12114261777901512</v>
       </c>
       <c r="AD3">
-        <v>5.6873013816205589E-2</v>
+        <v>0.10464470323190672</v>
       </c>
       <c r="AE3">
-        <v>1.282490021771846</v>
+        <v>0.9936358726122495</v>
       </c>
       <c r="AF3">
-        <v>0.53125</v>
+        <v>0.375</v>
       </c>
       <c r="AG3">
         <v>0.125</v>
       </c>
       <c r="AH3">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="AI3">
-        <v>2.359375</v>
+        <v>2.046875</v>
       </c>
       <c r="AJ3">
         <v>28</v>
@@ -6097,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.15025235840281637</v>
+        <v>0.14831701193281904</v>
       </c>
       <c r="AC4">
-        <v>0.13540304857161553</v>
+        <v>0.13888372140761335</v>
       </c>
       <c r="AD4">
-        <v>4.934235425885275E-2</v>
+        <v>9.3362024614887226E-2</v>
       </c>
       <c r="AE4">
-        <v>1.2937095145660962</v>
+        <v>1.2013029750579578</v>
       </c>
       <c r="AF4">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="AG4">
         <v>0.140625</v>
       </c>
       <c r="AH4">
-        <v>0.140625</v>
+        <v>0.28125</v>
       </c>
       <c r="AI4">
-        <v>2.109375</v>
+        <v>1.59375</v>
       </c>
       <c r="AJ4">
         <v>33</v>
@@ -6213,28 +1010,28 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.13207729326047826</v>
+        <v>0.13553455206062759</v>
       </c>
       <c r="AC5">
-        <v>0.1632288661063549</v>
+        <v>0.15883472513204874</v>
       </c>
       <c r="AD5">
-        <v>4.655832917440185E-2</v>
+        <v>5.0371930355752222E-2</v>
       </c>
       <c r="AE5">
-        <v>0.74489958906763387</v>
+        <v>0.93588178541966294</v>
       </c>
       <c r="AF5">
         <v>0.15625</v>
       </c>
       <c r="AG5">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="AH5">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI5">
-        <v>0.9375</v>
+        <v>1.265625</v>
       </c>
       <c r="AJ5">
         <v>30</v>
@@ -6329,28 +1126,28 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>6.8057225186574588E-2</v>
+        <v>0.1384516843351761</v>
       </c>
       <c r="AC6">
-        <v>0.39892032428118912</v>
+        <v>0.40463880161191201</v>
       </c>
       <c r="AD6">
-        <v>4.297245354719436E-2</v>
+        <v>5.7237053962617086E-2</v>
       </c>
       <c r="AE6">
-        <v>1.2118274238017466</v>
+        <v>1.4901683501251528</v>
       </c>
       <c r="AF6">
-        <v>0.109375</v>
+        <v>0.203125</v>
       </c>
       <c r="AG6">
-        <v>0.40625</v>
+        <v>0.421875</v>
       </c>
       <c r="AH6">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI6">
-        <v>2.21875</v>
+        <v>2.203125</v>
       </c>
       <c r="AJ6">
         <v>31</v>
@@ -6445,28 +1242,28 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>6.2435290661199544E-2</v>
+        <v>0.13660935252813855</v>
       </c>
       <c r="AC7">
-        <v>0.4214212127315905</v>
+        <v>0.48553910657171045</v>
       </c>
       <c r="AD7">
-        <v>4.1116971391255593E-2</v>
+        <v>7.6942370680751868E-2</v>
       </c>
       <c r="AE7">
-        <v>0.88170523460863925</v>
+        <v>1.0074501537628602</v>
       </c>
       <c r="AF7">
-        <v>0.15625</v>
+        <v>0.296875</v>
       </c>
       <c r="AG7">
-        <v>0.40625</v>
+        <v>0.484375</v>
       </c>
       <c r="AH7">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI7">
-        <v>2.1875</v>
+        <v>1.796875</v>
       </c>
       <c r="AJ7">
         <v>30</v>
@@ -6561,28 +1358,28 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.16816602026821581</v>
+        <v>0.17241999776764808</v>
       </c>
       <c r="AC8">
-        <v>0.1850398423497685</v>
+        <v>0.2022562149831868</v>
       </c>
       <c r="AD8">
-        <v>9.2273753058257968E-2</v>
+        <v>7.5255277138791987E-2</v>
       </c>
       <c r="AE8">
-        <v>0.87926440155648811</v>
+        <v>0.69430698944251501</v>
       </c>
       <c r="AF8">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="AG8">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="AH8">
         <v>0.1875</v>
       </c>
       <c r="AI8">
-        <v>1.609375</v>
+        <v>1.375</v>
       </c>
       <c r="AJ8">
         <v>37</v>
@@ -6677,28 +1474,28 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.17437619235175708</v>
+        <v>0.17151166147281341</v>
       </c>
       <c r="AC9">
-        <v>0.46012172732719481</v>
+        <v>0.42802236713977987</v>
       </c>
       <c r="AD9">
-        <v>5.8431169790890206E-2</v>
+        <v>9.4725491277790536E-2</v>
       </c>
       <c r="AE9">
-        <v>0.72352770618143381</v>
+        <v>0.67346368643410004</v>
       </c>
       <c r="AF9">
-        <v>0.28125</v>
+        <v>0.296875</v>
       </c>
       <c r="AG9">
-        <v>0.84375</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AI9">
-        <v>1.921875</v>
+        <v>1.140625</v>
       </c>
       <c r="AJ9">
         <v>37</v>
@@ -6793,16 +1590,16 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.18002410683471742</v>
+        <v>0.18279915119308945</v>
       </c>
       <c r="AC10">
-        <v>0.37341923184000964</v>
+        <v>0.36361516562383328</v>
       </c>
       <c r="AD10">
-        <v>4.0979053097901459E-2</v>
+        <v>6.310531697472696E-2</v>
       </c>
       <c r="AE10">
-        <v>0.69203037538152046</v>
+        <v>0.88066892296718058</v>
       </c>
       <c r="AF10">
         <v>0.359375</v>
@@ -6811,10 +1608,10 @@
         <v>0.375</v>
       </c>
       <c r="AH10">
-        <v>3.125E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AI10">
-        <v>1.265625</v>
+        <v>1.484375</v>
       </c>
       <c r="AJ10">
         <v>40</v>
@@ -6909,28 +1706,28 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>7.0659069827711182E-2</v>
+        <v>0.14875899195198647</v>
       </c>
       <c r="AC11">
-        <v>1.3161603675426297</v>
+        <v>1.0791160271320563</v>
       </c>
       <c r="AD11">
-        <v>4.017527811384225E-2</v>
+        <v>5.6851524221659712E-2</v>
       </c>
       <c r="AE11">
-        <v>0.72268672533219069</v>
+        <v>0.75960199987940169</v>
       </c>
       <c r="AF11">
         <v>0.28125</v>
       </c>
       <c r="AG11">
-        <v>1.40625</v>
+        <v>1.328125</v>
       </c>
       <c r="AH11">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI11">
-        <v>1.4375</v>
+        <v>1.71875</v>
       </c>
       <c r="AJ11">
         <v>36</v>
@@ -7025,28 +1822,28 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>7.6486598832249023E-2</v>
+        <v>0.16915806975971426</v>
       </c>
       <c r="AC12">
-        <v>0.40151350893646393</v>
+        <v>0.40394600274297032</v>
       </c>
       <c r="AD12">
-        <v>3.9988928047705617E-2</v>
+        <v>6.3035074867181476E-2</v>
       </c>
       <c r="AE12">
-        <v>0.94604411845834291</v>
+        <v>0.71624594103255257</v>
       </c>
       <c r="AF12">
-        <v>0.25</v>
+        <v>0.484375</v>
       </c>
       <c r="AG12">
         <v>0.40625</v>
       </c>
       <c r="AH12">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI12">
-        <v>2.109375</v>
+        <v>1.4375</v>
       </c>
       <c r="AJ12">
         <v>37</v>
@@ -7141,28 +1938,28 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.13664495469223692</v>
+        <v>0.20052614225213516</v>
       </c>
       <c r="AC13">
-        <v>0.55643552416007758</v>
+        <v>0.55381218992439507</v>
       </c>
       <c r="AD13">
-        <v>9.1979955019391949E-2</v>
+        <v>8.6191556321340637E-2</v>
       </c>
       <c r="AE13">
-        <v>0.88849241834274817</v>
+        <v>0.92142602383484706</v>
       </c>
       <c r="AF13">
-        <v>0.328125</v>
+        <v>0.609375</v>
       </c>
       <c r="AG13">
-        <v>0.625</v>
+        <v>0.640625</v>
       </c>
       <c r="AH13">
         <v>9.375E-2</v>
       </c>
       <c r="AI13">
-        <v>1.765625</v>
+        <v>1.703125</v>
       </c>
       <c r="AJ13">
         <v>43</v>
@@ -7257,28 +2054,28 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.17941470042222243</v>
+        <v>0.17624995670007068</v>
       </c>
       <c r="AC14">
-        <v>0.20804974552471175</v>
+        <v>0.20514287693711053</v>
       </c>
       <c r="AD14">
-        <v>4.1561196591942746E-2</v>
+        <v>0.10307051024636697</v>
       </c>
       <c r="AE14">
-        <v>0.83715409771286564</v>
+        <v>0.71904792756916125</v>
       </c>
       <c r="AF14">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="AG14">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="AH14">
-        <v>4.6875E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AI14">
-        <v>1.65625</v>
+        <v>1.15625</v>
       </c>
       <c r="AJ14">
         <v>38</v>
@@ -7373,28 +2170,28 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.17212876565051891</v>
+        <v>0.17972870509476591</v>
       </c>
       <c r="AC15">
-        <v>0.46565128867004429</v>
+        <v>0.4733500161011589</v>
       </c>
       <c r="AD15">
-        <v>8.6115220149670213E-2</v>
+        <v>5.4276301018542632E-2</v>
       </c>
       <c r="AE15">
-        <v>0.904276044426369</v>
+        <v>0.68411643126472998</v>
       </c>
       <c r="AF15">
-        <v>0.203125</v>
+        <v>0.25</v>
       </c>
       <c r="AG15">
         <v>0.484375</v>
       </c>
       <c r="AH15">
-        <v>9.375E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI15">
-        <v>1.578125</v>
+        <v>1.34375</v>
       </c>
       <c r="AJ15">
         <v>38</v>
@@ -7489,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.12177030638388499</v>
+        <v>0.17927581990821698</v>
       </c>
       <c r="AC16">
-        <v>0.37825278691174641</v>
+        <v>0.37887887181553076</v>
       </c>
       <c r="AD16">
-        <v>7.0305614108464073E-2</v>
+        <v>5.3875375747164334E-2</v>
       </c>
       <c r="AE16">
-        <v>0.69010914148107572</v>
+        <v>0.75033517352687229</v>
       </c>
       <c r="AF16">
-        <v>0.40625</v>
+        <v>0.59375</v>
       </c>
       <c r="AG16">
-        <v>0.375</v>
+        <v>0.390625</v>
       </c>
       <c r="AH16">
-        <v>7.8125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI16">
-        <v>1.78125</v>
+        <v>1.859375</v>
       </c>
       <c r="AJ16">
         <v>38</v>
@@ -7605,28 +2402,28 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>8.4079161251502665E-2</v>
+        <v>0.17381201030987353</v>
       </c>
       <c r="AC17">
-        <v>0.23359991121910792</v>
+        <v>0.23400693055461116</v>
       </c>
       <c r="AD17">
-        <v>8.8171485681515227E-2</v>
+        <v>4.8691572358351497E-2</v>
       </c>
       <c r="AE17">
-        <v>0.80161223277528815</v>
+        <v>0.69725491277790541</v>
       </c>
       <c r="AF17">
-        <v>0.203125</v>
+        <v>0.296875</v>
       </c>
       <c r="AG17">
         <v>0.234375</v>
       </c>
       <c r="AH17">
-        <v>9.375E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI17">
-        <v>2.109375</v>
+        <v>1.734375</v>
       </c>
       <c r="AJ17">
         <v>37</v>
@@ -7721,28 +2518,28 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.17909556390620529</v>
+        <v>0.18916103339932028</v>
       </c>
       <c r="AC18">
-        <v>0.22453707564465578</v>
+        <v>0.2257446625620472</v>
       </c>
       <c r="AD18">
-        <v>8.8726686997319892E-2</v>
+        <v>6.6367886463094994E-2</v>
       </c>
       <c r="AE18">
-        <v>0.84805862361392115</v>
+        <v>0.69290535469377645</v>
       </c>
       <c r="AF18">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="AG18">
-        <v>0.703125</v>
+        <v>0.234375</v>
       </c>
       <c r="AH18">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI18">
-        <v>1.671875</v>
+        <v>1.1875</v>
       </c>
       <c r="AJ18">
         <v>38</v>
@@ -7837,28 +2634,28 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.17135546098708443</v>
+        <v>0.16498844693737996</v>
       </c>
       <c r="AC19">
-        <v>0.1997759308843321</v>
+        <v>0.19471657469975509</v>
       </c>
       <c r="AD19">
-        <v>4.0911697652309904E-2</v>
+        <v>5.3706987133185453E-2</v>
       </c>
       <c r="AE19">
-        <v>0.83156552017006924</v>
+        <v>0.69939360854554578</v>
       </c>
       <c r="AF19">
         <v>0.453125</v>
       </c>
       <c r="AG19">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="AH19">
         <v>4.6875E-2</v>
       </c>
       <c r="AI19">
-        <v>1.46875</v>
+        <v>1.5625</v>
       </c>
       <c r="AJ19">
         <v>33</v>
@@ -7953,28 +2750,28 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.1743421938887442</v>
+        <v>0.1743425146289613</v>
       </c>
       <c r="AC20">
-        <v>0.30103233446276656</v>
+        <v>0.36226837745221935</v>
       </c>
       <c r="AD20">
-        <v>4.856391775194465E-2</v>
+        <v>5.3469960112746601E-2</v>
       </c>
       <c r="AE20">
-        <v>0.79656891360156623</v>
+        <v>0.69539846840131525</v>
       </c>
       <c r="AF20">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="AG20">
-        <v>0.3125</v>
+        <v>0.359375</v>
       </c>
       <c r="AH20">
         <v>4.6875E-2</v>
       </c>
       <c r="AI20">
-        <v>1.640625</v>
+        <v>1.28125</v>
       </c>
       <c r="AJ20">
         <v>36</v>
@@ -8069,28 +2866,28 @@
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>9.0361499883892041E-2</v>
+        <v>0.17543335210732738</v>
       </c>
       <c r="AC21">
-        <v>0.40610907476711056</v>
+        <v>0.3729041230513428</v>
       </c>
       <c r="AD21">
-        <v>8.0458645680848082E-2</v>
+        <v>6.1632798638008739E-2</v>
       </c>
       <c r="AE21">
-        <v>0.78823929016341077</v>
+        <v>0.75104721680884012</v>
       </c>
       <c r="AF21">
-        <v>0.3125</v>
+        <v>0.546875</v>
       </c>
       <c r="AG21">
         <v>0.453125</v>
       </c>
       <c r="AH21">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI21">
-        <v>1.65625</v>
+        <v>1.765625</v>
       </c>
       <c r="AJ21">
         <v>34</v>
@@ -8185,28 +2982,28 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.20632801203930479</v>
+        <v>0.2071179951940286</v>
       </c>
       <c r="AC22">
-        <v>0.53100595678731199</v>
+        <v>0.53607076555557975</v>
       </c>
       <c r="AD22">
-        <v>8.191095738388883E-2</v>
+        <v>5.2855421856777947E-2</v>
       </c>
       <c r="AE22">
-        <v>0.99969786271548933</v>
+        <v>0.71615709599241517</v>
       </c>
       <c r="AF22">
-        <v>0.21875</v>
+        <v>0.265625</v>
       </c>
       <c r="AG22">
-        <v>0.53125</v>
+        <v>0.546875</v>
       </c>
       <c r="AH22">
-        <v>7.8125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI22">
-        <v>1.515625</v>
+        <v>2.140625</v>
       </c>
       <c r="AJ22">
         <v>40</v>
@@ -8301,28 +3098,28 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.20745284798068375</v>
+        <v>0.20747914867848616</v>
       </c>
       <c r="AC23">
-        <v>0.3937509542021459</v>
+        <v>0.36334125347842766</v>
       </c>
       <c r="AD23">
-        <v>7.4212229952774211E-2</v>
+        <v>8.3065622165458333E-2</v>
       </c>
       <c r="AE23">
-        <v>0.723906500377832</v>
+        <v>0.69787490361756477</v>
       </c>
       <c r="AF23">
-        <v>0.234375</v>
+        <v>0.265625</v>
       </c>
       <c r="AG23">
-        <v>0.390625</v>
+        <v>0.375</v>
       </c>
       <c r="AH23">
         <v>7.8125E-2</v>
       </c>
       <c r="AI23">
-        <v>1.4375</v>
+        <v>1.640625</v>
       </c>
       <c r="AJ23">
         <v>41</v>
@@ -8417,19 +3214,19 @@
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>0.16400537817196037</v>
+        <v>0.18185072237111696</v>
       </c>
       <c r="AC24">
-        <v>0.2064165363392251</v>
+        <v>0.20785377325206203</v>
       </c>
       <c r="AD24">
-        <v>9.354965764189227E-2</v>
+        <v>9.9111293006452009E-2</v>
       </c>
       <c r="AE24">
-        <v>0.79996266583872921</v>
+        <v>0.69290310951225675</v>
       </c>
       <c r="AF24">
-        <v>0.203125</v>
+        <v>0.25</v>
       </c>
       <c r="AG24">
         <v>0.21875</v>
@@ -8438,7 +3235,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="AI24">
-        <v>0.859375</v>
+        <v>1.1875</v>
       </c>
       <c r="AJ24">
         <v>38</v>
@@ -8533,28 +3330,28 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.21583218615249017</v>
+        <v>0.2126991957118316</v>
       </c>
       <c r="AC25">
-        <v>0.46826275551769397</v>
+        <v>0.44825209411287747</v>
       </c>
       <c r="AD25">
-        <v>5.1725454071925352E-2</v>
+        <v>9.5348689519620958E-2</v>
       </c>
       <c r="AE25">
-        <v>0.71732715630440558</v>
+        <v>0.71951524606547979</v>
       </c>
       <c r="AF25">
-        <v>0.234375</v>
+        <v>0.265625</v>
       </c>
       <c r="AG25">
-        <v>0.46875</v>
+        <v>0.453125</v>
       </c>
       <c r="AH25">
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AI25">
-        <v>0.875</v>
+        <v>1.625</v>
       </c>
       <c r="AJ25">
         <v>39</v>
@@ -8649,28 +3446,28 @@
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>0.10124197026866484</v>
+        <v>0.20187228894331494</v>
       </c>
       <c r="AC26">
-        <v>0.19277449268519861</v>
+        <v>0.19455171422816434</v>
       </c>
       <c r="AD26">
-        <v>4.4860330465060487E-2</v>
+        <v>6.7652130292373949E-2</v>
       </c>
       <c r="AE26">
-        <v>0.80968750922128119</v>
+        <v>0.82991370805199072</v>
       </c>
       <c r="AF26">
-        <v>0.140625</v>
+        <v>0.25</v>
       </c>
       <c r="AG26">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="AH26">
-        <v>4.6875E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AI26">
-        <v>1.265625</v>
+        <v>1.75</v>
       </c>
       <c r="AJ26">
         <v>41</v>
@@ -8765,28 +3562,28 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.26706658695203139</v>
+        <v>0.23369196366141637</v>
       </c>
       <c r="AC27">
-        <v>0.21899211877138536</v>
+        <v>0.22139702891922095</v>
       </c>
       <c r="AD27">
-        <v>3.977371136202975E-2</v>
+        <v>5.5370987379513938E-2</v>
       </c>
       <c r="AE27">
-        <v>0.96078309365486048</v>
+        <v>0.76148570717444553</v>
       </c>
       <c r="AF27">
-        <v>0.3125</v>
+        <v>0.296875</v>
       </c>
       <c r="AG27">
-        <v>0.21875</v>
+        <v>0.234375</v>
       </c>
       <c r="AH27">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI27">
-        <v>1.234375</v>
+        <v>1.296875</v>
       </c>
       <c r="AJ27">
         <v>47</v>
@@ -8881,28 +3678,28 @@
         <v>2</v>
       </c>
       <c r="AB28">
-        <v>0.47762644541578836</v>
+        <v>0.39490305306197854</v>
       </c>
       <c r="AC28">
-        <v>0.19180521574911444</v>
+        <v>0.2000065431004289</v>
       </c>
       <c r="AD28">
-        <v>5.3265327854235121E-2</v>
+        <v>5.4783391301781906E-2</v>
       </c>
       <c r="AE28">
-        <v>0.65975204215296235</v>
+        <v>0.66744948662320847</v>
       </c>
       <c r="AF28">
-        <v>0.515625</v>
+        <v>0.453125</v>
       </c>
       <c r="AG28">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="AH28">
-        <v>6.25E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI28">
-        <v>1.75</v>
+        <v>1.703125</v>
       </c>
       <c r="AJ28">
         <v>122</v>
@@ -8997,28 +3794,28 @@
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>0.11002159223141535</v>
+        <v>0.23396074396334837</v>
       </c>
       <c r="AC29">
-        <v>0.19512519773634385</v>
+        <v>0.19520409982975109</v>
       </c>
       <c r="AD29">
-        <v>9.6422207026263487E-2</v>
+        <v>5.7330710106011054E-2</v>
       </c>
       <c r="AE29">
-        <v>0.6744210959821515</v>
+        <v>0.77801248834109316</v>
       </c>
       <c r="AF29">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG29">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="AH29">
-        <v>9.375E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI29">
-        <v>1.546875</v>
+        <v>1.703125</v>
       </c>
       <c r="AJ29">
         <v>44</v>
@@ -9113,28 +3910,28 @@
         <v>2</v>
       </c>
       <c r="AB30">
-        <v>0.15474817402594404</v>
+        <v>0.27791915293791625</v>
       </c>
       <c r="AC30">
-        <v>0.1898300974921964</v>
+        <v>0.18097670527951226</v>
       </c>
       <c r="AD30">
-        <v>3.9402294190624888E-2</v>
+        <v>5.7273297607149685E-2</v>
       </c>
       <c r="AE30">
-        <v>0.86629783679967975</v>
+        <v>0.67511774373369837</v>
       </c>
       <c r="AF30">
-        <v>0.1875</v>
+        <v>0.328125</v>
       </c>
       <c r="AG30">
         <v>0.1875</v>
       </c>
       <c r="AH30">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI30">
-        <v>2.046875</v>
+        <v>1.453125</v>
       </c>
       <c r="AJ30">
         <v>78</v>
@@ -9229,19 +4026,19 @@
         <v>2</v>
       </c>
       <c r="AB31">
-        <v>0.13097106025169125</v>
+        <v>0.20647779772069172</v>
       </c>
       <c r="AC31">
-        <v>0.20961976888742917</v>
+        <v>0.1984002760931789</v>
       </c>
       <c r="AD31">
-        <v>8.4657455862938727E-2</v>
+        <v>7.5124415130214117E-2</v>
       </c>
       <c r="AE31">
-        <v>0.78652044333995774</v>
+        <v>0.68315902171667864</v>
       </c>
       <c r="AF31">
-        <v>0.40625</v>
+        <v>0.6875</v>
       </c>
       <c r="AG31">
         <v>0.203125</v>
@@ -9250,7 +4047,7 @@
         <v>7.8125E-2</v>
       </c>
       <c r="AI31">
-        <v>1.46875</v>
+        <v>1.8125</v>
       </c>
       <c r="AJ31">
         <v>40</v>
@@ -9345,28 +4142,28 @@
         <v>2</v>
       </c>
       <c r="AB32">
-        <v>0.24856115938607756</v>
+        <v>0.24146189542072777</v>
       </c>
       <c r="AC32">
-        <v>0.18694375627848975</v>
+        <v>0.19135297204299972</v>
       </c>
       <c r="AD32">
-        <v>3.6555724763838976E-2</v>
+        <v>5.4915536271228194E-2</v>
       </c>
       <c r="AE32">
-        <v>0.84637698265565198</v>
+        <v>0.69448500026300697</v>
       </c>
       <c r="AF32">
-        <v>0.28125</v>
+        <v>0.296875</v>
       </c>
       <c r="AG32">
         <v>0.1875</v>
       </c>
       <c r="AH32">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI32">
-        <v>1.9375</v>
+        <v>1.921875</v>
       </c>
       <c r="AJ32">
         <v>47</v>
@@ -9461,28 +4258,28 @@
         <v>2</v>
       </c>
       <c r="AB33">
-        <v>0.21066377829409824</v>
+        <v>0.1991065460512389</v>
       </c>
       <c r="AC33">
-        <v>0.15477479546396355</v>
+        <v>0.15344147838146788</v>
       </c>
       <c r="AD33">
-        <v>3.6615703184437173E-2</v>
+        <v>4.7353444172599291E-2</v>
       </c>
       <c r="AE33">
-        <v>0.77271385995455755</v>
+        <v>0.68508667042146543</v>
       </c>
       <c r="AF33">
-        <v>0.34375</v>
+        <v>0.4375</v>
       </c>
       <c r="AG33">
-        <v>0.140625</v>
+        <v>0.171875</v>
       </c>
       <c r="AH33">
         <v>4.6875E-2</v>
       </c>
       <c r="AI33">
-        <v>1.125</v>
+        <v>1.53125</v>
       </c>
       <c r="AJ33">
         <v>37</v>
@@ -9577,28 +4374,28 @@
         <v>2</v>
       </c>
       <c r="AB34">
-        <v>0.24365126814267038</v>
+        <v>0.2553457771984497</v>
       </c>
       <c r="AC34">
-        <v>0.17379821848053811</v>
+        <v>0.16621976863083698</v>
       </c>
       <c r="AD34">
-        <v>4.0755497166580924E-2</v>
+        <v>6.29776623683201E-2</v>
       </c>
       <c r="AE34">
-        <v>0.72116032263899921</v>
+        <v>0.69057774293826268</v>
       </c>
       <c r="AF34">
-        <v>0.25</v>
+        <v>0.296875</v>
       </c>
       <c r="AG34">
         <v>0.171875</v>
       </c>
       <c r="AH34">
-        <v>3.125E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AI34">
-        <v>1.59375</v>
+        <v>1.4375</v>
       </c>
       <c r="AJ34">
         <v>44</v>
@@ -9693,28 +4490,28 @@
         <v>2</v>
       </c>
       <c r="AB35">
-        <v>0.27005588577542794</v>
+        <v>0.26262786308754799</v>
       </c>
       <c r="AC35">
-        <v>0.19178532985565408</v>
+        <v>0.18224972320119265</v>
       </c>
       <c r="AD35">
-        <v>3.7972113562564226E-2</v>
+        <v>8.1537615771181363E-2</v>
       </c>
       <c r="AE35">
-        <v>0.69806702700760925</v>
+        <v>0.67038874997273712</v>
       </c>
       <c r="AF35">
-        <v>0.875</v>
+        <v>0.828125</v>
       </c>
       <c r="AG35">
-        <v>0.359375</v>
+        <v>0.1875</v>
       </c>
       <c r="AH35">
-        <v>4.6875E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AI35">
-        <v>1.0625</v>
+        <v>1.078125</v>
       </c>
       <c r="AJ35">
         <v>62</v>
@@ -9809,28 +4606,28 @@
         <v>2</v>
       </c>
       <c r="AB36">
-        <v>0.2168226319429031</v>
+        <v>0.46256384334021428</v>
       </c>
       <c r="AC36">
-        <v>0.18033779076704382</v>
+        <v>0.18042342840501022</v>
       </c>
       <c r="AD36">
-        <v>3.6630777974640996E-2</v>
+        <v>4.5844361451131382E-2</v>
       </c>
       <c r="AE36">
-        <v>0.69382042653317033</v>
+        <v>0.69478457162578089</v>
       </c>
       <c r="AF36">
-        <v>0.25</v>
+        <v>0.546875</v>
       </c>
       <c r="AG36">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="AH36">
-        <v>3.125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI36">
-        <v>1.40625</v>
+        <v>1.828125</v>
       </c>
       <c r="AJ36">
         <v>117</v>
@@ -9925,28 +4722,28 @@
         <v>2</v>
       </c>
       <c r="AB37">
-        <v>0.15495825886814626</v>
+        <v>0.29572953645340866</v>
       </c>
       <c r="AC37">
-        <v>0.21704779157530915</v>
+        <v>0.21488953065442551</v>
       </c>
       <c r="AD37">
-        <v>5.8053658555360405E-2</v>
+        <v>4.5273443864688685E-2</v>
       </c>
       <c r="AE37">
-        <v>0.80806841260534712</v>
+        <v>0.66538327814463327</v>
       </c>
       <c r="AF37">
-        <v>0.328125</v>
+        <v>0.46875</v>
       </c>
       <c r="AG37">
         <v>0.21875</v>
       </c>
       <c r="AH37">
-        <v>6.25E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI37">
-        <v>1.375</v>
+        <v>0.921875</v>
       </c>
       <c r="AJ37">
         <v>73</v>
@@ -10041,28 +4838,28 @@
         <v>2</v>
       </c>
       <c r="AB38">
-        <v>0.42871612822937288</v>
+        <v>0.37051974027740181</v>
       </c>
       <c r="AC38">
-        <v>0.23156481454159167</v>
+        <v>0.21024874045316744</v>
       </c>
       <c r="AD38">
-        <v>3.7601658611810682E-2</v>
+        <v>4.8589576969312862E-2</v>
       </c>
       <c r="AE38">
-        <v>0.65780996013840587</v>
+        <v>0.68046736981475331</v>
       </c>
       <c r="AF38">
-        <v>0.453125</v>
+        <v>0.40625</v>
       </c>
       <c r="AG38">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="AH38">
-        <v>3.125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI38">
-        <v>1.390625</v>
+        <v>1.046875</v>
       </c>
       <c r="AJ38">
         <v>95</v>
@@ -10157,28 +4954,28 @@
         <v>2</v>
       </c>
       <c r="AB39">
-        <v>0.13073563693233792</v>
+        <v>0.24555389911052322</v>
       </c>
       <c r="AC39">
-        <v>0.17764517664446716</v>
+        <v>0.19127856031263191</v>
       </c>
       <c r="AD39">
-        <v>3.6615061704002964E-2</v>
+        <v>5.8056224477097226E-2</v>
       </c>
       <c r="AE39">
-        <v>0.67916484379309949</v>
+        <v>0.68576375301976911</v>
       </c>
       <c r="AF39">
-        <v>0.171875</v>
+        <v>0.28125</v>
       </c>
       <c r="AG39">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="AH39">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI39">
-        <v>1.15625</v>
+        <v>1.46875</v>
       </c>
       <c r="AJ39">
         <v>53</v>
@@ -10273,28 +5070,28 @@
         <v>2</v>
       </c>
       <c r="AB40">
-        <v>0.18231226754352767</v>
+        <v>0.38274154625009782</v>
       </c>
       <c r="AC40">
-        <v>0.15532967603955111</v>
+        <v>0.1582814482575467</v>
       </c>
       <c r="AD40">
-        <v>3.7327425726187927E-2</v>
+        <v>8.1206611867131434E-2</v>
       </c>
       <c r="AE40">
-        <v>0.72728036672153462</v>
+        <v>0.82658378311803116</v>
       </c>
       <c r="AF40">
-        <v>0.21875</v>
+        <v>0.421875</v>
       </c>
       <c r="AG40">
         <v>0.15625</v>
       </c>
       <c r="AH40">
-        <v>3.125E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AI40">
-        <v>1.0625</v>
+        <v>1.546875</v>
       </c>
       <c r="AJ40">
         <v>94</v>
@@ -10389,28 +5186,28 @@
         <v>2</v>
       </c>
       <c r="AB41">
-        <v>0.30458838124978349</v>
+        <v>0.34334855352576893</v>
       </c>
       <c r="AC41">
-        <v>0.1687257119470599</v>
+        <v>0.17240652667852976</v>
       </c>
       <c r="AD41">
-        <v>3.966241450669513E-2</v>
+        <v>5.7552983076463185E-2</v>
       </c>
       <c r="AE41">
-        <v>0.67512319631738915</v>
+        <v>0.67481304052745084</v>
       </c>
       <c r="AF41">
-        <v>0.34375</v>
+        <v>0.40625</v>
       </c>
       <c r="AG41">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="AH41">
         <v>4.6875E-2</v>
       </c>
       <c r="AI41">
-        <v>0.984375</v>
+        <v>1.375</v>
       </c>
       <c r="AJ41">
         <v>70</v>
@@ -10505,28 +5302,28 @@
         <v>2</v>
       </c>
       <c r="AB42">
-        <v>0.41279330089152949</v>
+        <v>0.46757637145309433</v>
       </c>
       <c r="AC42">
-        <v>0.20462167408431875</v>
+        <v>0.20616860415140478</v>
       </c>
       <c r="AD42">
-        <v>3.5689084697227647E-2</v>
+        <v>4.6966631470773512E-2</v>
       </c>
       <c r="AE42">
-        <v>0.87468262755517689</v>
+        <v>0.67645298525749664</v>
       </c>
       <c r="AF42">
-        <v>0.4375</v>
+        <v>0.53125</v>
       </c>
       <c r="AG42">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="AH42">
-        <v>3.125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1.40625</v>
       </c>
       <c r="AJ42">
         <v>132</v>
@@ -10621,28 +5418,28 @@
         <v>2</v>
       </c>
       <c r="AB43">
-        <v>0.33567131568920017</v>
+        <v>0.33958595003893788</v>
       </c>
       <c r="AC43">
-        <v>0.43491796106726949</v>
+        <v>0.54150250113221299</v>
       </c>
       <c r="AD43">
-        <v>3.7098737951393741E-2</v>
+        <v>4.9651868568356794E-2</v>
       </c>
       <c r="AE43">
-        <v>0.6903426403591264</v>
+        <v>0.6947242724649656</v>
       </c>
       <c r="AF43">
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="AG43">
-        <v>0.421875</v>
+        <v>0.546875</v>
       </c>
       <c r="AH43">
         <v>4.6875E-2</v>
       </c>
       <c r="AI43">
-        <v>1.203125</v>
+        <v>1.34375</v>
       </c>
       <c r="AJ43">
         <v>84</v>
@@ -10737,28 +5534,28 @@
         <v>2</v>
       </c>
       <c r="AB44">
-        <v>0.12231909289534761</v>
+        <v>0.27718562006140252</v>
       </c>
       <c r="AC44">
-        <v>0.18813883432741418</v>
+        <v>0.19702526278245988</v>
       </c>
       <c r="AD44">
-        <v>4.1207740872695645E-2</v>
+        <v>5.7078929035585486E-2</v>
       </c>
       <c r="AE44">
-        <v>0.69364722681593494</v>
+        <v>0.6984958566778755</v>
       </c>
       <c r="AF44">
-        <v>0.15625</v>
+        <v>0.34375</v>
       </c>
       <c r="AG44">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="AH44">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI44">
-        <v>0.953125</v>
+        <v>1.15625</v>
       </c>
       <c r="AJ44">
         <v>56</v>
@@ -10853,28 +5650,28 @@
         <v>2</v>
       </c>
       <c r="AB45">
-        <v>0.27597546722227423</v>
+        <v>0.25446021345902931</v>
       </c>
       <c r="AC45">
-        <v>0.17454778836790699</v>
+        <v>0.1846020319534234</v>
       </c>
       <c r="AD45">
-        <v>3.4293864752831173E-2</v>
+        <v>6.5234711276071375E-2</v>
       </c>
       <c r="AE45">
-        <v>0.7007962055149356</v>
+        <v>0.6878315651994299</v>
       </c>
       <c r="AF45">
-        <v>0.3125</v>
+        <v>0.28125</v>
       </c>
       <c r="AG45">
-        <v>0.171875</v>
+        <v>0.234375</v>
       </c>
       <c r="AH45">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI45">
-        <v>0.96875</v>
+        <v>0.953125</v>
       </c>
       <c r="AJ45">
         <v>63</v>
@@ -10969,28 +5766,28 @@
         <v>2</v>
       </c>
       <c r="AB46">
-        <v>0.14332212453187965</v>
+        <v>0.29901872737979618</v>
       </c>
       <c r="AC46">
-        <v>0.18213938856650932</v>
+        <v>0.17943234113416306</v>
       </c>
       <c r="AD46">
-        <v>4.3532465966255561E-2</v>
+        <v>5.5417815451210925E-2</v>
       </c>
       <c r="AE46">
-        <v>0.6966653922588707</v>
+        <v>0.69158935758300433</v>
       </c>
       <c r="AF46">
-        <v>0.171875</v>
+        <v>0.34375</v>
       </c>
       <c r="AG46">
         <v>0.1875</v>
       </c>
       <c r="AH46">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI46">
-        <v>1.40625</v>
+        <v>1.15625</v>
       </c>
       <c r="AJ46">
         <v>63</v>
@@ -11061,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>17</v>
@@ -11085,28 +5882,28 @@
         <v>2</v>
       </c>
       <c r="AB47">
-        <v>0.15099358904454055</v>
+        <v>0.3130520740986879</v>
       </c>
       <c r="AC47">
-        <v>1.1240113182807812</v>
+        <v>0.95472495243422584</v>
       </c>
       <c r="AD47">
-        <v>3.7111888300294951E-2</v>
+        <v>5.7398707032036818E-2</v>
       </c>
       <c r="AE47">
-        <v>0.88332304826370489</v>
+        <v>0.6927491542080475</v>
       </c>
       <c r="AF47">
-        <v>0.1875</v>
+        <v>0.34375</v>
       </c>
       <c r="AG47">
-        <v>1.125</v>
+        <v>0.96875</v>
       </c>
       <c r="AH47">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI47">
-        <v>1.375</v>
+        <v>1.09375</v>
       </c>
       <c r="AJ47">
         <v>62</v>
@@ -11177,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U48">
         <v>23</v>
@@ -11201,28 +5998,28 @@
         <v>2</v>
       </c>
       <c r="AB48">
-        <v>0.27008635609605269</v>
+        <v>0.24832413236563872</v>
       </c>
       <c r="AC48">
-        <v>0.1825723878595979</v>
+        <v>0.19902154989370668</v>
       </c>
       <c r="AD48">
-        <v>5.715494446703881E-2</v>
+        <v>7.7305127866294954E-2</v>
       </c>
       <c r="AE48">
-        <v>0.71448219057870521</v>
+        <v>0.68989296257474853</v>
       </c>
       <c r="AF48">
         <v>0.3125</v>
       </c>
       <c r="AG48">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="AH48">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AI48">
-        <v>1.203125</v>
+        <v>0.9375</v>
       </c>
       <c r="AJ48">
         <v>50</v>
@@ -11293,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U49">
         <v>24</v>
@@ -11317,28 +6114,28 @@
         <v>2</v>
       </c>
       <c r="AB49">
-        <v>0.35948595606885392</v>
+        <v>0.43236551041956667</v>
       </c>
       <c r="AC49">
-        <v>1.557311465692985</v>
+        <v>1.2550256784617813</v>
       </c>
       <c r="AD49">
-        <v>7.118059342072007E-2</v>
+        <v>7.5407628741915741E-2</v>
       </c>
       <c r="AE49">
-        <v>0.88523016959459722</v>
+        <v>0.69796246569683373</v>
       </c>
       <c r="AF49">
-        <v>0.390625</v>
+        <v>0.484375</v>
       </c>
       <c r="AG49">
-        <v>1.546875</v>
+        <v>1.265625</v>
       </c>
       <c r="AH49">
         <v>7.8125E-2</v>
       </c>
       <c r="AI49">
-        <v>1.875</v>
+        <v>1.078125</v>
       </c>
       <c r="AJ49">
         <v>104</v>
@@ -11409,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U50">
         <v>29</v>
@@ -11433,28 +6230,28 @@
         <v>2</v>
       </c>
       <c r="AB50">
-        <v>0.40047848025587374</v>
+        <v>0.45585588243972969</v>
       </c>
       <c r="AC50">
-        <v>0.16058917411960016</v>
+        <v>0.1577583209634523</v>
       </c>
       <c r="AD50">
-        <v>3.1041879691627524E-2</v>
+        <v>4.3724910096517147E-2</v>
       </c>
       <c r="AE50">
-        <v>0.68708295753271231</v>
+        <v>0.70455143197677328</v>
       </c>
       <c r="AF50">
-        <v>0.421875</v>
+        <v>0.5</v>
       </c>
       <c r="AG50">
         <v>0.15625</v>
       </c>
       <c r="AH50">
-        <v>3.125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI50">
-        <v>0.921875</v>
+        <v>1.21875</v>
       </c>
       <c r="AJ50">
         <v>108</v>
@@ -11525,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U51">
         <v>30</v>
@@ -11549,28 +6346,28 @@
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>0.2578151561299229</v>
+        <v>0.45900555137167759</v>
       </c>
       <c r="AC51">
-        <v>0.1529321429167089</v>
+        <v>0.15593747875096062</v>
       </c>
       <c r="AD51">
-        <v>3.0949827249319068E-2</v>
+        <v>5.266361920695057E-2</v>
       </c>
       <c r="AE51">
-        <v>0.68106907846203779</v>
+        <v>0.69051712303723023</v>
       </c>
       <c r="AF51">
-        <v>0.28125</v>
+        <v>0.515625</v>
       </c>
       <c r="AG51">
         <v>0.15625</v>
       </c>
       <c r="AH51">
-        <v>3.125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI51">
-        <v>0.984375</v>
+        <v>1.421875</v>
       </c>
       <c r="AJ51">
         <v>120</v>
@@ -11641,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U52">
         <v>32</v>
@@ -11665,25 +6462,25 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>0.15043934994938718</v>
+        <v>0.33973509423989057</v>
       </c>
       <c r="AC52">
-        <v>0.14222711743069125</v>
+        <v>0.14260687384774076</v>
       </c>
       <c r="AD52">
-        <v>6.9712565447041297E-2</v>
+        <v>5.0546092293638954E-2</v>
       </c>
       <c r="AE52">
-        <v>0.69654832207962825</v>
+        <v>0.68692707778720041</v>
       </c>
       <c r="AF52">
-        <v>0.21875</v>
+        <v>0.4375</v>
       </c>
       <c r="AG52">
         <v>0.140625</v>
       </c>
       <c r="AH52">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI52">
         <v>1.1875</v>
@@ -11757,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U53">
         <v>37</v>
@@ -11781,19 +6578,19 @@
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>0.41717557447780285</v>
+        <v>0.46269534682922636</v>
       </c>
       <c r="AC53">
-        <v>0.10762085170640211</v>
+        <v>0.10253359112293715</v>
       </c>
       <c r="AD53">
-        <v>5.4210228533819488E-2</v>
+        <v>5.0611202557710788E-2</v>
       </c>
       <c r="AE53">
-        <v>0.68844578271518142</v>
+        <v>0.82575274521551822</v>
       </c>
       <c r="AF53">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="AG53">
         <v>0.109375</v>
@@ -11802,7 +6599,7 @@
         <v>4.6875E-2</v>
       </c>
       <c r="AI53">
-        <v>0.9375</v>
+        <v>1.640625</v>
       </c>
       <c r="AJ53">
         <v>131</v>
@@ -11873,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U54">
         <v>38</v>
@@ -11897,28 +6694,28 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>0.14855211451195527</v>
+        <v>0.3196737558807719</v>
       </c>
       <c r="AC54">
-        <v>8.7673376124354829E-2</v>
+        <v>9.0331350303484395E-2</v>
       </c>
       <c r="AD54">
-        <v>3.601335305671842E-2</v>
+        <v>5.8334947725759416E-2</v>
       </c>
       <c r="AE54">
-        <v>0.73466957984314518</v>
+        <v>0.72797733521329866</v>
       </c>
       <c r="AF54">
-        <v>0.15625</v>
+        <v>0.359375</v>
       </c>
       <c r="AG54">
         <v>9.375E-2</v>
       </c>
       <c r="AH54">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI54">
-        <v>1.25</v>
+        <v>1.671875</v>
       </c>
       <c r="AJ54">
         <v>63</v>
@@ -11989,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U55">
         <v>41</v>
@@ -12013,28 +6810,28 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>0.19435734565660012</v>
+        <v>0.36613746669112845</v>
       </c>
       <c r="AC55">
-        <v>9.1166557828819661E-2</v>
+        <v>9.1267590997206993E-2</v>
       </c>
       <c r="AD55">
-        <v>6.0837362899594197E-2</v>
+        <v>4.1097406238012335E-2</v>
       </c>
       <c r="AE55">
-        <v>1.0468113932056959</v>
+        <v>0.72455215043485954</v>
       </c>
       <c r="AF55">
-        <v>0.234375</v>
+        <v>0.375</v>
       </c>
       <c r="AG55">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="AH55">
-        <v>6.25E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI55">
-        <v>1.8125</v>
+        <v>1.1875</v>
       </c>
       <c r="AJ55">
         <v>97</v>
@@ -12105,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U56">
         <v>45</v>
@@ -12129,28 +6926,28 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>0.55234480343115056</v>
+        <v>0.4520958448746355</v>
       </c>
       <c r="AC56">
-        <v>9.2255791606100229E-2</v>
+        <v>8.6364756038576074E-2</v>
       </c>
       <c r="AD56">
-        <v>6.5654239480041621E-2</v>
+        <v>4.1635287582093457E-2</v>
       </c>
       <c r="AE56">
-        <v>0.71583378985357571</v>
+        <v>0.71780377626702008</v>
       </c>
       <c r="AF56">
-        <v>1.125</v>
+        <v>0.5</v>
       </c>
       <c r="AG56">
-        <v>0.140625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AH56">
-        <v>7.8125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI56">
-        <v>0.953125</v>
+        <v>1.21875</v>
       </c>
       <c r="AJ56">
         <v>133</v>
@@ -12221,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="U57">
         <v>49</v>
@@ -12245,28 +7042,28 @@
         <v>0</v>
       </c>
       <c r="AB57">
-        <v>0.16789788144671799</v>
+        <v>0.3297049061706569</v>
       </c>
       <c r="AC57">
-        <v>9.8566034637377523E-2</v>
+        <v>0.10654284383672014</v>
       </c>
       <c r="AD57">
-        <v>2.85221445460692E-2</v>
+        <v>4.1877125705788845E-2</v>
       </c>
       <c r="AE57">
-        <v>0.69441892777828385</v>
+        <v>0.71669561881693045</v>
       </c>
       <c r="AF57">
-        <v>0.203125</v>
+        <v>0.359375</v>
       </c>
       <c r="AG57">
-        <v>0.109375</v>
+        <v>0.125</v>
       </c>
       <c r="AH57">
-        <v>3.125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI57">
-        <v>1.546875</v>
+        <v>1.421875</v>
       </c>
       <c r="AJ57">
         <v>84</v>
@@ -12337,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U58">
         <v>53</v>
@@ -12361,28 +7158,28 @@
         <v>0</v>
       </c>
       <c r="AB58">
-        <v>0.46133925719131641</v>
+        <v>0.49165466029120647</v>
       </c>
       <c r="AC58">
-        <v>8.1150482329138476E-2</v>
+        <v>8.6462261064575274E-2</v>
       </c>
       <c r="AD58">
-        <v>2.8634082881838021E-2</v>
+        <v>5.3241913818386624E-2</v>
       </c>
       <c r="AE58">
-        <v>0.92627240851526793</v>
+        <v>0.71284609473126459</v>
       </c>
       <c r="AF58">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="AG58">
-        <v>7.8125E-2</v>
+        <v>0.109375</v>
       </c>
       <c r="AH58">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AI58">
-        <v>1.53125</v>
+        <v>0.9375</v>
       </c>
       <c r="AJ58">
         <v>134</v>
@@ -12453,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U59">
         <v>54</v>
@@ -12477,28 +7274,28 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>0.46253914634349735</v>
+        <v>0.52234853684727767</v>
       </c>
       <c r="AC59">
-        <v>8.1442676666918984E-2</v>
+        <v>8.484701333124639E-2</v>
       </c>
       <c r="AD59">
-        <v>6.1870146398664692E-2</v>
+        <v>3.4622302735144272E-2</v>
       </c>
       <c r="AE59">
-        <v>0.8639881864963237</v>
+        <v>0.72577160474028379</v>
       </c>
       <c r="AF59">
-        <v>0.5</v>
+        <v>0.53125</v>
       </c>
       <c r="AG59">
-        <v>7.8125E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="AH59">
-        <v>6.25E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AI59">
-        <v>1.203125</v>
+        <v>1.34375</v>
       </c>
       <c r="AJ59">
         <v>132</v>
@@ -12569,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="U60">
         <v>57</v>
@@ -12593,28 +7390,28 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>0.39934370136776459</v>
+        <v>0.31532516001729433</v>
       </c>
       <c r="AC60">
-        <v>6.2109739340840367E-2</v>
+        <v>6.5190449126111202E-2</v>
       </c>
       <c r="AD60">
-        <v>2.5607898933474631E-2</v>
+        <v>5.2526663134247739E-2</v>
       </c>
       <c r="AE60">
-        <v>1.0127385184624484</v>
+        <v>0.72598874586726225</v>
       </c>
       <c r="AF60">
-        <v>1.09375</v>
+        <v>0.953125</v>
       </c>
       <c r="AG60">
-        <v>6.25E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AH60">
-        <v>3.125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI60">
-        <v>1.25</v>
+        <v>1.140625</v>
       </c>
       <c r="AJ60">
         <v>83</v>
@@ -12685,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U61">
         <v>57</v>
@@ -12709,28 +7506,28 @@
         <v>0</v>
       </c>
       <c r="AB61">
-        <v>0.37214493095746087</v>
+        <v>0.43883836874091503</v>
       </c>
       <c r="AC61">
-        <v>5.741346108202354E-2</v>
+        <v>6.0374855506532196E-2</v>
       </c>
       <c r="AD61">
-        <v>4.2679617728979651E-2</v>
+        <v>2.9162021279188963E-2</v>
       </c>
       <c r="AE61">
-        <v>0.72384299381484563</v>
+        <v>0.80624885335372387</v>
       </c>
       <c r="AF61">
-        <v>0.421875</v>
+        <v>0.484375</v>
       </c>
       <c r="AG61">
-        <v>6.25E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="AH61">
         <v>3.125E-2</v>
       </c>
       <c r="AI61">
-        <v>0.90625</v>
+        <v>1.3125</v>
       </c>
       <c r="AJ61">
         <v>89</v>
@@ -12801,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="U62">
         <v>60</v>
@@ -12825,28 +7622,28 @@
         <v>0</v>
       </c>
       <c r="AB62">
-        <v>0.1619651496509705</v>
+        <v>0.32730127898368971</v>
       </c>
       <c r="AC62">
-        <v>4.314276660247586E-2</v>
+        <v>4.8587973268227343E-2</v>
       </c>
       <c r="AD62">
-        <v>3.0699329139761908E-2</v>
+        <v>3.7554830540113694E-2</v>
       </c>
       <c r="AE62">
-        <v>0.74913079401165183</v>
+        <v>0.74434310479096077</v>
       </c>
       <c r="AF62">
-        <v>0.203125</v>
+        <v>0.359375</v>
       </c>
       <c r="AG62">
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AH62">
-        <v>3.125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AI62">
-        <v>1.6875</v>
+        <v>0.96875</v>
       </c>
       <c r="AJ62">
         <v>79</v>
@@ -12856,28 +7653,9 @@
       </c>
       <c r="AL62">
         <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="O63">
-        <f>MAX(O2:O62)</f>
-        <v>1.1388312657345523E-6</v>
-      </c>
-      <c r="P63">
-        <f t="shared" ref="P63:R63" si="0">MAX(P2:P62)</f>
-        <v>4.322282478597117E-7</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="0"/>
-        <v>3.4580114771642911E-8</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="0"/>
-        <v>2.082666167524394E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/data63.xlsx
+++ b/Results/data63.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>n</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>continuous_dualgap_Linx_sdpt3</t>
+  </si>
+  <si>
+    <t>fixnum0_DDFact</t>
+  </si>
+  <si>
+    <t>fixnum0_DDFact_comp</t>
+  </si>
+  <si>
+    <t>fixnum0_Linx</t>
+  </si>
+  <si>
+    <t>fixnum0_Linx_sdpt3</t>
+  </si>
+  <si>
+    <t>fixnum1_DDFact</t>
+  </si>
+  <si>
+    <t>fixnum1_DDFact_comp</t>
+  </si>
+  <si>
+    <t>fixnum1_Linx</t>
+  </si>
+  <si>
+    <t>fixnum1_Linx_sdpt3</t>
   </si>
   <si>
     <t>fixnum_DDFact</t>
@@ -455,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL62"/>
+  <dimension ref="A1:AT62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AL62"/>
+      <selection activeCell="A2" sqref="A2:AT62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +602,32 @@
       <c r="AL1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>63</v>
       </c>
@@ -647,55 +695,79 @@
         <v>0</v>
       </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>63</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>50</v>
+      </c>
+      <c r="AB2">
+        <v>63</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>2.1707302622075986E-11</v>
       </c>
-      <c r="X2">
+      <c r="AF2">
         <v>2.1059820554114594E-11</v>
       </c>
-      <c r="Y2">
+      <c r="AG2">
         <v>3.885586408181041E-9</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0.33897718510687708</v>
-      </c>
-      <c r="AC2">
-        <v>0.13950499520814116</v>
-      </c>
-      <c r="AD2">
-        <v>7.207257196448251E-2</v>
-      </c>
-      <c r="AE2">
-        <v>3.6523406979563715</v>
-      </c>
-      <c r="AF2">
-        <v>0.765625</v>
-      </c>
-      <c r="AG2">
-        <v>0.171875</v>
-      </c>
       <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0.25697064713829165</v>
+      </c>
+      <c r="AK2">
+        <v>0.17578744930700868</v>
+      </c>
+      <c r="AL2">
+        <v>6.4802674203634114E-2</v>
+      </c>
+      <c r="AM2">
+        <v>3.3941319935800638</v>
+      </c>
+      <c r="AN2">
+        <v>0.3125</v>
+      </c>
+      <c r="AO2">
+        <v>0.21875</v>
+      </c>
+      <c r="AP2">
         <v>7.8125E-2</v>
       </c>
-      <c r="AI2">
-        <v>4.90625</v>
-      </c>
-      <c r="AJ2">
+      <c r="AQ2">
+        <v>4.359375</v>
+      </c>
+      <c r="AR2">
         <v>19</v>
       </c>
-      <c r="AK2">
+      <c r="AS2">
         <v>12</v>
       </c>
-      <c r="AL2">
+      <c r="AT2">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>63</v>
       </c>
@@ -763,55 +835,79 @@
         <v>0</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>63</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>47</v>
+      </c>
+      <c r="AB3">
+        <v>63</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>1.8892332143138901E-11</v>
       </c>
-      <c r="X3">
+      <c r="AF3">
         <v>2.3236745860799601E-11</v>
       </c>
-      <c r="Y3">
+      <c r="AG3">
         <v>1.1086922560576973E-9</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0.18758780263443184</v>
-      </c>
-      <c r="AC3">
-        <v>0.12114261777901512</v>
-      </c>
-      <c r="AD3">
-        <v>0.10464470323190672</v>
-      </c>
-      <c r="AE3">
-        <v>0.9936358726122495</v>
-      </c>
-      <c r="AF3">
-        <v>0.375</v>
-      </c>
-      <c r="AG3">
-        <v>0.125</v>
-      </c>
       <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.15529311165480142</v>
+      </c>
+      <c r="AK3">
+        <v>0.11110056232174863</v>
+      </c>
+      <c r="AL3">
+        <v>5.6782885815199753E-2</v>
+      </c>
+      <c r="AM3">
+        <v>1.408110814462048</v>
+      </c>
+      <c r="AN3">
         <v>0.171875</v>
       </c>
-      <c r="AI3">
-        <v>2.046875</v>
-      </c>
-      <c r="AJ3">
+      <c r="AO3">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AP3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ3">
+        <v>2.203125</v>
+      </c>
+      <c r="AR3">
         <v>28</v>
       </c>
-      <c r="AK3">
+      <c r="AS3">
         <v>14</v>
       </c>
-      <c r="AL3">
+      <c r="AT3">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>63</v>
       </c>
@@ -879,55 +975,79 @@
         <v>0</v>
       </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>63</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>46</v>
+      </c>
+      <c r="AB4">
+        <v>63</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>3.1236790931643554E-11</v>
       </c>
-      <c r="X4">
+      <c r="AF4">
         <v>6.2396310340773198E-11</v>
       </c>
-      <c r="Y4">
+      <c r="AG4">
         <v>5.9492556367390925E-10</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.14831701193281904</v>
-      </c>
-      <c r="AC4">
-        <v>0.13888372140761335</v>
-      </c>
-      <c r="AD4">
-        <v>9.3362024614887226E-2</v>
-      </c>
-      <c r="AE4">
-        <v>1.2013029750579578</v>
-      </c>
-      <c r="AF4">
-        <v>0.1875</v>
-      </c>
-      <c r="AG4">
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1402292266183589</v>
+      </c>
+      <c r="AK4">
+        <v>0.13268381301101936</v>
+      </c>
+      <c r="AL4">
+        <v>4.978337205736888E-2</v>
+      </c>
+      <c r="AM4">
+        <v>0.8793442658705467</v>
+      </c>
+      <c r="AN4">
+        <v>0.21875</v>
+      </c>
+      <c r="AO4">
         <v>0.140625</v>
       </c>
-      <c r="AH4">
-        <v>0.28125</v>
-      </c>
-      <c r="AI4">
-        <v>1.59375</v>
-      </c>
-      <c r="AJ4">
+      <c r="AP4">
+        <v>0.140625</v>
+      </c>
+      <c r="AQ4">
+        <v>1.546875</v>
+      </c>
+      <c r="AR4">
         <v>33</v>
       </c>
-      <c r="AK4">
+      <c r="AS4">
         <v>18</v>
       </c>
-      <c r="AL4">
+      <c r="AT4">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>63</v>
       </c>
@@ -995,55 +1115,79 @@
         <v>0</v>
       </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>63</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>43</v>
+      </c>
+      <c r="AB5">
+        <v>63</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>4.8220094583939499E-11</v>
       </c>
-      <c r="X5">
+      <c r="AF5">
         <v>4.1323611199572952E-11</v>
       </c>
-      <c r="Y5">
+      <c r="AG5">
         <v>1.1742589678398474E-9</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.13553455206062759</v>
-      </c>
-      <c r="AC5">
-        <v>0.15883472513204874</v>
-      </c>
-      <c r="AD5">
-        <v>5.0371930355752222E-2</v>
-      </c>
-      <c r="AE5">
-        <v>0.93588178541966294</v>
-      </c>
-      <c r="AF5">
-        <v>0.15625</v>
-      </c>
-      <c r="AG5">
-        <v>0.21875</v>
-      </c>
       <c r="AH5">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.265625</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
+        <v>0.11335119642515784</v>
+      </c>
+      <c r="AK5">
+        <v>0.16270124844922104</v>
+      </c>
+      <c r="AL5">
+        <v>6.4483537687616985E-2</v>
+      </c>
+      <c r="AM5">
+        <v>0.86981282883890754</v>
+      </c>
+      <c r="AN5">
+        <v>0.140625</v>
+      </c>
+      <c r="AO5">
+        <v>0.171875</v>
+      </c>
+      <c r="AP5">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AQ5">
+        <v>1.8125</v>
+      </c>
+      <c r="AR5">
         <v>30</v>
       </c>
-      <c r="AK5">
+      <c r="AS5">
         <v>23</v>
       </c>
-      <c r="AL5">
+      <c r="AT5">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>63</v>
       </c>
@@ -1111,55 +1255,79 @@
         <v>0</v>
       </c>
       <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>63</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>42</v>
+      </c>
+      <c r="AB6">
+        <v>63</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
         <v>1.716049524702612E-11</v>
       </c>
-      <c r="X6">
+      <c r="AF6">
         <v>1.1814183475955531E-7</v>
       </c>
-      <c r="Y6">
+      <c r="AG6">
         <v>3.7970149247001928E-9</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.1384516843351761</v>
-      </c>
-      <c r="AC6">
-        <v>0.40463880161191201</v>
-      </c>
-      <c r="AD6">
-        <v>5.7237053962617086E-2</v>
-      </c>
-      <c r="AE6">
-        <v>1.4901683501251528</v>
-      </c>
-      <c r="AF6">
-        <v>0.203125</v>
-      </c>
-      <c r="AG6">
-        <v>0.421875</v>
-      </c>
       <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0.14070039399728268</v>
+      </c>
+      <c r="AK6">
+        <v>0.45185753489332819</v>
+      </c>
+      <c r="AL6">
+        <v>6.3617218361222763E-2</v>
+      </c>
+      <c r="AM6">
+        <v>1.6719414533637309</v>
+      </c>
+      <c r="AN6">
+        <v>0.171875</v>
+      </c>
+      <c r="AO6">
+        <v>0.5</v>
+      </c>
+      <c r="AP6">
         <v>6.25E-2</v>
       </c>
-      <c r="AI6">
-        <v>2.203125</v>
-      </c>
-      <c r="AJ6">
+      <c r="AQ6">
+        <v>2.578125</v>
+      </c>
+      <c r="AR6">
         <v>31</v>
       </c>
-      <c r="AK6">
+      <c r="AS6">
         <v>101</v>
       </c>
-      <c r="AL6">
+      <c r="AT6">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>63</v>
       </c>
@@ -1227,55 +1395,79 @@
         <v>0</v>
       </c>
       <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>63</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>36</v>
+      </c>
+      <c r="AB7">
+        <v>63</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>3.5126568320720253E-11</v>
       </c>
-      <c r="X7">
+      <c r="AF7">
         <v>2.9239718757345656E-8</v>
       </c>
-      <c r="Y7">
+      <c r="AG7">
         <v>2.5596792463389306E-9</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0.13660935252813855</v>
-      </c>
-      <c r="AC7">
-        <v>0.48553910657171045</v>
-      </c>
-      <c r="AD7">
-        <v>7.6942370680751868E-2</v>
-      </c>
-      <c r="AE7">
-        <v>1.0074501537628602</v>
-      </c>
-      <c r="AF7">
-        <v>0.296875</v>
-      </c>
-      <c r="AG7">
-        <v>0.484375</v>
-      </c>
       <c r="AH7">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1.796875</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
+        <v>0.10950231381992617</v>
+      </c>
+      <c r="AK7">
+        <v>0.52836113295708365</v>
+      </c>
+      <c r="AL7">
+        <v>7.8600597603172506E-2</v>
+      </c>
+      <c r="AM7">
+        <v>0.89053232612352096</v>
+      </c>
+      <c r="AN7">
+        <v>0.140625</v>
+      </c>
+      <c r="AO7">
+        <v>0.53125</v>
+      </c>
+      <c r="AP7">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ7">
+        <v>1.6875</v>
+      </c>
+      <c r="AR7">
         <v>30</v>
       </c>
-      <c r="AK7">
+      <c r="AS7">
         <v>115</v>
       </c>
-      <c r="AL7">
+      <c r="AT7">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>63</v>
       </c>
@@ -1343,55 +1535,79 @@
         <v>0</v>
       </c>
       <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>63</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>27</v>
+      </c>
+      <c r="AB8">
+        <v>63</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
         <v>2.4769453155215615E-10</v>
       </c>
-      <c r="X8">
+      <c r="AF8">
         <v>3.4691138850462266E-10</v>
       </c>
-      <c r="Y8">
+      <c r="AG8">
         <v>3.0095383338202275E-9</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0.17241999776764808</v>
-      </c>
-      <c r="AC8">
-        <v>0.2022562149831868</v>
-      </c>
-      <c r="AD8">
-        <v>7.5255277138791987E-2</v>
-      </c>
-      <c r="AE8">
-        <v>0.69430698944251501</v>
-      </c>
-      <c r="AF8">
-        <v>0.1875</v>
-      </c>
-      <c r="AG8">
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0.17595391347968495</v>
+      </c>
+      <c r="AK8">
+        <v>0.21393276258680835</v>
+      </c>
+      <c r="AL8">
+        <v>9.0162320209071306E-2</v>
+      </c>
+      <c r="AM8">
+        <v>1.0467876584296303</v>
+      </c>
+      <c r="AN8">
         <v>0.203125</v>
       </c>
-      <c r="AH8">
-        <v>0.1875</v>
-      </c>
-      <c r="AI8">
-        <v>1.375</v>
-      </c>
-      <c r="AJ8">
+      <c r="AO8">
+        <v>0.21875</v>
+      </c>
+      <c r="AP8">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AQ8">
+        <v>1.8125</v>
+      </c>
+      <c r="AR8">
         <v>37</v>
       </c>
-      <c r="AK8">
+      <c r="AS8">
         <v>30</v>
       </c>
-      <c r="AL8">
+      <c r="AT8">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>63</v>
       </c>
@@ -1459,55 +1675,79 @@
         <v>0</v>
       </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>63</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>24</v>
+      </c>
+      <c r="AB9">
+        <v>63</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>1.2323522202706272E-9</v>
       </c>
-      <c r="X9">
+      <c r="AF9">
         <v>2.283863564933597E-8</v>
       </c>
-      <c r="Y9">
+      <c r="AG9">
         <v>1.680300121265077E-9</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0.17151166147281341</v>
-      </c>
-      <c r="AC9">
-        <v>0.42802236713977987</v>
-      </c>
-      <c r="AD9">
-        <v>9.4725491277790536E-2</v>
-      </c>
-      <c r="AE9">
-        <v>0.67346368643410004</v>
-      </c>
-      <c r="AF9">
-        <v>0.296875</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
       <c r="AH9">
-        <v>9.375E-2</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>1.140625</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
+        <v>0.16434632502274049</v>
+      </c>
+      <c r="AK9">
+        <v>0.42473285547317519</v>
+      </c>
+      <c r="AL9">
+        <v>9.8498037711351766E-2</v>
+      </c>
+      <c r="AM9">
+        <v>0.79818672725663198</v>
+      </c>
+      <c r="AN9">
+        <v>0.359375</v>
+      </c>
+      <c r="AO9">
+        <v>0.96875</v>
+      </c>
+      <c r="AP9">
+        <v>0.109375</v>
+      </c>
+      <c r="AQ9">
+        <v>1.828125</v>
+      </c>
+      <c r="AR9">
         <v>37</v>
       </c>
-      <c r="AK9">
+      <c r="AS9">
         <v>120</v>
       </c>
-      <c r="AL9">
+      <c r="AT9">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>63</v>
       </c>
@@ -1575,55 +1815,79 @@
         <v>0</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>63</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>13</v>
+      </c>
+      <c r="AB10">
+        <v>63</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>2.5630308986279715E-9</v>
       </c>
-      <c r="X10">
+      <c r="AF10">
         <v>4.0326856409755862E-8</v>
       </c>
-      <c r="Y10">
+      <c r="AG10">
         <v>6.8982659758021203E-9</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0.18279915119308945</v>
-      </c>
-      <c r="AC10">
-        <v>0.36361516562383328</v>
-      </c>
-      <c r="AD10">
-        <v>6.310531697472696E-2</v>
-      </c>
-      <c r="AE10">
-        <v>0.88066892296718058</v>
-      </c>
-      <c r="AF10">
-        <v>0.359375</v>
-      </c>
-      <c r="AG10">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0.14605194451964021</v>
+      </c>
+      <c r="AK10">
+        <v>0.36766932196801067</v>
+      </c>
+      <c r="AL10">
+        <v>4.8840716559304227E-2</v>
+      </c>
+      <c r="AM10">
+        <v>0.96713984401761766</v>
+      </c>
+      <c r="AN10">
+        <v>0.234375</v>
+      </c>
+      <c r="AO10">
         <v>0.375</v>
       </c>
-      <c r="AH10">
-        <v>7.8125E-2</v>
-      </c>
-      <c r="AI10">
-        <v>1.484375</v>
-      </c>
-      <c r="AJ10">
+      <c r="AP10">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AQ10">
+        <v>1.203125</v>
+      </c>
+      <c r="AR10">
         <v>40</v>
       </c>
-      <c r="AK10">
+      <c r="AS10">
         <v>92</v>
       </c>
-      <c r="AL10">
+      <c r="AT10">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>63</v>
       </c>
@@ -1691,55 +1955,79 @@
         <v>0</v>
       </c>
       <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>63</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>9</v>
+      </c>
+      <c r="AB11">
+        <v>63</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>3.1287434865134855E-9</v>
       </c>
-      <c r="X11">
+      <c r="AF11">
         <v>2.8232518667348216E-7</v>
       </c>
-      <c r="Y11">
+      <c r="AG11">
         <v>3.1266154942866109E-10</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0.14875899195198647</v>
-      </c>
-      <c r="AC11">
-        <v>1.0791160271320563</v>
-      </c>
-      <c r="AD11">
-        <v>5.6851524221659712E-2</v>
-      </c>
-      <c r="AE11">
-        <v>0.75960199987940169</v>
-      </c>
-      <c r="AF11">
-        <v>0.28125</v>
-      </c>
-      <c r="AG11">
-        <v>1.328125</v>
-      </c>
       <c r="AH11">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>1.71875</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
+        <v>0.14850753162177802</v>
+      </c>
+      <c r="AK11">
+        <v>1.5563053036319339</v>
+      </c>
+      <c r="AL11">
+        <v>7.5430722037547138E-2</v>
+      </c>
+      <c r="AM11">
+        <v>0.80287787367197516</v>
+      </c>
+      <c r="AN11">
+        <v>0.15625</v>
+      </c>
+      <c r="AO11">
+        <v>1.625</v>
+      </c>
+      <c r="AP11">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ11">
+        <v>3.4375</v>
+      </c>
+      <c r="AR11">
         <v>36</v>
       </c>
-      <c r="AK11">
+      <c r="AS11">
         <v>445</v>
       </c>
-      <c r="AL11">
+      <c r="AT11">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>63</v>
       </c>
@@ -1807,55 +2095,79 @@
         <v>0</v>
       </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>63</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>7</v>
+      </c>
+      <c r="AB12">
+        <v>63</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
         <v>1.4492456124060027E-9</v>
       </c>
-      <c r="X12">
+      <c r="AF12">
         <v>1.6481075330728671E-8</v>
       </c>
-      <c r="Y12">
+      <c r="AG12">
         <v>1.1840758564612974E-9</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0.16915806975971426</v>
-      </c>
-      <c r="AC12">
-        <v>0.40394600274297032</v>
-      </c>
-      <c r="AD12">
-        <v>6.3035074867181476E-2</v>
-      </c>
-      <c r="AE12">
-        <v>0.71624594103255257</v>
-      </c>
-      <c r="AF12">
-        <v>0.484375</v>
-      </c>
-      <c r="AG12">
-        <v>0.40625</v>
-      </c>
       <c r="AH12">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>1.4375</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
+        <v>0.17495833584579837</v>
+      </c>
+      <c r="AK12">
+        <v>0.41423374520653744</v>
+      </c>
+      <c r="AL12">
+        <v>8.3705819638795198E-2</v>
+      </c>
+      <c r="AM12">
+        <v>0.82551026561138863</v>
+      </c>
+      <c r="AN12">
+        <v>0.1875</v>
+      </c>
+      <c r="AO12">
+        <v>0.4375</v>
+      </c>
+      <c r="AP12">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ12">
+        <v>2.03125</v>
+      </c>
+      <c r="AR12">
         <v>37</v>
       </c>
-      <c r="AK12">
+      <c r="AS12">
         <v>113</v>
       </c>
-      <c r="AL12">
+      <c r="AT12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>63</v>
       </c>
@@ -1923,55 +2235,79 @@
         <v>0</v>
       </c>
       <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>63</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AB13">
+        <v>63</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>2.3184099084971876E-9</v>
       </c>
-      <c r="X13">
+      <c r="AF13">
         <v>3.3003858160730229E-8</v>
       </c>
-      <c r="Y13">
+      <c r="AG13">
         <v>1.5763743088648141E-9</v>
       </c>
-      <c r="Z13">
+      <c r="AH13">
         <v>2</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0.20052614225213516</v>
-      </c>
-      <c r="AC13">
-        <v>0.55381218992439507</v>
-      </c>
-      <c r="AD13">
-        <v>8.6191556321340637E-2</v>
-      </c>
-      <c r="AE13">
-        <v>0.92142602383484706</v>
-      </c>
-      <c r="AF13">
-        <v>0.609375</v>
-      </c>
-      <c r="AG13">
-        <v>0.640625</v>
-      </c>
-      <c r="AH13">
-        <v>9.375E-2</v>
-      </c>
       <c r="AI13">
-        <v>1.703125</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
+        <v>0.18490705589988798</v>
+      </c>
+      <c r="AK13">
+        <v>0.71111730496108139</v>
+      </c>
+      <c r="AL13">
+        <v>7.0698841614631913E-2</v>
+      </c>
+      <c r="AM13">
+        <v>0.86737552392914463</v>
+      </c>
+      <c r="AN13">
+        <v>0.203125</v>
+      </c>
+      <c r="AO13">
+        <v>0.796875</v>
+      </c>
+      <c r="AP13">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ13">
+        <v>1.6875</v>
+      </c>
+      <c r="AR13">
         <v>43</v>
       </c>
-      <c r="AK13">
+      <c r="AS13">
         <v>173</v>
       </c>
-      <c r="AL13">
+      <c r="AT13">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>63</v>
       </c>
@@ -2039,55 +2375,79 @@
         <v>0</v>
       </c>
       <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>63</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
+        <v>63</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
         <v>2.4114510388528743E-9</v>
       </c>
-      <c r="X14">
+      <c r="AF14">
         <v>3.4425109429747636E-9</v>
       </c>
-      <c r="Y14">
+      <c r="AG14">
         <v>3.5738496016735066E-10</v>
       </c>
-      <c r="Z14">
+      <c r="AH14">
         <v>2</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0.17624995670007068</v>
-      </c>
-      <c r="AC14">
-        <v>0.20514287693711053</v>
-      </c>
-      <c r="AD14">
-        <v>0.10307051024636697</v>
-      </c>
-      <c r="AE14">
-        <v>0.71904792756916125</v>
-      </c>
-      <c r="AF14">
-        <v>0.21875</v>
-      </c>
-      <c r="AG14">
-        <v>0.21875</v>
-      </c>
-      <c r="AH14">
-        <v>9.375E-2</v>
-      </c>
       <c r="AI14">
-        <v>1.15625</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
+        <v>0.1660026275038585</v>
+      </c>
+      <c r="AK14">
+        <v>0.19727544015179993</v>
+      </c>
+      <c r="AL14">
+        <v>0.10150144910430087</v>
+      </c>
+      <c r="AM14">
+        <v>1.0127741206265468</v>
+      </c>
+      <c r="AN14">
+        <v>0.203125</v>
+      </c>
+      <c r="AO14">
+        <v>0.203125</v>
+      </c>
+      <c r="AP14">
+        <v>0.109375</v>
+      </c>
+      <c r="AQ14">
+        <v>2.328125</v>
+      </c>
+      <c r="AR14">
         <v>38</v>
       </c>
-      <c r="AK14">
+      <c r="AS14">
         <v>34</v>
       </c>
-      <c r="AL14">
+      <c r="AT14">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>63</v>
       </c>
@@ -2155,55 +2515,79 @@
         <v>0</v>
       </c>
       <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>63</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>63</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
         <v>1.7448051892188232E-9</v>
       </c>
-      <c r="X15">
+      <c r="AF15">
         <v>8.8965443234556574E-8</v>
       </c>
-      <c r="Y15">
+      <c r="AG15">
         <v>2.8878179882119159E-10</v>
       </c>
-      <c r="Z15">
+      <c r="AH15">
         <v>2</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0.17972870509476591</v>
-      </c>
-      <c r="AC15">
-        <v>0.4733500161011589</v>
-      </c>
-      <c r="AD15">
-        <v>5.4276301018542632E-2</v>
-      </c>
-      <c r="AE15">
-        <v>0.68411643126472998</v>
-      </c>
-      <c r="AF15">
-        <v>0.25</v>
-      </c>
-      <c r="AG15">
-        <v>0.484375</v>
-      </c>
-      <c r="AH15">
-        <v>4.6875E-2</v>
-      </c>
       <c r="AI15">
-        <v>1.34375</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
+        <v>0.18238571705324416</v>
+      </c>
+      <c r="AK15">
+        <v>0.54203236397086652</v>
+      </c>
+      <c r="AL15">
+        <v>5.5937414602917193E-2</v>
+      </c>
+      <c r="AM15">
+        <v>0.83599205590630277</v>
+      </c>
+      <c r="AN15">
+        <v>0.203125</v>
+      </c>
+      <c r="AO15">
+        <v>0.546875</v>
+      </c>
+      <c r="AP15">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
         <v>38</v>
       </c>
-      <c r="AK15">
+      <c r="AS15">
         <v>139</v>
       </c>
-      <c r="AL15">
+      <c r="AT15">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>63</v>
       </c>
@@ -2271,55 +2655,79 @@
         <v>0</v>
       </c>
       <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>63</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>63</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
         <v>8.5238494040851265E-10</v>
       </c>
-      <c r="X16">
+      <c r="AF16">
         <v>6.1997392664103756E-8</v>
       </c>
-      <c r="Y16">
+      <c r="AG16">
         <v>4.0554461455677426E-9</v>
       </c>
-      <c r="Z16">
+      <c r="AH16">
         <v>2</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0.17927581990821698</v>
-      </c>
-      <c r="AC16">
-        <v>0.37887887181553076</v>
-      </c>
-      <c r="AD16">
-        <v>5.3875375747164334E-2</v>
-      </c>
-      <c r="AE16">
-        <v>0.75033517352687229</v>
-      </c>
-      <c r="AF16">
-        <v>0.59375</v>
-      </c>
-      <c r="AG16">
-        <v>0.390625</v>
-      </c>
-      <c r="AH16">
-        <v>4.6875E-2</v>
-      </c>
       <c r="AI16">
-        <v>1.859375</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
+        <v>0.16717108411476342</v>
+      </c>
+      <c r="AK16">
+        <v>0.3931470003733416</v>
+      </c>
+      <c r="AL16">
+        <v>7.0851513957972762E-2</v>
+      </c>
+      <c r="AM16">
+        <v>0.71743428353691785</v>
+      </c>
+      <c r="AN16">
+        <v>0.203125</v>
+      </c>
+      <c r="AO16">
+        <v>0.40625</v>
+      </c>
+      <c r="AP16">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ16">
+        <v>2.140625</v>
+      </c>
+      <c r="AR16">
         <v>38</v>
       </c>
-      <c r="AK16">
+      <c r="AS16">
         <v>106</v>
       </c>
-      <c r="AL16">
+      <c r="AT16">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>63</v>
       </c>
@@ -2387,55 +2795,79 @@
         <v>0</v>
       </c>
       <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>63</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>63</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>1.0672210892792577E-9</v>
       </c>
-      <c r="X17">
+      <c r="AF17">
         <v>2.603145987656319E-8</v>
       </c>
-      <c r="Y17">
+      <c r="AG17">
         <v>1.5409282877465458E-9</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0.17381201030987353</v>
-      </c>
-      <c r="AC17">
-        <v>0.23400693055461116</v>
-      </c>
-      <c r="AD17">
-        <v>4.8691572358351497E-2</v>
-      </c>
-      <c r="AE17">
-        <v>0.69725491277790541</v>
-      </c>
-      <c r="AF17">
-        <v>0.296875</v>
-      </c>
-      <c r="AG17">
-        <v>0.234375</v>
-      </c>
       <c r="AH17">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>1.734375</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
+        <v>0.18115952720326078</v>
+      </c>
+      <c r="AK17">
+        <v>0.24346074845371141</v>
+      </c>
+      <c r="AL17">
+        <v>4.7143359330397067E-2</v>
+      </c>
+      <c r="AM17">
+        <v>0.64586334927198386</v>
+      </c>
+      <c r="AN17">
+        <v>0.21875</v>
+      </c>
+      <c r="AO17">
+        <v>0.25</v>
+      </c>
+      <c r="AP17">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ17">
+        <v>1.984375</v>
+      </c>
+      <c r="AR17">
         <v>37</v>
       </c>
-      <c r="AK17">
+      <c r="AS17">
         <v>41</v>
       </c>
-      <c r="AL17">
+      <c r="AT17">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>63</v>
       </c>
@@ -2503,55 +2935,79 @@
         <v>0</v>
       </c>
       <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>63</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>63</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
         <v>1.0741409983694439E-9</v>
       </c>
-      <c r="X18">
+      <c r="AF18">
         <v>3.6874906461648038E-9</v>
       </c>
-      <c r="Y18">
+      <c r="AG18">
         <v>3.3737856952598122E-10</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0.18916103339932028</v>
-      </c>
-      <c r="AC18">
-        <v>0.2257446625620472</v>
-      </c>
-      <c r="AD18">
-        <v>6.6367886463094994E-2</v>
-      </c>
-      <c r="AE18">
-        <v>0.69290535469377645</v>
-      </c>
-      <c r="AF18">
-        <v>0.625</v>
-      </c>
-      <c r="AG18">
-        <v>0.234375</v>
-      </c>
       <c r="AH18">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>1.1875</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
+        <v>0.18217916035343007</v>
+      </c>
+      <c r="AK18">
+        <v>0.18926142508727342</v>
+      </c>
+      <c r="AL18">
+        <v>9.3642030824417827E-2</v>
+      </c>
+      <c r="AM18">
+        <v>0.65534924119279436</v>
+      </c>
+      <c r="AN18">
+        <v>0.1875</v>
+      </c>
+      <c r="AO18">
+        <v>0.1875</v>
+      </c>
+      <c r="AP18">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AQ18">
+        <v>1.671875</v>
+      </c>
+      <c r="AR18">
         <v>38</v>
       </c>
-      <c r="AK18">
+      <c r="AS18">
         <v>40</v>
       </c>
-      <c r="AL18">
+      <c r="AT18">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>63</v>
       </c>
@@ -2619,55 +3075,79 @@
         <v>0</v>
       </c>
       <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>63</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>63</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
         <v>1.5596537394912957E-9</v>
       </c>
-      <c r="X19">
+      <c r="AF19">
         <v>1.2105560998065812E-9</v>
       </c>
-      <c r="Y19">
+      <c r="AG19">
         <v>6.5091587675425444E-10</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0.16498844693737996</v>
-      </c>
-      <c r="AC19">
-        <v>0.19471657469975509</v>
-      </c>
-      <c r="AD19">
-        <v>5.3706987133185453E-2</v>
-      </c>
-      <c r="AE19">
-        <v>0.69939360854554578</v>
-      </c>
-      <c r="AF19">
-        <v>0.453125</v>
-      </c>
-      <c r="AG19">
-        <v>0.21875</v>
-      </c>
       <c r="AH19">
-        <v>4.6875E-2</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
+        <v>0.17355349369488882</v>
+      </c>
+      <c r="AK19">
+        <v>0.20758595517078132</v>
+      </c>
+      <c r="AL19">
+        <v>6.3183256847482897E-2</v>
+      </c>
+      <c r="AM19">
+        <v>0.6801074992911641</v>
+      </c>
+      <c r="AN19">
+        <v>0.1875</v>
+      </c>
+      <c r="AO19">
+        <v>0.203125</v>
+      </c>
+      <c r="AP19">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ19">
+        <v>1.78125</v>
+      </c>
+      <c r="AR19">
         <v>33</v>
       </c>
-      <c r="AK19">
+      <c r="AS19">
         <v>36</v>
       </c>
-      <c r="AL19">
+      <c r="AT19">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>63</v>
       </c>
@@ -2735,55 +3215,79 @@
         <v>0</v>
       </c>
       <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>63</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>63</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
         <v>4.4863845971576666E-10</v>
       </c>
-      <c r="X20">
+      <c r="AF20">
         <v>4.1666730234664726E-8</v>
       </c>
-      <c r="Y20">
+      <c r="AG20">
         <v>4.297092681682102E-10</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0.1743425146289613</v>
-      </c>
-      <c r="AC20">
-        <v>0.36226837745221935</v>
-      </c>
-      <c r="AD20">
-        <v>5.3469960112746601E-2</v>
-      </c>
-      <c r="AE20">
-        <v>0.69539846840131525</v>
-      </c>
-      <c r="AF20">
-        <v>0.203125</v>
-      </c>
-      <c r="AG20">
-        <v>0.359375</v>
-      </c>
       <c r="AH20">
-        <v>4.6875E-2</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>1.28125</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
+        <v>0.17889606349116746</v>
+      </c>
+      <c r="AK20">
+        <v>0.37638287144603805</v>
+      </c>
+      <c r="AL20">
+        <v>6.124694815683427E-2</v>
+      </c>
+      <c r="AM20">
+        <v>1.0383374366698441</v>
+      </c>
+      <c r="AN20">
+        <v>0.21875</v>
+      </c>
+      <c r="AO20">
+        <v>0.375</v>
+      </c>
+      <c r="AP20">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ20">
+        <v>2.171875</v>
+      </c>
+      <c r="AR20">
         <v>36</v>
       </c>
-      <c r="AK20">
+      <c r="AS20">
         <v>96</v>
       </c>
-      <c r="AL20">
+      <c r="AT20">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>63</v>
       </c>
@@ -2851,55 +3355,79 @@
         <v>0</v>
       </c>
       <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>63</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>63</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
         <v>4.4389558695456799E-10</v>
       </c>
-      <c r="X21">
+      <c r="AF21">
         <v>8.4080471030034687E-8</v>
       </c>
-      <c r="Y21">
+      <c r="AG21">
         <v>4.0956748929843467E-10</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>1</v>
       </c>
-      <c r="AB21">
-        <v>0.17543335210732738</v>
-      </c>
-      <c r="AC21">
-        <v>0.3729041230513428</v>
-      </c>
-      <c r="AD21">
-        <v>6.1632798638008739E-2</v>
-      </c>
-      <c r="AE21">
-        <v>0.75104721680884012</v>
-      </c>
-      <c r="AF21">
-        <v>0.546875</v>
-      </c>
-      <c r="AG21">
-        <v>0.453125</v>
-      </c>
-      <c r="AH21">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AI21">
-        <v>1.765625</v>
-      </c>
       <c r="AJ21">
+        <v>0.17965236892309547</v>
+      </c>
+      <c r="AK21">
+        <v>0.35501098855983793</v>
+      </c>
+      <c r="AL21">
+        <v>4.9790749082362237E-2</v>
+      </c>
+      <c r="AM21">
+        <v>0.91451407215628511</v>
+      </c>
+      <c r="AN21">
+        <v>0.21875</v>
+      </c>
+      <c r="AO21">
+        <v>0.34375</v>
+      </c>
+      <c r="AP21">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AQ21">
+        <v>1.546875</v>
+      </c>
+      <c r="AR21">
         <v>34</v>
       </c>
-      <c r="AK21">
+      <c r="AS21">
         <v>114</v>
       </c>
-      <c r="AL21">
+      <c r="AT21">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>63</v>
       </c>
@@ -2967,55 +3495,79 @@
         <v>0</v>
       </c>
       <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>63</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>63</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
         <v>1.6801249280717911E-9</v>
       </c>
-      <c r="X22">
+      <c r="AF22">
         <v>7.4420455908885685E-8</v>
       </c>
-      <c r="Y22">
+      <c r="AG22">
         <v>6.0033976123641253E-9</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0.2071179951940286</v>
-      </c>
-      <c r="AC22">
-        <v>0.53607076555557975</v>
-      </c>
-      <c r="AD22">
-        <v>5.2855421856777947E-2</v>
-      </c>
-      <c r="AE22">
-        <v>0.71615709599241517</v>
-      </c>
-      <c r="AF22">
-        <v>0.265625</v>
-      </c>
-      <c r="AG22">
-        <v>0.546875</v>
-      </c>
       <c r="AH22">
-        <v>4.6875E-2</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>2.140625</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
+        <v>0.19714169148126812</v>
+      </c>
+      <c r="AK22">
+        <v>0.61810681162413861</v>
+      </c>
+      <c r="AL22">
+        <v>7.7690016126818112E-2</v>
+      </c>
+      <c r="AM22">
+        <v>0.88174308195425732</v>
+      </c>
+      <c r="AN22">
+        <v>0.234375</v>
+      </c>
+      <c r="AO22">
+        <v>0.625</v>
+      </c>
+      <c r="AP22">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ22">
+        <v>1.625</v>
+      </c>
+      <c r="AR22">
         <v>40</v>
       </c>
-      <c r="AK22">
+      <c r="AS22">
         <v>189</v>
       </c>
-      <c r="AL22">
+      <c r="AT22">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>63</v>
       </c>
@@ -3083,55 +3635,79 @@
         <v>0</v>
       </c>
       <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>63</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>63</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
         <v>7.3702277614273726E-10</v>
       </c>
-      <c r="X23">
+      <c r="AF23">
         <v>4.794285668463516E-8</v>
       </c>
-      <c r="Y23">
+      <c r="AG23">
         <v>5.7170523870553325E-10</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0.20747914867848616</v>
-      </c>
-      <c r="AC23">
-        <v>0.36334125347842766</v>
-      </c>
-      <c r="AD23">
-        <v>8.3065622165458333E-2</v>
-      </c>
-      <c r="AE23">
-        <v>0.69787490361756477</v>
-      </c>
-      <c r="AF23">
-        <v>0.265625</v>
-      </c>
-      <c r="AG23">
-        <v>0.375</v>
-      </c>
       <c r="AH23">
-        <v>7.8125E-2</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>1.640625</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
+        <v>0.19951677278891317</v>
+      </c>
+      <c r="AK23">
+        <v>0.40342640359126408</v>
+      </c>
+      <c r="AL23">
+        <v>5.9961421366686897E-2</v>
+      </c>
+      <c r="AM23">
+        <v>0.84015205652212399</v>
+      </c>
+      <c r="AN23">
+        <v>0.21875</v>
+      </c>
+      <c r="AO23">
+        <v>0.40625</v>
+      </c>
+      <c r="AP23">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ23">
+        <v>1.5625</v>
+      </c>
+      <c r="AR23">
         <v>41</v>
       </c>
-      <c r="AK23">
+      <c r="AS23">
         <v>117</v>
       </c>
-      <c r="AL23">
+      <c r="AT23">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>63</v>
       </c>
@@ -3199,55 +3775,79 @@
         <v>0</v>
       </c>
       <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>63</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>63</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>1.0748497647483646E-9</v>
       </c>
-      <c r="X24">
+      <c r="AF24">
         <v>1.0214553647358571E-9</v>
       </c>
-      <c r="Y24">
+      <c r="AG24">
         <v>4.3732841827071045E-9</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
         <v>1</v>
       </c>
-      <c r="AB24">
-        <v>0.18185072237111696</v>
-      </c>
-      <c r="AC24">
-        <v>0.20785377325206203</v>
-      </c>
-      <c r="AD24">
-        <v>9.9111293006452009E-2</v>
-      </c>
-      <c r="AE24">
-        <v>0.69290310951225675</v>
-      </c>
-      <c r="AF24">
-        <v>0.25</v>
-      </c>
-      <c r="AG24">
+      <c r="AJ24">
+        <v>0.20405877500330363</v>
+      </c>
+      <c r="AK24">
+        <v>0.20906007720858505</v>
+      </c>
+      <c r="AL24">
+        <v>5.4465217006416086E-2</v>
+      </c>
+      <c r="AM24">
+        <v>0.74879433752391122</v>
+      </c>
+      <c r="AN24">
+        <v>0.234375</v>
+      </c>
+      <c r="AO24">
         <v>0.21875</v>
       </c>
-      <c r="AH24">
-        <v>9.375E-2</v>
-      </c>
-      <c r="AI24">
-        <v>1.1875</v>
-      </c>
-      <c r="AJ24">
+      <c r="AP24">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AQ24">
+        <v>1.171875</v>
+      </c>
+      <c r="AR24">
         <v>38</v>
       </c>
-      <c r="AK24">
+      <c r="AS24">
         <v>39</v>
       </c>
-      <c r="AL24">
+      <c r="AT24">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>63</v>
       </c>
@@ -3315,55 +3915,79 @@
         <v>0</v>
       </c>
       <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>63</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>63</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
         <v>6.474613967188958E-8</v>
       </c>
-      <c r="X25">
+      <c r="AF25">
         <v>6.145960873560341E-8</v>
       </c>
-      <c r="Y25">
+      <c r="AG25">
         <v>1.5525336398425349E-10</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0.2126991957118316</v>
-      </c>
-      <c r="AC25">
-        <v>0.44825209411287747</v>
-      </c>
-      <c r="AD25">
-        <v>9.5348689519620958E-2</v>
-      </c>
-      <c r="AE25">
-        <v>0.71951524606547979</v>
-      </c>
-      <c r="AF25">
-        <v>0.265625</v>
-      </c>
-      <c r="AG25">
-        <v>0.453125</v>
-      </c>
       <c r="AH25">
-        <v>9.375E-2</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0.16476938136909886</v>
+      </c>
+      <c r="AK25">
+        <v>0.45325307557794181</v>
+      </c>
+      <c r="AL25">
+        <v>5.0959526433484253E-2</v>
+      </c>
+      <c r="AM25">
+        <v>0.93996961948663604</v>
+      </c>
+      <c r="AN25">
+        <v>0.1875</v>
+      </c>
+      <c r="AO25">
+        <v>0.46875</v>
+      </c>
+      <c r="AP25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ25">
+        <v>1.125</v>
+      </c>
+      <c r="AR25">
         <v>39</v>
       </c>
-      <c r="AK25">
+      <c r="AS25">
         <v>154</v>
       </c>
-      <c r="AL25">
+      <c r="AT25">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>63</v>
       </c>
@@ -3431,55 +4055,79 @@
         <v>0</v>
       </c>
       <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>63</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>63</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
         <v>1.0576927111927148E-9</v>
       </c>
-      <c r="X26">
+      <c r="AF26">
         <v>3.0304334375230724E-8</v>
       </c>
-      <c r="Y26">
+      <c r="AG26">
         <v>1.474670784790133E-10</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
         <v>1</v>
       </c>
-      <c r="AB26">
-        <v>0.20187228894331494</v>
-      </c>
-      <c r="AC26">
-        <v>0.19455171422816434</v>
-      </c>
-      <c r="AD26">
-        <v>6.7652130292373949E-2</v>
-      </c>
-      <c r="AE26">
-        <v>0.82991370805199072</v>
-      </c>
-      <c r="AF26">
+      <c r="AJ26">
+        <v>0.20706250713646984</v>
+      </c>
+      <c r="AK26">
+        <v>0.18899713514838085</v>
+      </c>
+      <c r="AL26">
+        <v>5.2143057834592985E-2</v>
+      </c>
+      <c r="AM26">
+        <v>0.78148033156840679</v>
+      </c>
+      <c r="AN26">
         <v>0.25</v>
       </c>
-      <c r="AG26">
+      <c r="AO26">
         <v>0.203125</v>
       </c>
-      <c r="AH26">
-        <v>7.8125E-2</v>
-      </c>
-      <c r="AI26">
-        <v>1.75</v>
-      </c>
-      <c r="AJ26">
+      <c r="AP26">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ26">
+        <v>0.96875</v>
+      </c>
+      <c r="AR26">
         <v>41</v>
       </c>
-      <c r="AK26">
+      <c r="AS26">
         <v>34</v>
       </c>
-      <c r="AL26">
+      <c r="AT26">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>63</v>
       </c>
@@ -3547,55 +4195,79 @@
         <v>0</v>
       </c>
       <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>63</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>63</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
         <v>1.0000000010412344</v>
       </c>
-      <c r="X27">
+      <c r="AF27">
         <v>4.7024728555555839E-10</v>
       </c>
-      <c r="Y27">
+      <c r="AG27">
         <v>6.1564142672665412E-10</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0.23369196366141637</v>
-      </c>
-      <c r="AC27">
-        <v>0.22139702891922095</v>
-      </c>
-      <c r="AD27">
-        <v>5.5370987379513938E-2</v>
-      </c>
-      <c r="AE27">
-        <v>0.76148570717444553</v>
-      </c>
-      <c r="AF27">
-        <v>0.296875</v>
-      </c>
-      <c r="AG27">
-        <v>0.234375</v>
-      </c>
       <c r="AH27">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0.22196056948067028</v>
+      </c>
+      <c r="AK27">
+        <v>0.23035530318289762</v>
+      </c>
+      <c r="AL27">
+        <v>0.10543725230836734</v>
+      </c>
+      <c r="AM27">
+        <v>0.82747287499983968</v>
+      </c>
+      <c r="AN27">
+        <v>0.25</v>
+      </c>
+      <c r="AO27">
+        <v>0.25</v>
+      </c>
+      <c r="AP27">
+        <v>0.109375</v>
+      </c>
+      <c r="AQ27">
         <v>1.296875</v>
       </c>
-      <c r="AJ27">
+      <c r="AR27">
         <v>47</v>
       </c>
-      <c r="AK27">
+      <c r="AS27">
         <v>42</v>
       </c>
-      <c r="AL27">
+      <c r="AT27">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>63</v>
       </c>
@@ -3663,55 +4335,79 @@
         <v>0</v>
       </c>
       <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>63</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>63</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
         <v>9.3887069230191855E-8</v>
       </c>
-      <c r="X28">
+      <c r="AF28">
         <v>6.5756238676328849E-8</v>
       </c>
-      <c r="Y28">
+      <c r="AG28">
         <v>9.2759683267829018E-10</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
         <v>2</v>
       </c>
-      <c r="AB28">
-        <v>0.39490305306197854</v>
-      </c>
-      <c r="AC28">
-        <v>0.2000065431004289</v>
-      </c>
-      <c r="AD28">
-        <v>5.4783391301781906E-2</v>
-      </c>
-      <c r="AE28">
-        <v>0.66744948662320847</v>
-      </c>
-      <c r="AF28">
-        <v>0.453125</v>
-      </c>
-      <c r="AG28">
-        <v>0.21875</v>
-      </c>
-      <c r="AH28">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI28">
-        <v>1.703125</v>
-      </c>
       <c r="AJ28">
+        <v>0.44346183897044955</v>
+      </c>
+      <c r="AK28">
+        <v>0.20029071893278183</v>
+      </c>
+      <c r="AL28">
+        <v>9.9354414091015808E-2</v>
+      </c>
+      <c r="AM28">
+        <v>0.74777662881504448</v>
+      </c>
+      <c r="AN28">
+        <v>0.5</v>
+      </c>
+      <c r="AO28">
+        <v>0.203125</v>
+      </c>
+      <c r="AP28">
+        <v>0.109375</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
         <v>122</v>
       </c>
-      <c r="AK28">
+      <c r="AS28">
         <v>36</v>
       </c>
-      <c r="AL28">
+      <c r="AT28">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>63</v>
       </c>
@@ -3779,55 +4475,79 @@
         <v>0</v>
       </c>
       <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>63</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>63</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
         <v>2.2454864634369187E-9</v>
       </c>
-      <c r="X29">
+      <c r="AF29">
         <v>8.0844331229457111E-11</v>
       </c>
-      <c r="Y29">
+      <c r="AG29">
         <v>1.9182631698366759E-10</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
         <v>2</v>
       </c>
-      <c r="AB29">
-        <v>0.23396074396334837</v>
-      </c>
-      <c r="AC29">
-        <v>0.19520409982975109</v>
-      </c>
-      <c r="AD29">
-        <v>5.7330710106011054E-2</v>
-      </c>
-      <c r="AE29">
-        <v>0.77801248834109316</v>
-      </c>
-      <c r="AF29">
-        <v>0.5</v>
-      </c>
-      <c r="AG29">
+      <c r="AJ29">
+        <v>0.23653275976429444</v>
+      </c>
+      <c r="AK29">
+        <v>0.20696179470829959</v>
+      </c>
+      <c r="AL29">
+        <v>9.3534582851688447E-2</v>
+      </c>
+      <c r="AM29">
+        <v>0.85551904106372856</v>
+      </c>
+      <c r="AN29">
+        <v>0.265625</v>
+      </c>
+      <c r="AO29">
         <v>0.203125</v>
       </c>
-      <c r="AH29">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI29">
-        <v>1.703125</v>
-      </c>
-      <c r="AJ29">
+      <c r="AP29">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ29">
+        <v>1.484375</v>
+      </c>
+      <c r="AR29">
         <v>44</v>
       </c>
-      <c r="AK29">
+      <c r="AS29">
         <v>37</v>
       </c>
-      <c r="AL29">
+      <c r="AT29">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>63</v>
       </c>
@@ -3895,55 +4615,79 @@
         <v>0</v>
       </c>
       <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>63</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>63</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
         <v>2.4717583535505128E-10</v>
       </c>
-      <c r="X30">
+      <c r="AF30">
         <v>3.5982661295008711E-11</v>
       </c>
-      <c r="Y30">
+      <c r="AG30">
         <v>3.2301028518588737E-10</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
         <v>2</v>
       </c>
-      <c r="AB30">
-        <v>0.27791915293791625</v>
-      </c>
-      <c r="AC30">
-        <v>0.18097670527951226</v>
-      </c>
-      <c r="AD30">
-        <v>5.7273297607149685E-2</v>
-      </c>
-      <c r="AE30">
-        <v>0.67511774373369837</v>
-      </c>
-      <c r="AF30">
-        <v>0.328125</v>
-      </c>
-      <c r="AG30">
-        <v>0.1875</v>
-      </c>
-      <c r="AH30">
+      <c r="AJ30">
+        <v>0.30087036065312972</v>
+      </c>
+      <c r="AK30">
+        <v>0.19781556667740077</v>
+      </c>
+      <c r="AL30">
+        <v>4.9031877728697396E-2</v>
+      </c>
+      <c r="AM30">
+        <v>0.74554555986487858</v>
+      </c>
+      <c r="AN30">
+        <v>0.34375</v>
+      </c>
+      <c r="AO30">
+        <v>0.203125</v>
+      </c>
+      <c r="AP30">
         <v>6.25E-2</v>
       </c>
-      <c r="AI30">
-        <v>1.453125</v>
-      </c>
-      <c r="AJ30">
+      <c r="AQ30">
+        <v>1.640625</v>
+      </c>
+      <c r="AR30">
         <v>78</v>
       </c>
-      <c r="AK30">
+      <c r="AS30">
         <v>35</v>
       </c>
-      <c r="AL30">
+      <c r="AT30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>63</v>
       </c>
@@ -4011,55 +4755,79 @@
         <v>0</v>
       </c>
       <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>63</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>63</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
         <v>2.4544527965630891E-8</v>
       </c>
-      <c r="X31">
+      <c r="AF31">
         <v>5.0335513535060272E-11</v>
       </c>
-      <c r="Y31">
+      <c r="AG31">
         <v>3.3863500892294951E-10</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
         <v>2</v>
       </c>
-      <c r="AB31">
-        <v>0.20647779772069172</v>
-      </c>
-      <c r="AC31">
-        <v>0.1984002760931789</v>
-      </c>
-      <c r="AD31">
-        <v>7.5124415130214117E-2</v>
-      </c>
-      <c r="AE31">
-        <v>0.68315902171667864</v>
-      </c>
-      <c r="AF31">
-        <v>0.6875</v>
-      </c>
-      <c r="AG31">
-        <v>0.203125</v>
-      </c>
-      <c r="AH31">
-        <v>7.8125E-2</v>
-      </c>
-      <c r="AI31">
-        <v>1.8125</v>
-      </c>
       <c r="AJ31">
+        <v>0.22267774460611178</v>
+      </c>
+      <c r="AK31">
+        <v>0.22783396433625377</v>
+      </c>
+      <c r="AL31">
+        <v>6.8214387892954878E-2</v>
+      </c>
+      <c r="AM31">
+        <v>0.64906305367779982</v>
+      </c>
+      <c r="AN31">
+        <v>0.25</v>
+      </c>
+      <c r="AO31">
+        <v>0.234375</v>
+      </c>
+      <c r="AP31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ31">
+        <v>1.671875</v>
+      </c>
+      <c r="AR31">
         <v>40</v>
       </c>
-      <c r="AK31">
+      <c r="AS31">
         <v>41</v>
       </c>
-      <c r="AL31">
+      <c r="AT31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>63</v>
       </c>
@@ -4127,55 +4895,79 @@
         <v>0</v>
       </c>
       <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>63</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>63</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
         <v>1.8853085759218402E-9</v>
       </c>
-      <c r="X32">
+      <c r="AF32">
         <v>4.5757286848413514E-11</v>
       </c>
-      <c r="Y32">
+      <c r="AG32">
         <v>6.013353204270544E-9</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
         <v>2</v>
       </c>
-      <c r="AB32">
-        <v>0.24146189542072777</v>
-      </c>
-      <c r="AC32">
-        <v>0.19135297204299972</v>
-      </c>
-      <c r="AD32">
-        <v>5.4915536271228194E-2</v>
-      </c>
-      <c r="AE32">
-        <v>0.69448500026300697</v>
-      </c>
-      <c r="AF32">
-        <v>0.296875</v>
-      </c>
-      <c r="AG32">
-        <v>0.1875</v>
-      </c>
-      <c r="AH32">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AI32">
-        <v>1.921875</v>
-      </c>
       <c r="AJ32">
+        <v>0.24873147244135907</v>
+      </c>
+      <c r="AK32">
+        <v>0.18686196752312859</v>
+      </c>
+      <c r="AL32">
+        <v>7.9806901559695526E-2</v>
+      </c>
+      <c r="AM32">
+        <v>0.7280116544165286</v>
+      </c>
+      <c r="AN32">
+        <v>0.265625</v>
+      </c>
+      <c r="AO32">
+        <v>0.203125</v>
+      </c>
+      <c r="AP32">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ32">
+        <v>1.4375</v>
+      </c>
+      <c r="AR32">
         <v>47</v>
       </c>
-      <c r="AK32">
+      <c r="AS32">
         <v>35</v>
       </c>
-      <c r="AL32">
+      <c r="AT32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>63</v>
       </c>
@@ -4243,55 +5035,79 @@
         <v>0</v>
       </c>
       <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>63</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>63</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
         <v>4.9172041327594229E-8</v>
       </c>
-      <c r="X33">
+      <c r="AF33">
         <v>1.0665313077140581E-10</v>
       </c>
-      <c r="Y33">
+      <c r="AG33">
         <v>1.9215986024612164E-9</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
         <v>2</v>
       </c>
-      <c r="AB33">
-        <v>0.1991065460512389</v>
-      </c>
-      <c r="AC33">
-        <v>0.15344147838146788</v>
-      </c>
-      <c r="AD33">
-        <v>4.7353444172599291E-2</v>
-      </c>
-      <c r="AE33">
-        <v>0.68508667042146543</v>
-      </c>
-      <c r="AF33">
-        <v>0.4375</v>
-      </c>
-      <c r="AG33">
+      <c r="AJ33">
+        <v>0.20920473104649834</v>
+      </c>
+      <c r="AK33">
+        <v>0.16412373131207125</v>
+      </c>
+      <c r="AL33">
+        <v>4.9362881632747317E-2</v>
+      </c>
+      <c r="AM33">
+        <v>1.0264286731490402</v>
+      </c>
+      <c r="AN33">
+        <v>0.21875</v>
+      </c>
+      <c r="AO33">
         <v>0.171875</v>
       </c>
-      <c r="AH33">
+      <c r="AP33">
         <v>4.6875E-2</v>
       </c>
-      <c r="AI33">
-        <v>1.53125</v>
-      </c>
-      <c r="AJ33">
+      <c r="AQ33">
+        <v>1.359375</v>
+      </c>
+      <c r="AR33">
         <v>37</v>
       </c>
-      <c r="AK33">
+      <c r="AS33">
         <v>29</v>
       </c>
-      <c r="AL33">
+      <c r="AT33">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>63</v>
       </c>
@@ -4359,55 +5175,79 @@
         <v>0</v>
       </c>
       <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>63</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>63</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
         <v>4.9214492481297611E-9</v>
       </c>
-      <c r="X34">
+      <c r="AF34">
         <v>9.1509688715518678E-11</v>
       </c>
-      <c r="Y34">
+      <c r="AG34">
         <v>3.2728246779356596E-9</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
         <v>2</v>
       </c>
-      <c r="AB34">
-        <v>0.2553457771984497</v>
-      </c>
-      <c r="AC34">
-        <v>0.16621976863083698</v>
-      </c>
-      <c r="AD34">
-        <v>6.29776623683201E-2</v>
-      </c>
-      <c r="AE34">
-        <v>0.69057774293826268</v>
-      </c>
-      <c r="AF34">
-        <v>0.296875</v>
-      </c>
-      <c r="AG34">
-        <v>0.171875</v>
-      </c>
-      <c r="AH34">
-        <v>7.8125E-2</v>
-      </c>
-      <c r="AI34">
-        <v>1.4375</v>
-      </c>
       <c r="AJ34">
+        <v>0.25476267148375709</v>
+      </c>
+      <c r="AK34">
+        <v>0.18128942699118733</v>
+      </c>
+      <c r="AL34">
+        <v>4.4256697376473322E-2</v>
+      </c>
+      <c r="AM34">
+        <v>0.84556294398464549</v>
+      </c>
+      <c r="AN34">
+        <v>0.28125</v>
+      </c>
+      <c r="AO34">
+        <v>0.1875</v>
+      </c>
+      <c r="AP34">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AQ34">
+        <v>2.453125</v>
+      </c>
+      <c r="AR34">
         <v>44</v>
       </c>
-      <c r="AK34">
+      <c r="AS34">
         <v>33</v>
       </c>
-      <c r="AL34">
+      <c r="AT34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>63</v>
       </c>
@@ -4475,55 +5315,79 @@
         <v>0</v>
       </c>
       <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>63</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>63</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
         <v>2.9533884227106455E-9</v>
       </c>
-      <c r="X35">
+      <c r="AF35">
         <v>8.5182749742784836E-11</v>
       </c>
-      <c r="Y35">
+      <c r="AG35">
         <v>1.1086276037811094E-9</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
         <v>2</v>
       </c>
-      <c r="AB35">
-        <v>0.26262786308754799</v>
-      </c>
-      <c r="AC35">
-        <v>0.18224972320119265</v>
-      </c>
-      <c r="AD35">
-        <v>8.1537615771181363E-2</v>
-      </c>
-      <c r="AE35">
-        <v>0.67038874997273712</v>
-      </c>
-      <c r="AF35">
-        <v>0.828125</v>
-      </c>
-      <c r="AG35">
-        <v>0.1875</v>
-      </c>
-      <c r="AH35">
+      <c r="AJ35">
+        <v>0.28162306096501749</v>
+      </c>
+      <c r="AK35">
+        <v>0.1925541441560491</v>
+      </c>
+      <c r="AL35">
+        <v>8.4194948469876726E-2</v>
+      </c>
+      <c r="AM35">
+        <v>0.73772783781321882</v>
+      </c>
+      <c r="AN35">
+        <v>0.296875</v>
+      </c>
+      <c r="AO35">
+        <v>0.203125</v>
+      </c>
+      <c r="AP35">
         <v>7.8125E-2</v>
       </c>
-      <c r="AI35">
-        <v>1.078125</v>
-      </c>
-      <c r="AJ35">
+      <c r="AQ35">
+        <v>1.234375</v>
+      </c>
+      <c r="AR35">
         <v>62</v>
       </c>
-      <c r="AK35">
+      <c r="AS35">
         <v>38</v>
       </c>
-      <c r="AL35">
+      <c r="AT35">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>63</v>
       </c>
@@ -4591,55 +5455,79 @@
         <v>0</v>
       </c>
       <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>63</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>63</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
         <v>4.071914916359276E-8</v>
       </c>
-      <c r="X36">
+      <c r="AF36">
         <v>7.2558403729772181E-11</v>
       </c>
-      <c r="Y36">
+      <c r="AG36">
         <v>4.686046975801994E-10</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
         <v>2</v>
       </c>
-      <c r="AB36">
-        <v>0.46256384334021428</v>
-      </c>
-      <c r="AC36">
-        <v>0.18042342840501022</v>
-      </c>
-      <c r="AD36">
-        <v>4.5844361451131382E-2</v>
-      </c>
-      <c r="AE36">
-        <v>0.69478457162578089</v>
-      </c>
-      <c r="AF36">
-        <v>0.546875</v>
-      </c>
-      <c r="AG36">
-        <v>0.171875</v>
-      </c>
-      <c r="AH36">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI36">
-        <v>1.828125</v>
-      </c>
       <c r="AJ36">
+        <v>0.45558293251497534</v>
+      </c>
+      <c r="AK36">
+        <v>0.19029581228742942</v>
+      </c>
+      <c r="AL36">
+        <v>8.1228422201894426E-2</v>
+      </c>
+      <c r="AM36">
+        <v>0.78931922247439534</v>
+      </c>
+      <c r="AN36">
+        <v>0.5</v>
+      </c>
+      <c r="AO36">
+        <v>0.1875</v>
+      </c>
+      <c r="AP36">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ36">
+        <v>1.875</v>
+      </c>
+      <c r="AR36">
         <v>117</v>
       </c>
-      <c r="AK36">
+      <c r="AS36">
         <v>36</v>
       </c>
-      <c r="AL36">
+      <c r="AT36">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>63</v>
       </c>
@@ -4707,55 +5595,79 @@
         <v>0</v>
       </c>
       <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>63</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>63</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
         <v>1.348527778333164E-8</v>
       </c>
-      <c r="X37">
+      <c r="AF37">
         <v>5.8227089816398347E-11</v>
       </c>
-      <c r="Y37">
+      <c r="AG37">
         <v>5.82993469472326E-10</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
         <v>2</v>
       </c>
-      <c r="AB37">
-        <v>0.29572953645340866</v>
-      </c>
-      <c r="AC37">
-        <v>0.21488953065442551</v>
-      </c>
-      <c r="AD37">
-        <v>4.5273443864688685E-2</v>
-      </c>
-      <c r="AE37">
-        <v>0.66538327814463327</v>
-      </c>
-      <c r="AF37">
-        <v>0.46875</v>
-      </c>
-      <c r="AG37">
+      <c r="AJ37">
+        <v>0.29975899580086907</v>
+      </c>
+      <c r="AK37">
+        <v>0.21922080654617954</v>
+      </c>
+      <c r="AL37">
+        <v>7.8565636919508325E-2</v>
+      </c>
+      <c r="AM37">
+        <v>0.89317169737005853</v>
+      </c>
+      <c r="AN37">
+        <v>0.328125</v>
+      </c>
+      <c r="AO37">
         <v>0.21875</v>
       </c>
-      <c r="AH37">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI37">
-        <v>0.921875</v>
-      </c>
-      <c r="AJ37">
+      <c r="AP37">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ37">
+        <v>1.375</v>
+      </c>
+      <c r="AR37">
         <v>73</v>
       </c>
-      <c r="AK37">
+      <c r="AS37">
         <v>47</v>
       </c>
-      <c r="AL37">
+      <c r="AT37">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>63</v>
       </c>
@@ -4823,55 +5735,79 @@
         <v>0</v>
       </c>
       <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>63</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>63</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
         <v>2.3208661215079474E-8</v>
       </c>
-      <c r="X38">
+      <c r="AF38">
         <v>6.2700955538730341E-11</v>
       </c>
-      <c r="Y38">
+      <c r="AG38">
         <v>9.150447066730294E-10</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
         <v>2</v>
       </c>
-      <c r="AB38">
-        <v>0.37051974027740181</v>
-      </c>
-      <c r="AC38">
-        <v>0.21024874045316744</v>
-      </c>
-      <c r="AD38">
-        <v>4.8589576969312862E-2</v>
-      </c>
-      <c r="AE38">
-        <v>0.68046736981475331</v>
-      </c>
-      <c r="AF38">
+      <c r="AJ38">
+        <v>0.37161218145685337</v>
+      </c>
+      <c r="AK38">
+        <v>0.23194970280211483</v>
+      </c>
+      <c r="AL38">
+        <v>7.6060014343502513E-2</v>
+      </c>
+      <c r="AM38">
+        <v>0.80306871410115122</v>
+      </c>
+      <c r="AN38">
         <v>0.40625</v>
       </c>
-      <c r="AG38">
-        <v>0.21875</v>
-      </c>
-      <c r="AH38">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI38">
-        <v>1.046875</v>
-      </c>
-      <c r="AJ38">
+      <c r="AO38">
+        <v>0.234375</v>
+      </c>
+      <c r="AP38">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ38">
+        <v>1.296875</v>
+      </c>
+      <c r="AR38">
         <v>95</v>
       </c>
-      <c r="AK38">
+      <c r="AS38">
         <v>46</v>
       </c>
-      <c r="AL38">
+      <c r="AT38">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>63</v>
       </c>
@@ -4939,55 +5875,79 @@
         <v>0</v>
       </c>
       <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>63</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>63</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
         <v>4.1927950000797409E-10</v>
       </c>
-      <c r="X39">
+      <c r="AF39">
         <v>5.8520051413393835E-9</v>
       </c>
-      <c r="Y39">
+      <c r="AG39">
         <v>9.7893905221663191E-10</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
         <v>2</v>
       </c>
-      <c r="AB39">
-        <v>0.24555389911052322</v>
-      </c>
-      <c r="AC39">
-        <v>0.19127856031263191</v>
-      </c>
-      <c r="AD39">
-        <v>5.8056224477097226E-2</v>
-      </c>
-      <c r="AE39">
-        <v>0.68576375301976911</v>
-      </c>
-      <c r="AF39">
-        <v>0.28125</v>
-      </c>
-      <c r="AG39">
-        <v>0.203125</v>
-      </c>
-      <c r="AH39">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AI39">
-        <v>1.46875</v>
-      </c>
       <c r="AJ39">
+        <v>0.30145025896565131</v>
+      </c>
+      <c r="AK39">
+        <v>0.18897917369622308</v>
+      </c>
+      <c r="AL39">
+        <v>6.8647387186043435E-2</v>
+      </c>
+      <c r="AM39">
+        <v>0.78606114334906674</v>
+      </c>
+      <c r="AN39">
+        <v>0.3125</v>
+      </c>
+      <c r="AO39">
+        <v>0.1875</v>
+      </c>
+      <c r="AP39">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ39">
+        <v>0.796875</v>
+      </c>
+      <c r="AR39">
         <v>53</v>
       </c>
-      <c r="AK39">
+      <c r="AS39">
         <v>37</v>
       </c>
-      <c r="AL39">
+      <c r="AT39">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>63</v>
       </c>
@@ -5049,61 +6009,85 @@
         <v>0</v>
       </c>
       <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>63</v>
+      </c>
+      <c r="Y40">
         <v>1</v>
       </c>
-      <c r="V40">
+      <c r="Z40">
         <v>1</v>
       </c>
-      <c r="W40">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>63</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
         <v>4.7900209132478722E-8</v>
       </c>
-      <c r="X40">
+      <c r="AF40">
         <v>7.3263106692422753E-10</v>
       </c>
-      <c r="Y40">
+      <c r="AG40">
         <v>4.5658570240608709E-10</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
         <v>2</v>
       </c>
-      <c r="AB40">
-        <v>0.38274154625009782</v>
-      </c>
-      <c r="AC40">
-        <v>0.1582814482575467</v>
-      </c>
-      <c r="AD40">
-        <v>8.1206611867131434E-2</v>
-      </c>
-      <c r="AE40">
-        <v>0.82658378311803116</v>
-      </c>
-      <c r="AF40">
-        <v>0.421875</v>
-      </c>
-      <c r="AG40">
-        <v>0.15625</v>
-      </c>
-      <c r="AH40">
-        <v>7.8125E-2</v>
-      </c>
-      <c r="AI40">
-        <v>1.546875</v>
-      </c>
       <c r="AJ40">
+        <v>0.31631496432727307</v>
+      </c>
+      <c r="AK40">
+        <v>0.13614909031659625</v>
+      </c>
+      <c r="AL40">
+        <v>8.3885754900589776E-2</v>
+      </c>
+      <c r="AM40">
+        <v>0.81717101996672004</v>
+      </c>
+      <c r="AN40">
+        <v>0.359375</v>
+      </c>
+      <c r="AO40">
+        <v>0.125</v>
+      </c>
+      <c r="AP40">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ40">
+        <v>0.8125</v>
+      </c>
+      <c r="AR40">
         <v>94</v>
       </c>
-      <c r="AK40">
+      <c r="AS40">
         <v>31</v>
       </c>
-      <c r="AL40">
+      <c r="AT40">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>63</v>
       </c>
@@ -5165,61 +6149,85 @@
         <v>0</v>
       </c>
       <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>63</v>
+      </c>
+      <c r="Y41">
         <v>3</v>
       </c>
-      <c r="V41">
+      <c r="Z41">
         <v>3</v>
       </c>
-      <c r="W41">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>63</v>
+      </c>
+      <c r="AC41">
+        <v>3</v>
+      </c>
+      <c r="AD41">
+        <v>3</v>
+      </c>
+      <c r="AE41">
         <v>4.4558174261410954E-8</v>
       </c>
-      <c r="X41">
+      <c r="AF41">
         <v>1.2425049877862193E-10</v>
       </c>
-      <c r="Y41">
+      <c r="AG41">
         <v>6.4341228135297857E-10</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
         <v>2</v>
       </c>
-      <c r="AB41">
-        <v>0.34334855352576893</v>
-      </c>
-      <c r="AC41">
-        <v>0.17240652667852976</v>
-      </c>
-      <c r="AD41">
-        <v>5.7552983076463185E-2</v>
-      </c>
-      <c r="AE41">
-        <v>0.67481304052745084</v>
-      </c>
-      <c r="AF41">
-        <v>0.40625</v>
-      </c>
-      <c r="AG41">
+      <c r="AJ41">
+        <v>0.25908240072769539</v>
+      </c>
+      <c r="AK41">
+        <v>0.17450128103642712</v>
+      </c>
+      <c r="AL41">
+        <v>6.576457411472493E-2</v>
+      </c>
+      <c r="AM41">
+        <v>0.67325937491580568</v>
+      </c>
+      <c r="AN41">
+        <v>0.296875</v>
+      </c>
+      <c r="AO41">
         <v>0.1875</v>
       </c>
-      <c r="AH41">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI41">
-        <v>1.375</v>
-      </c>
-      <c r="AJ41">
+      <c r="AP41">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ41">
+        <v>0.8125</v>
+      </c>
+      <c r="AR41">
         <v>70</v>
       </c>
-      <c r="AK41">
+      <c r="AS41">
         <v>36</v>
       </c>
-      <c r="AL41">
+      <c r="AT41">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>63</v>
       </c>
@@ -5281,61 +6289,85 @@
         <v>0</v>
       </c>
       <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>63</v>
+      </c>
+      <c r="Y42">
         <v>5</v>
       </c>
-      <c r="V42">
+      <c r="Z42">
         <v>5</v>
       </c>
-      <c r="W42">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>63</v>
+      </c>
+      <c r="AC42">
+        <v>5</v>
+      </c>
+      <c r="AD42">
+        <v>5</v>
+      </c>
+      <c r="AE42">
         <v>2.2523819143138724E-8</v>
       </c>
-      <c r="X42">
+      <c r="AF42">
         <v>2.1721524579021434E-10</v>
       </c>
-      <c r="Y42">
+      <c r="AG42">
         <v>5.8364224564400047E-10</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
         <v>2</v>
       </c>
-      <c r="AB42">
-        <v>0.46757637145309433</v>
-      </c>
-      <c r="AC42">
-        <v>0.20616860415140478</v>
-      </c>
-      <c r="AD42">
-        <v>4.6966631470773512E-2</v>
-      </c>
-      <c r="AE42">
-        <v>0.67645298525749664</v>
-      </c>
-      <c r="AF42">
-        <v>0.53125</v>
-      </c>
-      <c r="AG42">
-        <v>0.21875</v>
-      </c>
-      <c r="AH42">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI42">
-        <v>1.40625</v>
-      </c>
       <c r="AJ42">
+        <v>0.45072885006934404</v>
+      </c>
+      <c r="AK42">
+        <v>0.20380218282962151</v>
+      </c>
+      <c r="AL42">
+        <v>8.2962343815551287E-2</v>
+      </c>
+      <c r="AM42">
+        <v>0.80553296118915074</v>
+      </c>
+      <c r="AN42">
+        <v>0.515625</v>
+      </c>
+      <c r="AO42">
+        <v>0.1875</v>
+      </c>
+      <c r="AP42">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AQ42">
+        <v>1.4375</v>
+      </c>
+      <c r="AR42">
         <v>132</v>
       </c>
-      <c r="AK42">
+      <c r="AS42">
         <v>43</v>
       </c>
-      <c r="AL42">
+      <c r="AT42">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>63</v>
       </c>
@@ -5397,61 +6429,85 @@
         <v>0</v>
       </c>
       <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>63</v>
+      </c>
+      <c r="Y43">
         <v>5</v>
       </c>
-      <c r="V43">
+      <c r="Z43">
         <v>5</v>
       </c>
-      <c r="W43">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>63</v>
+      </c>
+      <c r="AC43">
+        <v>5</v>
+      </c>
+      <c r="AD43">
+        <v>5</v>
+      </c>
+      <c r="AE43">
         <v>9.5941603217575278E-8</v>
       </c>
-      <c r="X43">
+      <c r="AF43">
         <v>1.6662290014402004E-7</v>
       </c>
-      <c r="Y43">
+      <c r="AG43">
         <v>4.5704451334671603E-10</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
         <v>2</v>
       </c>
-      <c r="AB43">
-        <v>0.33958595003893788</v>
-      </c>
-      <c r="AC43">
-        <v>0.54150250113221299</v>
-      </c>
-      <c r="AD43">
-        <v>4.9651868568356794E-2</v>
-      </c>
-      <c r="AE43">
-        <v>0.6947242724649656</v>
-      </c>
-      <c r="AF43">
-        <v>0.375</v>
-      </c>
-      <c r="AG43">
-        <v>0.546875</v>
-      </c>
-      <c r="AH43">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI43">
-        <v>1.34375</v>
-      </c>
       <c r="AJ43">
+        <v>0.36215451467514792</v>
+      </c>
+      <c r="AK43">
+        <v>0.48007561771358409</v>
+      </c>
+      <c r="AL43">
+        <v>8.3231124117483291E-2</v>
+      </c>
+      <c r="AM43">
+        <v>0.86995203009313016</v>
+      </c>
+      <c r="AN43">
+        <v>0.40625</v>
+      </c>
+      <c r="AO43">
+        <v>0.484375</v>
+      </c>
+      <c r="AP43">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ43">
+        <v>1.53125</v>
+      </c>
+      <c r="AR43">
         <v>84</v>
       </c>
-      <c r="AK43">
+      <c r="AS43">
         <v>176</v>
       </c>
-      <c r="AL43">
+      <c r="AT43">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>63</v>
       </c>
@@ -5513,61 +6569,85 @@
         <v>0</v>
       </c>
       <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>63</v>
+      </c>
+      <c r="Y44">
         <v>5</v>
       </c>
-      <c r="V44">
+      <c r="Z44">
         <v>5</v>
       </c>
-      <c r="W44">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>63</v>
+      </c>
+      <c r="AC44">
+        <v>5</v>
+      </c>
+      <c r="AD44">
+        <v>5</v>
+      </c>
+      <c r="AE44">
         <v>9.1460714224389505E-8</v>
       </c>
-      <c r="X44">
+      <c r="AF44">
         <v>1.2652523473377641E-10</v>
       </c>
-      <c r="Y44">
+      <c r="AG44">
         <v>5.3432336333258945E-10</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
         <v>2</v>
       </c>
-      <c r="AB44">
-        <v>0.27718562006140252</v>
-      </c>
-      <c r="AC44">
-        <v>0.19702526278245988</v>
-      </c>
-      <c r="AD44">
-        <v>5.7078929035585486E-2</v>
-      </c>
-      <c r="AE44">
-        <v>0.6984958566778755</v>
-      </c>
-      <c r="AF44">
-        <v>0.34375</v>
-      </c>
-      <c r="AG44">
+      <c r="AJ44">
+        <v>0.25311663268958634</v>
+      </c>
+      <c r="AK44">
+        <v>0.18976177982595352</v>
+      </c>
+      <c r="AL44">
+        <v>6.9568873829779318E-2</v>
+      </c>
+      <c r="AM44">
+        <v>0.78471467591766986</v>
+      </c>
+      <c r="AN44">
+        <v>0.296875</v>
+      </c>
+      <c r="AO44">
         <v>0.203125</v>
       </c>
-      <c r="AH44">
+      <c r="AP44">
         <v>6.25E-2</v>
       </c>
-      <c r="AI44">
-        <v>1.15625</v>
-      </c>
-      <c r="AJ44">
+      <c r="AQ44">
+        <v>1.28125</v>
+      </c>
+      <c r="AR44">
         <v>56</v>
       </c>
-      <c r="AK44">
+      <c r="AS44">
         <v>43</v>
       </c>
-      <c r="AL44">
+      <c r="AT44">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>63</v>
       </c>
@@ -5629,61 +6709,85 @@
         <v>0</v>
       </c>
       <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>63</v>
+      </c>
+      <c r="Y45">
         <v>8</v>
       </c>
-      <c r="V45">
+      <c r="Z45">
         <v>8</v>
       </c>
-      <c r="W45">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>63</v>
+      </c>
+      <c r="AC45">
+        <v>8</v>
+      </c>
+      <c r="AD45">
+        <v>8</v>
+      </c>
+      <c r="AE45">
         <v>1.9193904243763882E-8</v>
       </c>
-      <c r="X45">
+      <c r="AF45">
         <v>1.2661948822767499E-8</v>
       </c>
-      <c r="Y45">
+      <c r="AG45">
         <v>4.1477754564311908E-10</v>
       </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
         <v>2</v>
       </c>
-      <c r="AB45">
-        <v>0.25446021345902931</v>
-      </c>
-      <c r="AC45">
-        <v>0.1846020319534234</v>
-      </c>
-      <c r="AD45">
-        <v>6.5234711276071375E-2</v>
-      </c>
-      <c r="AE45">
-        <v>0.6878315651994299</v>
-      </c>
-      <c r="AF45">
-        <v>0.28125</v>
-      </c>
-      <c r="AG45">
-        <v>0.234375</v>
-      </c>
-      <c r="AH45">
+      <c r="AJ45">
+        <v>0.25631794079648779</v>
+      </c>
+      <c r="AK45">
+        <v>0.18571949086980899</v>
+      </c>
+      <c r="AL45">
+        <v>5.3124843639144159E-2</v>
+      </c>
+      <c r="AM45">
+        <v>0.70007838890905993</v>
+      </c>
+      <c r="AN45">
+        <v>0.265625</v>
+      </c>
+      <c r="AO45">
+        <v>0.1875</v>
+      </c>
+      <c r="AP45">
         <v>6.25E-2</v>
       </c>
-      <c r="AI45">
-        <v>0.953125</v>
-      </c>
-      <c r="AJ45">
-        <v>63</v>
-      </c>
-      <c r="AK45">
+      <c r="AQ45">
+        <v>1.203125</v>
+      </c>
+      <c r="AR45">
+        <v>63</v>
+      </c>
+      <c r="AS45">
         <v>41</v>
       </c>
-      <c r="AL45">
+      <c r="AT45">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>63</v>
       </c>
@@ -5745,61 +6849,85 @@
         <v>0</v>
       </c>
       <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>63</v>
+      </c>
+      <c r="Y46">
         <v>13</v>
       </c>
-      <c r="V46">
+      <c r="Z46">
         <v>13</v>
       </c>
-      <c r="W46">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>63</v>
+      </c>
+      <c r="AC46">
+        <v>13</v>
+      </c>
+      <c r="AD46">
+        <v>13</v>
+      </c>
+      <c r="AE46">
         <v>3.5330582237591557E-8</v>
       </c>
-      <c r="X46">
+      <c r="AF46">
         <v>2.215091443602546E-10</v>
       </c>
-      <c r="Y46">
+      <c r="AG46">
         <v>6.5294536444326923E-9</v>
       </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
         <v>2</v>
       </c>
-      <c r="AB46">
-        <v>0.29901872737979618</v>
-      </c>
-      <c r="AC46">
-        <v>0.17943234113416306</v>
-      </c>
-      <c r="AD46">
-        <v>5.5417815451210925E-2</v>
-      </c>
-      <c r="AE46">
-        <v>0.69158935758300433</v>
-      </c>
-      <c r="AF46">
-        <v>0.34375</v>
-      </c>
-      <c r="AG46">
+      <c r="AJ46">
+        <v>0.31813067469629108</v>
+      </c>
+      <c r="AK46">
+        <v>0.19038850621017209</v>
+      </c>
+      <c r="AL46">
+        <v>7.573670820466305E-2</v>
+      </c>
+      <c r="AM46">
+        <v>0.8436292012157337</v>
+      </c>
+      <c r="AN46">
+        <v>0.359375</v>
+      </c>
+      <c r="AO46">
         <v>0.1875</v>
       </c>
-      <c r="AH46">
+      <c r="AP46">
         <v>6.25E-2</v>
       </c>
-      <c r="AI46">
-        <v>1.15625</v>
-      </c>
-      <c r="AJ46">
-        <v>63</v>
-      </c>
-      <c r="AK46">
+      <c r="AQ46">
+        <v>1.234375</v>
+      </c>
+      <c r="AR46">
+        <v>63</v>
+      </c>
+      <c r="AS46">
         <v>42</v>
       </c>
-      <c r="AL46">
+      <c r="AT46">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>63</v>
       </c>
@@ -5858,64 +6986,88 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>63</v>
+      </c>
+      <c r="Y47">
         <v>17</v>
       </c>
-      <c r="V47">
+      <c r="Z47">
         <v>17</v>
       </c>
-      <c r="W47">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>63</v>
+      </c>
+      <c r="AC47">
+        <v>17</v>
+      </c>
+      <c r="AD47">
+        <v>17</v>
+      </c>
+      <c r="AE47">
         <v>2.0356723051673242E-7</v>
       </c>
-      <c r="X47">
+      <c r="AF47">
         <v>1.8083108610511545E-7</v>
       </c>
-      <c r="Y47">
+      <c r="AG47">
         <v>3.7530220901513256E-10</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
         <v>2</v>
       </c>
-      <c r="AB47">
-        <v>0.3130520740986879</v>
-      </c>
-      <c r="AC47">
-        <v>0.95472495243422584</v>
-      </c>
-      <c r="AD47">
-        <v>5.7398707032036818E-2</v>
-      </c>
-      <c r="AE47">
-        <v>0.6927491542080475</v>
-      </c>
-      <c r="AF47">
-        <v>0.34375</v>
-      </c>
-      <c r="AG47">
-        <v>0.96875</v>
-      </c>
-      <c r="AH47">
-        <v>6.25E-2</v>
-      </c>
-      <c r="AI47">
-        <v>1.09375</v>
-      </c>
       <c r="AJ47">
+        <v>0.19799582267941246</v>
+      </c>
+      <c r="AK47">
+        <v>0.89409254253336023</v>
+      </c>
+      <c r="AL47">
+        <v>7.6953917328567559E-2</v>
+      </c>
+      <c r="AM47">
+        <v>0.73727238670493311</v>
+      </c>
+      <c r="AN47">
+        <v>0.25</v>
+      </c>
+      <c r="AO47">
+        <v>0.890625</v>
+      </c>
+      <c r="AP47">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ47">
+        <v>1.1875</v>
+      </c>
+      <c r="AR47">
         <v>62</v>
       </c>
-      <c r="AK47">
+      <c r="AS47">
         <v>449</v>
       </c>
-      <c r="AL47">
+      <c r="AT47">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>63</v>
       </c>
@@ -5974,64 +7126,88 @@
         <v>0</v>
       </c>
       <c r="T48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>63</v>
+      </c>
+      <c r="Y48">
         <v>23</v>
       </c>
-      <c r="V48">
+      <c r="Z48">
         <v>23</v>
       </c>
-      <c r="W48">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>63</v>
+      </c>
+      <c r="AC48">
+        <v>23</v>
+      </c>
+      <c r="AD48">
+        <v>23</v>
+      </c>
+      <c r="AE48">
         <v>1.2285499018105384E-7</v>
       </c>
-      <c r="X48">
+      <c r="AF48">
         <v>4.4933057274931798E-11</v>
       </c>
-      <c r="Y48">
+      <c r="AG48">
         <v>6.7288119520725331E-10</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
         <v>2</v>
       </c>
-      <c r="AB48">
-        <v>0.24832413236563872</v>
-      </c>
-      <c r="AC48">
-        <v>0.19902154989370668</v>
-      </c>
-      <c r="AD48">
-        <v>7.7305127866294954E-2</v>
-      </c>
-      <c r="AE48">
-        <v>0.68989296257474853</v>
-      </c>
-      <c r="AF48">
-        <v>0.3125</v>
-      </c>
-      <c r="AG48">
+      <c r="AJ48">
+        <v>0.18113001910328733</v>
+      </c>
+      <c r="AK48">
+        <v>0.17218521592872896</v>
+      </c>
+      <c r="AL48">
+        <v>5.2666505868904492E-2</v>
+      </c>
+      <c r="AM48">
+        <v>0.79825600714352607</v>
+      </c>
+      <c r="AN48">
         <v>0.203125</v>
       </c>
-      <c r="AH48">
-        <v>0.125</v>
-      </c>
-      <c r="AI48">
-        <v>0.9375</v>
-      </c>
-      <c r="AJ48">
+      <c r="AO48">
+        <v>0.171875</v>
+      </c>
+      <c r="AP48">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AQ48">
+        <v>1.265625</v>
+      </c>
+      <c r="AR48">
         <v>50</v>
       </c>
-      <c r="AK48">
+      <c r="AS48">
         <v>44</v>
       </c>
-      <c r="AL48">
+      <c r="AT48">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>63</v>
       </c>
@@ -6090,64 +7266,88 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>63</v>
+      </c>
+      <c r="Y49">
         <v>24</v>
       </c>
-      <c r="V49">
+      <c r="Z49">
         <v>24</v>
       </c>
-      <c r="W49">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>63</v>
+      </c>
+      <c r="AC49">
+        <v>24</v>
+      </c>
+      <c r="AD49">
+        <v>24</v>
+      </c>
+      <c r="AE49">
         <v>2.5535819592192865E-7</v>
       </c>
-      <c r="X49">
+      <c r="AF49">
         <v>1.5547382936631493E-8</v>
       </c>
-      <c r="Y49">
+      <c r="AG49">
         <v>4.9108414730547612E-10</v>
       </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
         <v>2</v>
       </c>
-      <c r="AB49">
-        <v>0.43236551041956667</v>
-      </c>
-      <c r="AC49">
-        <v>1.2550256784617813</v>
-      </c>
-      <c r="AD49">
-        <v>7.5407628741915741E-2</v>
-      </c>
-      <c r="AE49">
-        <v>0.69796246569683373</v>
-      </c>
-      <c r="AF49">
-        <v>0.484375</v>
-      </c>
-      <c r="AG49">
-        <v>1.265625</v>
-      </c>
-      <c r="AH49">
-        <v>7.8125E-2</v>
-      </c>
-      <c r="AI49">
-        <v>1.078125</v>
-      </c>
       <c r="AJ49">
+        <v>0.36763083314195832</v>
+      </c>
+      <c r="AK49">
+        <v>1.1207570880380577</v>
+      </c>
+      <c r="AL49">
+        <v>6.069848238558876E-2</v>
+      </c>
+      <c r="AM49">
+        <v>1.0077792332256075</v>
+      </c>
+      <c r="AN49">
+        <v>0.40625</v>
+      </c>
+      <c r="AO49">
+        <v>1.125</v>
+      </c>
+      <c r="AP49">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ49">
+        <v>1.59375</v>
+      </c>
+      <c r="AR49">
         <v>104</v>
       </c>
-      <c r="AK49">
+      <c r="AS49">
         <v>708</v>
       </c>
-      <c r="AL49">
+      <c r="AT49">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>63</v>
       </c>
@@ -6206,64 +7406,88 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>63</v>
+      </c>
+      <c r="Y50">
         <v>29</v>
       </c>
-      <c r="V50">
+      <c r="Z50">
         <v>29</v>
       </c>
-      <c r="W50">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>63</v>
+      </c>
+      <c r="AC50">
+        <v>29</v>
+      </c>
+      <c r="AD50">
+        <v>29</v>
+      </c>
+      <c r="AE50">
         <v>9.8866497433292011E-8</v>
       </c>
-      <c r="X50">
+      <c r="AF50">
         <v>4.6114001506225577E-11</v>
       </c>
-      <c r="Y50">
+      <c r="AG50">
         <v>1.1029936310548265E-9</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
         <v>2</v>
       </c>
-      <c r="AB50">
-        <v>0.45585588243972969</v>
-      </c>
-      <c r="AC50">
-        <v>0.1577583209634523</v>
-      </c>
-      <c r="AD50">
-        <v>4.3724910096517147E-2</v>
-      </c>
-      <c r="AE50">
-        <v>0.70455143197677328</v>
-      </c>
-      <c r="AF50">
-        <v>0.5</v>
-      </c>
-      <c r="AG50">
-        <v>0.15625</v>
-      </c>
-      <c r="AH50">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI50">
-        <v>1.21875</v>
-      </c>
       <c r="AJ50">
+        <v>0.3832521646757252</v>
+      </c>
+      <c r="AK50">
+        <v>0.15940724641957696</v>
+      </c>
+      <c r="AL50">
+        <v>6.7847461084589458E-2</v>
+      </c>
+      <c r="AM50">
+        <v>0.74336709231031739</v>
+      </c>
+      <c r="AN50">
+        <v>0.40625</v>
+      </c>
+      <c r="AO50">
+        <v>0.171875</v>
+      </c>
+      <c r="AP50">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ50">
+        <v>0.953125</v>
+      </c>
+      <c r="AR50">
         <v>108</v>
       </c>
-      <c r="AK50">
+      <c r="AS50">
         <v>37</v>
       </c>
-      <c r="AL50">
+      <c r="AT50">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>63</v>
       </c>
@@ -6322,64 +7546,88 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>63</v>
+      </c>
+      <c r="Y51">
         <v>30</v>
       </c>
-      <c r="V51">
+      <c r="Z51">
         <v>30</v>
       </c>
-      <c r="W51">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>63</v>
+      </c>
+      <c r="AC51">
+        <v>30</v>
+      </c>
+      <c r="AD51">
+        <v>30</v>
+      </c>
+      <c r="AE51">
         <v>3.6371850997696242E-7</v>
       </c>
-      <c r="X51">
+      <c r="AF51">
         <v>7.1420092062624008E-11</v>
       </c>
-      <c r="Y51">
+      <c r="AG51">
         <v>3.5259972719359212E-10</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0.45900555137167759</v>
-      </c>
-      <c r="AC51">
-        <v>0.15593747875096062</v>
-      </c>
-      <c r="AD51">
-        <v>5.266361920695057E-2</v>
-      </c>
-      <c r="AE51">
-        <v>0.69051712303723023</v>
-      </c>
-      <c r="AF51">
-        <v>0.515625</v>
-      </c>
-      <c r="AG51">
-        <v>0.15625</v>
-      </c>
       <c r="AH51">
-        <v>4.6875E-2</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>1.421875</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
+        <v>0.39771081292249505</v>
+      </c>
+      <c r="AK51">
+        <v>0.15417629421885004</v>
+      </c>
+      <c r="AL51">
+        <v>5.7903552133756371E-2</v>
+      </c>
+      <c r="AM51">
+        <v>0.92016647700228493</v>
+      </c>
+      <c r="AN51">
+        <v>0.4375</v>
+      </c>
+      <c r="AO51">
+        <v>0.171875</v>
+      </c>
+      <c r="AP51">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ51">
+        <v>1.40625</v>
+      </c>
+      <c r="AR51">
         <v>120</v>
       </c>
-      <c r="AK51">
+      <c r="AS51">
         <v>36</v>
       </c>
-      <c r="AL51">
+      <c r="AT51">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>63</v>
       </c>
@@ -6438,64 +7686,88 @@
         <v>0</v>
       </c>
       <c r="T52">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>63</v>
+      </c>
+      <c r="Y52">
         <v>32</v>
       </c>
-      <c r="V52">
+      <c r="Z52">
         <v>32</v>
       </c>
-      <c r="W52">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>63</v>
+      </c>
+      <c r="AC52">
+        <v>32</v>
+      </c>
+      <c r="AD52">
+        <v>32</v>
+      </c>
+      <c r="AE52">
         <v>6.4943570743380974E-8</v>
       </c>
-      <c r="X52">
+      <c r="AF52">
         <v>2.6041058198700284E-11</v>
       </c>
-      <c r="Y52">
+      <c r="AG52">
         <v>8.7105423221545131E-10</v>
       </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0.33973509423989057</v>
-      </c>
-      <c r="AC52">
-        <v>0.14260687384774076</v>
-      </c>
-      <c r="AD52">
-        <v>5.0546092293638954E-2</v>
-      </c>
-      <c r="AE52">
-        <v>0.68692707778720041</v>
-      </c>
-      <c r="AF52">
-        <v>0.4375</v>
-      </c>
-      <c r="AG52">
-        <v>0.140625</v>
-      </c>
       <c r="AH52">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI52">
-        <v>1.1875</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
+        <v>0.34634875751654698</v>
+      </c>
+      <c r="AK52">
+        <v>0.14900435821806998</v>
+      </c>
+      <c r="AL52">
+        <v>7.5934604918615381E-2</v>
+      </c>
+      <c r="AM52">
+        <v>0.70585748614081523</v>
+      </c>
+      <c r="AN52">
+        <v>0.375</v>
+      </c>
+      <c r="AO52">
+        <v>0.15625</v>
+      </c>
+      <c r="AP52">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ52">
+        <v>1.578125</v>
+      </c>
+      <c r="AR52">
         <v>67</v>
       </c>
-      <c r="AK52">
+      <c r="AS52">
         <v>35</v>
       </c>
-      <c r="AL52">
+      <c r="AT52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>63</v>
       </c>
@@ -6554,64 +7826,88 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>63</v>
+      </c>
+      <c r="Y53">
         <v>37</v>
       </c>
-      <c r="V53">
+      <c r="Z53">
         <v>37</v>
       </c>
-      <c r="W53">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>63</v>
+      </c>
+      <c r="AC53">
+        <v>37</v>
+      </c>
+      <c r="AD53">
+        <v>37</v>
+      </c>
+      <c r="AE53">
         <v>1.4915197121823098E-7</v>
       </c>
-      <c r="X53">
+      <c r="AF53">
         <v>6.0472404861400264E-11</v>
       </c>
-      <c r="Y53">
+      <c r="AG53">
         <v>1.0029101401350798E-9</v>
       </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0.46269534682922636</v>
-      </c>
-      <c r="AC53">
-        <v>0.10253359112293715</v>
-      </c>
-      <c r="AD53">
-        <v>5.0611202557710788E-2</v>
-      </c>
-      <c r="AE53">
-        <v>0.82575274521551822</v>
-      </c>
-      <c r="AF53">
-        <v>0.484375</v>
-      </c>
-      <c r="AG53">
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0.48675086311192423</v>
+      </c>
+      <c r="AK53">
+        <v>0.10913795293329759</v>
+      </c>
+      <c r="AL53">
+        <v>7.2341031526197419E-2</v>
+      </c>
+      <c r="AM53">
+        <v>0.72874005544956877</v>
+      </c>
+      <c r="AN53">
+        <v>0.515625</v>
+      </c>
+      <c r="AO53">
         <v>0.109375</v>
       </c>
-      <c r="AH53">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI53">
-        <v>1.640625</v>
-      </c>
-      <c r="AJ53">
+      <c r="AP53">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ53">
+        <v>1.359375</v>
+      </c>
+      <c r="AR53">
         <v>131</v>
       </c>
-      <c r="AK53">
+      <c r="AS53">
         <v>25</v>
       </c>
-      <c r="AL53">
+      <c r="AT53">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>63</v>
       </c>
@@ -6670,64 +7966,88 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>63</v>
+      </c>
+      <c r="Y54">
         <v>38</v>
       </c>
-      <c r="V54">
+      <c r="Z54">
         <v>38</v>
       </c>
-      <c r="W54">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>63</v>
+      </c>
+      <c r="AC54">
+        <v>38</v>
+      </c>
+      <c r="AD54">
+        <v>38</v>
+      </c>
+      <c r="AE54">
         <v>9.0143278952403705E-8</v>
       </c>
-      <c r="X54">
+      <c r="AF54">
         <v>7.8107520451453638E-11</v>
       </c>
-      <c r="Y54">
+      <c r="AG54">
         <v>8.1394957440750204E-10</v>
       </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0.3196737558807719</v>
-      </c>
-      <c r="AC54">
-        <v>9.0331350303484395E-2</v>
-      </c>
-      <c r="AD54">
-        <v>5.8334947725759416E-2</v>
-      </c>
-      <c r="AE54">
-        <v>0.72797733521329866</v>
-      </c>
-      <c r="AF54">
-        <v>0.359375</v>
-      </c>
-      <c r="AG54">
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0.30938537193677057</v>
+      </c>
+      <c r="AK54">
+        <v>8.9555800458530219E-2</v>
+      </c>
+      <c r="AL54">
+        <v>6.745776172080975E-2</v>
+      </c>
+      <c r="AM54">
+        <v>0.79986131193012477</v>
+      </c>
+      <c r="AN54">
+        <v>0.34375</v>
+      </c>
+      <c r="AO54">
         <v>9.375E-2</v>
       </c>
-      <c r="AH54">
+      <c r="AP54">
         <v>6.25E-2</v>
       </c>
-      <c r="AI54">
-        <v>1.671875</v>
-      </c>
-      <c r="AJ54">
-        <v>63</v>
-      </c>
-      <c r="AK54">
+      <c r="AQ54">
+        <v>1.140625</v>
+      </c>
+      <c r="AR54">
+        <v>63</v>
+      </c>
+      <c r="AS54">
         <v>20</v>
       </c>
-      <c r="AL54">
+      <c r="AT54">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>63</v>
       </c>
@@ -6786,64 +8106,88 @@
         <v>0</v>
       </c>
       <c r="T55">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>63</v>
+      </c>
+      <c r="Y55">
         <v>41</v>
       </c>
-      <c r="V55">
+      <c r="Z55">
         <v>41</v>
       </c>
-      <c r="W55">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>63</v>
+      </c>
+      <c r="AC55">
+        <v>41</v>
+      </c>
+      <c r="AD55">
+        <v>41</v>
+      </c>
+      <c r="AE55">
         <v>3.2188373499941747E-7</v>
       </c>
-      <c r="X55">
+      <c r="AF55">
         <v>2.214706196213001E-11</v>
       </c>
-      <c r="Y55">
+      <c r="AG55">
         <v>8.6804918808525144E-9</v>
       </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0.36613746669112845</v>
-      </c>
-      <c r="AC55">
-        <v>9.1267590997206993E-2</v>
-      </c>
-      <c r="AD55">
-        <v>4.1097406238012335E-2</v>
-      </c>
-      <c r="AE55">
-        <v>0.72455215043485954</v>
-      </c>
-      <c r="AF55">
-        <v>0.375</v>
-      </c>
-      <c r="AG55">
-        <v>0.109375</v>
-      </c>
       <c r="AH55">
-        <v>4.6875E-2</v>
+        <v>0</v>
       </c>
       <c r="AI55">
-        <v>1.1875</v>
+        <v>0</v>
       </c>
       <c r="AJ55">
+        <v>0.45889874487938243</v>
+      </c>
+      <c r="AK55">
+        <v>8.7581965162480582E-2</v>
+      </c>
+      <c r="AL55">
+        <v>5.9079385769654637E-2</v>
+      </c>
+      <c r="AM55">
+        <v>0.90186022911115193</v>
+      </c>
+      <c r="AN55">
+        <v>0.5</v>
+      </c>
+      <c r="AO55">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AP55">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ55">
+        <v>1.71875</v>
+      </c>
+      <c r="AR55">
         <v>97</v>
       </c>
-      <c r="AK55">
+      <c r="AS55">
         <v>20</v>
       </c>
-      <c r="AL55">
+      <c r="AT55">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>63</v>
       </c>
@@ -6902,64 +8246,88 @@
         <v>0</v>
       </c>
       <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>63</v>
+      </c>
+      <c r="Y56">
         <v>45</v>
       </c>
-      <c r="U56">
+      <c r="Z56">
         <v>45</v>
       </c>
-      <c r="V56">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>63</v>
+      </c>
+      <c r="AC56">
         <v>45</v>
       </c>
-      <c r="W56">
+      <c r="AD56">
+        <v>45</v>
+      </c>
+      <c r="AE56">
         <v>4.4517126873699908E-7</v>
       </c>
-      <c r="X56">
+      <c r="AF56">
         <v>3.5444314150367973E-11</v>
       </c>
-      <c r="Y56">
+      <c r="AG56">
         <v>3.4798264270108348E-10</v>
       </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0.4520958448746355</v>
-      </c>
-      <c r="AC56">
-        <v>8.6364756038576074E-2</v>
-      </c>
-      <c r="AD56">
-        <v>4.1635287582093457E-2</v>
-      </c>
-      <c r="AE56">
-        <v>0.71780377626702008</v>
-      </c>
-      <c r="AF56">
-        <v>0.5</v>
-      </c>
-      <c r="AG56">
-        <v>9.375E-2</v>
-      </c>
       <c r="AH56">
-        <v>4.6875E-2</v>
+        <v>0</v>
       </c>
       <c r="AI56">
-        <v>1.21875</v>
+        <v>0</v>
       </c>
       <c r="AJ56">
+        <v>0.23882990119918351</v>
+      </c>
+      <c r="AK56">
+        <v>9.456351746815371E-2</v>
+      </c>
+      <c r="AL56">
+        <v>7.3492809645812993E-2</v>
+      </c>
+      <c r="AM56">
+        <v>0.93568709610788159</v>
+      </c>
+      <c r="AN56">
+        <v>0.28125</v>
+      </c>
+      <c r="AO56">
+        <v>0.109375</v>
+      </c>
+      <c r="AP56">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="AQ56">
+        <v>1.59375</v>
+      </c>
+      <c r="AR56">
         <v>133</v>
       </c>
-      <c r="AK56">
+      <c r="AS56">
         <v>21</v>
       </c>
-      <c r="AL56">
+      <c r="AT56">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>63</v>
       </c>
@@ -7018,64 +8386,88 @@
         <v>0</v>
       </c>
       <c r="T57">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>63</v>
+      </c>
+      <c r="Y57">
         <v>49</v>
       </c>
-      <c r="V57">
+      <c r="Z57">
         <v>49</v>
       </c>
-      <c r="W57">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>63</v>
+      </c>
+      <c r="AC57">
+        <v>49</v>
+      </c>
+      <c r="AD57">
+        <v>49</v>
+      </c>
+      <c r="AE57">
         <v>1.7032560217788983E-7</v>
       </c>
-      <c r="X57">
+      <c r="AF57">
         <v>8.9487528498466418E-11</v>
       </c>
-      <c r="Y57">
+      <c r="AG57">
         <v>2.4553380162384286E-11</v>
       </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0.3297049061706569</v>
-      </c>
-      <c r="AC57">
-        <v>0.10654284383672014</v>
-      </c>
-      <c r="AD57">
-        <v>4.1877125705788845E-2</v>
-      </c>
-      <c r="AE57">
-        <v>0.71669561881693045</v>
-      </c>
-      <c r="AF57">
-        <v>0.359375</v>
-      </c>
-      <c r="AG57">
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0.37322839141083358</v>
+      </c>
+      <c r="AK57">
+        <v>0.10451833158636828</v>
+      </c>
+      <c r="AL57">
+        <v>5.4774410575703029E-2</v>
+      </c>
+      <c r="AM57">
+        <v>0.91924851850093725</v>
+      </c>
+      <c r="AN57">
+        <v>0.40625</v>
+      </c>
+      <c r="AO57">
         <v>0.125</v>
       </c>
-      <c r="AH57">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI57">
-        <v>1.421875</v>
-      </c>
-      <c r="AJ57">
+      <c r="AP57">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ57">
+        <v>1.59375</v>
+      </c>
+      <c r="AR57">
         <v>84</v>
       </c>
-      <c r="AK57">
+      <c r="AS57">
         <v>24</v>
       </c>
-      <c r="AL57">
+      <c r="AT57">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>63</v>
       </c>
@@ -7134,64 +8526,88 @@
         <v>0</v>
       </c>
       <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>63</v>
+      </c>
+      <c r="Y58">
         <v>53</v>
       </c>
-      <c r="U58">
+      <c r="Z58">
         <v>53</v>
       </c>
-      <c r="V58">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>63</v>
+      </c>
+      <c r="AC58">
         <v>53</v>
       </c>
-      <c r="W58">
+      <c r="AD58">
+        <v>53</v>
+      </c>
+      <c r="AE58">
         <v>1.1034199653980892E-7</v>
       </c>
-      <c r="X58">
+      <c r="AF58">
         <v>4.2938985700402554E-12</v>
       </c>
-      <c r="Y58">
+      <c r="AG58">
         <v>3.0752821296442523E-11</v>
       </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0.49165466029120647</v>
-      </c>
-      <c r="AC58">
-        <v>8.6462261064575274E-2</v>
-      </c>
-      <c r="AD58">
-        <v>5.3241913818386624E-2</v>
-      </c>
-      <c r="AE58">
-        <v>0.71284609473126459</v>
-      </c>
-      <c r="AF58">
-        <v>0.5</v>
-      </c>
-      <c r="AG58">
-        <v>0.109375</v>
-      </c>
       <c r="AH58">
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="AI58">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="AJ58">
+        <v>0.41199529923137812</v>
+      </c>
+      <c r="AK58">
+        <v>8.5177375754862103E-2</v>
+      </c>
+      <c r="AL58">
+        <v>6.616389568501771E-2</v>
+      </c>
+      <c r="AM58">
+        <v>0.61814626267084227</v>
+      </c>
+      <c r="AN58">
+        <v>0.453125</v>
+      </c>
+      <c r="AO58">
+        <v>9.375E-2</v>
+      </c>
+      <c r="AP58">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AQ58">
+        <v>0.796875</v>
+      </c>
+      <c r="AR58">
         <v>134</v>
       </c>
-      <c r="AK58">
+      <c r="AS58">
         <v>19</v>
       </c>
-      <c r="AL58">
+      <c r="AT58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>63</v>
       </c>
@@ -7250,64 +8666,88 @@
         <v>0</v>
       </c>
       <c r="T59">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>63</v>
+      </c>
+      <c r="Y59">
         <v>54</v>
       </c>
-      <c r="V59">
+      <c r="Z59">
         <v>54</v>
       </c>
-      <c r="W59">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>63</v>
+      </c>
+      <c r="AC59">
+        <v>54</v>
+      </c>
+      <c r="AD59">
+        <v>54</v>
+      </c>
+      <c r="AE59">
         <v>3.373172623444276E-7</v>
       </c>
-      <c r="X59">
+      <c r="AF59">
         <v>9.8062669096066202E-12</v>
       </c>
-      <c r="Y59">
+      <c r="AG59">
         <v>2.2760079003753045E-10</v>
       </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0.52234853684727767</v>
-      </c>
-      <c r="AC59">
-        <v>8.484701333124639E-2</v>
-      </c>
-      <c r="AD59">
-        <v>3.4622302735144272E-2</v>
-      </c>
-      <c r="AE59">
-        <v>0.72577160474028379</v>
-      </c>
-      <c r="AF59">
-        <v>0.53125</v>
-      </c>
-      <c r="AG59">
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0.57252513641081437</v>
+      </c>
+      <c r="AK59">
+        <v>8.5265900054782434E-2</v>
+      </c>
+      <c r="AL59">
+        <v>5.798534088911754E-2</v>
+      </c>
+      <c r="AM59">
+        <v>0.84980505409604501</v>
+      </c>
+      <c r="AN59">
+        <v>0.609375</v>
+      </c>
+      <c r="AO59">
         <v>9.375E-2</v>
       </c>
-      <c r="AH59">
+      <c r="AP59">
         <v>3.125E-2</v>
       </c>
-      <c r="AI59">
-        <v>1.34375</v>
-      </c>
-      <c r="AJ59">
+      <c r="AQ59">
+        <v>1.859375</v>
+      </c>
+      <c r="AR59">
         <v>132</v>
       </c>
-      <c r="AK59">
+      <c r="AS59">
         <v>20</v>
       </c>
-      <c r="AL59">
+      <c r="AT59">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>63</v>
       </c>
@@ -7366,64 +8806,88 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>63</v>
+      </c>
+      <c r="Y60">
         <v>57</v>
       </c>
-      <c r="V60">
+      <c r="Z60">
         <v>57</v>
       </c>
-      <c r="W60">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>63</v>
+      </c>
+      <c r="AC60">
+        <v>57</v>
+      </c>
+      <c r="AD60">
+        <v>57</v>
+      </c>
+      <c r="AE60">
         <v>9.6778684399723147E-8</v>
       </c>
-      <c r="X60">
+      <c r="AF60">
         <v>9.6824992468214077E-11</v>
       </c>
-      <c r="Y60">
+      <c r="AG60">
         <v>4.781147699972621E-11</v>
       </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0.31532516001729433</v>
-      </c>
-      <c r="AC60">
-        <v>6.5190449126111202E-2</v>
-      </c>
-      <c r="AD60">
-        <v>5.2526663134247739E-2</v>
-      </c>
-      <c r="AE60">
-        <v>0.72598874586726225</v>
-      </c>
-      <c r="AF60">
-        <v>0.953125</v>
-      </c>
-      <c r="AG60">
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0.3101580351197708</v>
+      </c>
+      <c r="AK60">
+        <v>6.2832046309755502E-2</v>
+      </c>
+      <c r="AL60">
+        <v>5.5010796115707673E-2</v>
+      </c>
+      <c r="AM60">
+        <v>0.94512744291786355</v>
+      </c>
+      <c r="AN60">
+        <v>0.3125</v>
+      </c>
+      <c r="AO60">
         <v>7.8125E-2</v>
       </c>
-      <c r="AH60">
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AI60">
-        <v>1.140625</v>
-      </c>
-      <c r="AJ60">
+      <c r="AP60">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AQ60">
+        <v>1.609375</v>
+      </c>
+      <c r="AR60">
         <v>83</v>
       </c>
-      <c r="AK60">
+      <c r="AS60">
         <v>13</v>
       </c>
-      <c r="AL60">
+      <c r="AT60">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>63</v>
       </c>
@@ -7482,64 +8946,88 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>63</v>
+      </c>
+      <c r="Y61">
         <v>57</v>
       </c>
-      <c r="V61">
+      <c r="Z61">
         <v>57</v>
       </c>
-      <c r="W61">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>63</v>
+      </c>
+      <c r="AC61">
+        <v>57</v>
+      </c>
+      <c r="AD61">
+        <v>57</v>
+      </c>
+      <c r="AE61">
         <v>9.6800839648793984E-8</v>
       </c>
-      <c r="X61">
+      <c r="AF61">
         <v>1.9192314404392619E-11</v>
       </c>
-      <c r="Y61">
+      <c r="AG61">
         <v>4.334804853671748E-11</v>
       </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0.43883836874091503</v>
-      </c>
-      <c r="AC61">
-        <v>6.0374855506532196E-2</v>
-      </c>
-      <c r="AD61">
-        <v>2.9162021279188963E-2</v>
-      </c>
-      <c r="AE61">
-        <v>0.80624885335372387</v>
-      </c>
-      <c r="AF61">
-        <v>0.484375</v>
-      </c>
-      <c r="AG61">
-        <v>7.8125E-2</v>
-      </c>
       <c r="AH61">
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="AI61">
-        <v>1.3125</v>
+        <v>0</v>
       </c>
       <c r="AJ61">
+        <v>0.34036502802628016</v>
+      </c>
+      <c r="AK61">
+        <v>6.1592706110870914E-2</v>
+      </c>
+      <c r="AL61">
+        <v>4.6122763959576471E-2</v>
+      </c>
+      <c r="AM61">
+        <v>0.98160907669155184</v>
+      </c>
+      <c r="AN61">
+        <v>0.34375</v>
+      </c>
+      <c r="AO61">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AP61">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AQ61">
+        <v>1.234375</v>
+      </c>
+      <c r="AR61">
         <v>89</v>
       </c>
-      <c r="AK61">
+      <c r="AS61">
         <v>12</v>
       </c>
-      <c r="AL61">
+      <c r="AT61">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>63</v>
       </c>
@@ -7598,60 +9086,84 @@
         <v>0</v>
       </c>
       <c r="T62">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>63</v>
+      </c>
+      <c r="Y62">
         <v>60</v>
       </c>
-      <c r="V62">
+      <c r="Z62">
         <v>60</v>
       </c>
-      <c r="W62">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>63</v>
+      </c>
+      <c r="AC62">
+        <v>60</v>
+      </c>
+      <c r="AD62">
+        <v>60</v>
+      </c>
+      <c r="AE62">
         <v>6.8291622246086092E-8</v>
       </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
         <v>5.9219129600052156E-11</v>
       </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0.32730127898368971</v>
-      </c>
-      <c r="AC62">
-        <v>4.8587973268227343E-2</v>
-      </c>
-      <c r="AD62">
-        <v>3.7554830540113694E-2</v>
-      </c>
-      <c r="AE62">
-        <v>0.74434310479096077</v>
-      </c>
-      <c r="AF62">
-        <v>0.359375</v>
-      </c>
-      <c r="AG62">
-        <v>6.25E-2</v>
-      </c>
       <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0.36533882355054287</v>
+      </c>
+      <c r="AK62">
+        <v>4.4499818461037122E-2</v>
+      </c>
+      <c r="AL62">
+        <v>3.8045242332063627E-2</v>
+      </c>
+      <c r="AM62">
+        <v>0.94419537184696334</v>
+      </c>
+      <c r="AN62">
+        <v>0.390625</v>
+      </c>
+      <c r="AO62">
         <v>4.6875E-2</v>
       </c>
-      <c r="AI62">
-        <v>0.96875</v>
-      </c>
-      <c r="AJ62">
+      <c r="AP62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AQ62">
+        <v>2.234375</v>
+      </c>
+      <c r="AR62">
         <v>79</v>
       </c>
-      <c r="AK62">
+      <c r="AS62">
         <v>5</v>
       </c>
-      <c r="AL62">
+      <c r="AT62">
         <v>9</v>
       </c>
     </row>

--- a/Results/data63.xlsx
+++ b/Results/data63.xlsx
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-2.9693176073922714</v>
+        <v>-2.9693176073922709</v>
       </c>
       <c r="H2">
         <v>-1.1902538073941571</v>
       </c>
       <c r="I2">
-        <v>-2.7379506585673719</v>
+        <v>-2.7379506585673714</v>
       </c>
       <c r="J2">
-        <v>-2.7379506573393035</v>
+        <v>-2.737950657339304</v>
       </c>
       <c r="K2">
         <v>0.12142888960772869</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>50</v>
       </c>
       <c r="AB2">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -734,28 +734,28 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.25697064713829165</v>
+        <v>7.685703627937468E-2</v>
       </c>
       <c r="AK2">
-        <v>0.17578744930700868</v>
+        <v>0.10116336094595604</v>
       </c>
       <c r="AL2">
-        <v>6.4802674203634114E-2</v>
+        <v>5.3523872938956184E-2</v>
       </c>
       <c r="AM2">
-        <v>3.3941319935800638</v>
+        <v>0.97539628395488209</v>
       </c>
       <c r="AN2">
-        <v>0.3125</v>
+        <v>0.11093749999999999</v>
       </c>
       <c r="AO2">
-        <v>0.21875</v>
+        <v>0.1140625</v>
       </c>
       <c r="AP2">
-        <v>7.8125E-2</v>
+        <v>5.7812500000000003E-2</v>
       </c>
       <c r="AQ2">
-        <v>4.359375</v>
+        <v>1.5531250000000001</v>
       </c>
       <c r="AR2">
         <v>19</v>
@@ -793,7 +793,7 @@
         <v>-2.6295325006175858</v>
       </c>
       <c r="I3">
-        <v>-4.4110536984818838</v>
+        <v>-4.4110536984818847</v>
       </c>
       <c r="J3">
         <v>-4.4110536721151581</v>
@@ -802,7 +802,7 @@
         <v>0.12365854914476593</v>
       </c>
       <c r="L3">
-        <v>2.2120458003824144</v>
+        <v>2.2120458003824139</v>
       </c>
       <c r="M3">
         <v>0.43052460251811642</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>47</v>
       </c>
       <c r="AB3">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -874,28 +874,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.15529311165480142</v>
+        <v>8.0528915313699476E-2</v>
       </c>
       <c r="AK3">
-        <v>0.11110056232174863</v>
+        <v>0.10591264224477888</v>
       </c>
       <c r="AL3">
-        <v>5.6782885815199753E-2</v>
+        <v>6.3538476292563567E-2</v>
       </c>
       <c r="AM3">
-        <v>1.408110814462048</v>
+        <v>0.7700346432730758</v>
       </c>
       <c r="AN3">
-        <v>0.171875</v>
+        <v>0.1</v>
       </c>
       <c r="AO3">
-        <v>9.375E-2</v>
+        <v>0.1171875</v>
       </c>
       <c r="AP3">
-        <v>6.25E-2</v>
+        <v>6.5625000000000003E-2</v>
       </c>
       <c r="AQ3">
-        <v>2.203125</v>
+        <v>1.3843749999999999</v>
       </c>
       <c r="AR3">
         <v>28</v>
@@ -927,22 +927,22 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.4886873191764254</v>
+        <v>-6.4886873191764263</v>
       </c>
       <c r="H4">
         <v>-4.3097530118533882</v>
       </c>
       <c r="I4">
-        <v>-6.1631836580982355</v>
+        <v>-6.1631836580982347</v>
       </c>
       <c r="J4">
-        <v>-6.1631834498025686</v>
+        <v>-6.1631834498025677</v>
       </c>
       <c r="K4">
         <v>0.13675392382357465</v>
       </c>
       <c r="L4">
-        <v>2.3156882311466118</v>
+        <v>2.3156882311466123</v>
       </c>
       <c r="M4">
         <v>0.4622575849017645</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>46</v>
       </c>
       <c r="AB4">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.1402292266183589</v>
+        <v>7.2759405178753955E-2</v>
       </c>
       <c r="AK4">
-        <v>0.13268381301101936</v>
+        <v>0.12942987904522998</v>
       </c>
       <c r="AL4">
-        <v>4.978337205736888E-2</v>
+        <v>5.4734575307983868E-2</v>
       </c>
       <c r="AM4">
-        <v>0.8793442658705467</v>
+        <v>0.73146049252400014</v>
       </c>
       <c r="AN4">
-        <v>0.21875</v>
+        <v>0.10781250000000001</v>
       </c>
       <c r="AO4">
-        <v>0.140625</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="AP4">
-        <v>0.140625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AQ4">
-        <v>1.546875</v>
+        <v>1.0890625</v>
       </c>
       <c r="AR4">
         <v>33</v>
@@ -1073,7 +1073,7 @@
         <v>-6.0777912725950785</v>
       </c>
       <c r="I5">
-        <v>-7.9723695805980022</v>
+        <v>-7.9723695805980004</v>
       </c>
       <c r="J5">
         <v>-7.9723694597564645</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>43</v>
       </c>
       <c r="AB5">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1154,28 +1154,28 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.11335119642515784</v>
+        <v>7.3249530033738783E-2</v>
       </c>
       <c r="AK5">
-        <v>0.16270124844922104</v>
+        <v>0.15866487564697537</v>
       </c>
       <c r="AL5">
-        <v>6.4483537687616985E-2</v>
+        <v>5.9800460392131959E-2</v>
       </c>
       <c r="AM5">
-        <v>0.86981282883890754</v>
+        <v>0.80061973643400408</v>
       </c>
       <c r="AN5">
-        <v>0.140625</v>
+        <v>0.10781250000000001</v>
       </c>
       <c r="AO5">
-        <v>0.171875</v>
+        <v>0.1640625</v>
       </c>
       <c r="AP5">
-        <v>4.6875E-2</v>
+        <v>6.0937499999999999E-2</v>
       </c>
       <c r="AQ5">
-        <v>1.8125</v>
+        <v>1.3484375</v>
       </c>
       <c r="AR5">
         <v>30</v>
@@ -1207,13 +1207,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-10.137456600869935</v>
+        <v>-10.137456600869937</v>
       </c>
       <c r="H6">
         <v>-7.9328489560604964</v>
       </c>
       <c r="I6">
-        <v>-9.8293561319530678</v>
+        <v>-9.829356131953066</v>
       </c>
       <c r="J6">
         <v>-9.8293561470643755</v>
@@ -1222,7 +1222,7 @@
         <v>0.13263471913006519</v>
       </c>
       <c r="L6">
-        <v>2.3372423639395041</v>
+        <v>2.3372423639395037</v>
       </c>
       <c r="M6">
         <v>0.44073518804693279</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>42</v>
       </c>
       <c r="AB6">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1294,28 +1294,28 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.14070039399728268</v>
+        <v>8.3976339552187335E-2</v>
       </c>
       <c r="AK6">
-        <v>0.45185753489332819</v>
+        <v>0.40529540759329474</v>
       </c>
       <c r="AL6">
-        <v>6.3617218361222763E-2</v>
+        <v>6.2541932922078783E-2</v>
       </c>
       <c r="AM6">
-        <v>1.6719414533637309</v>
+        <v>0.791121783244921</v>
       </c>
       <c r="AN6">
-        <v>0.171875</v>
+        <v>0.13593749999999999</v>
       </c>
       <c r="AO6">
-        <v>0.5</v>
+        <v>0.41562500000000002</v>
       </c>
       <c r="AP6">
-        <v>6.25E-2</v>
+        <v>6.4062499999999994E-2</v>
       </c>
       <c r="AQ6">
-        <v>2.578125</v>
+        <v>1.1968749999999999</v>
       </c>
       <c r="AR6">
         <v>31</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-12.051956723847207</v>
+        <v>-12.051956723847209</v>
       </c>
       <c r="H7">
         <v>-9.8480112690722308</v>
       </c>
       <c r="I7">
-        <v>-11.732039774414423</v>
+        <v>-11.732039774414421</v>
       </c>
       <c r="J7">
         <v>-11.732039710416386</v>
@@ -1362,7 +1362,7 @@
         <v>0.19294367615279384</v>
       </c>
       <c r="L7">
-        <v>2.3968891309277698</v>
+        <v>2.3968891309277693</v>
       </c>
       <c r="M7">
         <v>0.51286062558557788</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>36</v>
       </c>
       <c r="AB7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.10950231381992617</v>
+        <v>7.411565997183249E-2</v>
       </c>
       <c r="AK7">
-        <v>0.52836113295708365</v>
+        <v>0.43647060068760524</v>
       </c>
       <c r="AL7">
-        <v>7.8600597603172506E-2</v>
+        <v>5.9558204451440867E-2</v>
       </c>
       <c r="AM7">
-        <v>0.89053232612352096</v>
+        <v>0.7654525965134773</v>
       </c>
       <c r="AN7">
-        <v>0.140625</v>
+        <v>9.8437499999999997E-2</v>
       </c>
       <c r="AO7">
-        <v>0.53125</v>
+        <v>0.44062499999999999</v>
       </c>
       <c r="AP7">
-        <v>7.8125E-2</v>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="AQ7">
-        <v>1.6875</v>
+        <v>1.6921875</v>
       </c>
       <c r="AR7">
         <v>30</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>-14.004513062063388</v>
+        <v>-14.004513062063385</v>
       </c>
       <c r="H8">
         <v>-11.801645009659097</v>
       </c>
       <c r="I8">
-        <v>-13.67958119634824</v>
+        <v>-13.679581196348241</v>
       </c>
       <c r="J8">
         <v>-13.6795811998294</v>
@@ -1502,7 +1502,7 @@
         <v>0.23426028793661224</v>
       </c>
       <c r="L8">
-        <v>2.4371283403409034</v>
+        <v>2.4371283403409039</v>
       </c>
       <c r="M8">
         <v>0.559192153651761</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>27</v>
       </c>
       <c r="AB8">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -1574,28 +1574,28 @@
         <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.17595391347968495</v>
+        <v>0.10464295554172091</v>
       </c>
       <c r="AK8">
-        <v>0.21393276258680835</v>
+        <v>0.19607412589162088</v>
       </c>
       <c r="AL8">
-        <v>9.0162320209071306E-2</v>
+        <v>5.1846844723018995E-2</v>
       </c>
       <c r="AM8">
-        <v>1.0467876584296303</v>
+        <v>0.76162762763340663</v>
       </c>
       <c r="AN8">
-        <v>0.203125</v>
+        <v>0.1203125</v>
       </c>
       <c r="AO8">
-        <v>0.21875</v>
+        <v>0.20468749999999999</v>
       </c>
       <c r="AP8">
-        <v>9.375E-2</v>
+        <v>5.3124999999999999E-2</v>
       </c>
       <c r="AQ8">
-        <v>1.8125</v>
+        <v>1.4906250000000001</v>
       </c>
       <c r="AR8">
         <v>37</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>24</v>
       </c>
       <c r="AB9">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1714,28 +1714,28 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.16434632502274049</v>
+        <v>9.070975890835041E-2</v>
       </c>
       <c r="AK9">
-        <v>0.42473285547317519</v>
+        <v>0.45073910032693176</v>
       </c>
       <c r="AL9">
-        <v>9.8498037711351766E-2</v>
+        <v>6.5046537965993079E-2</v>
       </c>
       <c r="AM9">
-        <v>0.79818672725663198</v>
+        <v>0.70531118806765203</v>
       </c>
       <c r="AN9">
-        <v>0.359375</v>
+        <v>0.121875</v>
       </c>
       <c r="AO9">
-        <v>0.96875</v>
+        <v>0.51718750000000002</v>
       </c>
       <c r="AP9">
-        <v>0.109375</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AQ9">
-        <v>1.828125</v>
+        <v>1.3359375</v>
       </c>
       <c r="AR9">
         <v>37</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-18.009331980863159</v>
+        <v>-18.009331980863156</v>
       </c>
       <c r="H10">
         <v>-15.83048816499786</v>
       </c>
       <c r="I10">
-        <v>-17.688026564891672</v>
+        <v>-17.688026564891675</v>
       </c>
       <c r="J10">
-        <v>-17.688025606447734</v>
+        <v>-17.688025606447731</v>
       </c>
       <c r="K10">
         <v>0.29393371913684163</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>13</v>
       </c>
       <c r="AB10">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1854,28 +1854,28 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.14605194451964021</v>
+        <v>0.13096934129669952</v>
       </c>
       <c r="AK10">
-        <v>0.36766932196801067</v>
+        <v>0.3599143556450638</v>
       </c>
       <c r="AL10">
-        <v>4.8840716559304227E-2</v>
+        <v>6.0585603139672907E-2</v>
       </c>
       <c r="AM10">
-        <v>0.96713984401761766</v>
+        <v>0.74289245189761799</v>
       </c>
       <c r="AN10">
-        <v>0.234375</v>
+        <v>0.16093750000000001</v>
       </c>
       <c r="AO10">
-        <v>0.375</v>
+        <v>0.3828125</v>
       </c>
       <c r="AP10">
-        <v>4.6875E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AQ10">
-        <v>1.203125</v>
+        <v>1.3234375</v>
       </c>
       <c r="AR10">
         <v>40</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-20.052717283477325</v>
+        <v>-20.052717283477328</v>
       </c>
       <c r="H11">
         <v>-17.936255381683083</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="AB11">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1994,28 +1994,28 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.14850753162177802</v>
+        <v>0.11795202158460982</v>
       </c>
       <c r="AK11">
-        <v>1.5563053036319339</v>
+        <v>1.2978965782350695</v>
       </c>
       <c r="AL11">
-        <v>7.5430722037547138E-2</v>
+        <v>4.9168943128389229E-2</v>
       </c>
       <c r="AM11">
-        <v>0.80287787367197516</v>
+        <v>0.73254992258907559</v>
       </c>
       <c r="AN11">
-        <v>0.15625</v>
+        <v>0.13906250000000001</v>
       </c>
       <c r="AO11">
-        <v>1.625</v>
+        <v>1.3109375000000001</v>
       </c>
       <c r="AP11">
-        <v>7.8125E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="AQ11">
-        <v>3.4375</v>
+        <v>1.3656250000000001</v>
       </c>
       <c r="AR11">
         <v>36</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-22.125360369245634</v>
+        <v>-22.125360369245637</v>
       </c>
       <c r="H12">
         <v>-20.051870898407429</v>
       </c>
       <c r="I12">
-        <v>-21.835656889879839</v>
+        <v>-21.835656889879836</v>
       </c>
       <c r="J12">
-        <v>-21.835656888521562</v>
+        <v>-21.835656888521559</v>
       </c>
       <c r="K12">
         <v>0.37582939075436528</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2110,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="AB12">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>1.4492456124060027E-9</v>
       </c>
       <c r="AF12">
-        <v>1.6481075330728671E-8</v>
+        <v>1.6481075330728674E-8</v>
       </c>
       <c r="AG12">
         <v>1.1840758564612974E-9</v>
@@ -2134,28 +2134,28 @@
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.17495833584579837</v>
+        <v>9.8292886245552519E-2</v>
       </c>
       <c r="AK12">
-        <v>0.41423374520653744</v>
+        <v>0.41664897778128457</v>
       </c>
       <c r="AL12">
-        <v>8.3705819638795198E-2</v>
+        <v>5.9200770292423086E-2</v>
       </c>
       <c r="AM12">
-        <v>0.82551026561138863</v>
+        <v>0.69492349837720924</v>
       </c>
       <c r="AN12">
-        <v>0.1875</v>
+        <v>0.12812499999999999</v>
       </c>
       <c r="AO12">
-        <v>0.4375</v>
+        <v>0.42812499999999998</v>
       </c>
       <c r="AP12">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AQ12">
-        <v>2.03125</v>
+        <v>1.3171875</v>
       </c>
       <c r="AR12">
         <v>37</v>
@@ -2193,7 +2193,7 @@
         <v>-22.186397477717463</v>
       </c>
       <c r="I13">
-        <v>-23.953502780137235</v>
+        <v>-23.953502780137232</v>
       </c>
       <c r="J13">
         <v>-23.953502782859005</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="AB13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -2274,28 +2274,28 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.18490705589988798</v>
+        <v>0.12231670193217795</v>
       </c>
       <c r="AK13">
-        <v>0.71111730496108139</v>
+        <v>0.61535853911296423</v>
       </c>
       <c r="AL13">
-        <v>7.0698841614631913E-2</v>
+        <v>5.2339856250142328E-2</v>
       </c>
       <c r="AM13">
-        <v>0.86737552392914463</v>
+        <v>0.77033864192339618</v>
       </c>
       <c r="AN13">
-        <v>0.203125</v>
+        <v>0.14531250000000001</v>
       </c>
       <c r="AO13">
-        <v>0.796875</v>
+        <v>0.63593750000000004</v>
       </c>
       <c r="AP13">
-        <v>7.8125E-2</v>
+        <v>5.1562499999999997E-2</v>
       </c>
       <c r="AQ13">
-        <v>1.6875</v>
+        <v>1.484375</v>
       </c>
       <c r="AR13">
         <v>43</v>
@@ -2333,10 +2333,10 @@
         <v>-24.337096115676189</v>
       </c>
       <c r="I14">
-        <v>-26.094638851826616</v>
+        <v>-26.094638851826623</v>
       </c>
       <c r="J14">
-        <v>-26.094638848772163</v>
+        <v>-26.094638848772156</v>
       </c>
       <c r="K14">
         <v>0.38188250047435801</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="AB14">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2414,28 +2414,28 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.1660026275038585</v>
+        <v>0.11341689928432981</v>
       </c>
       <c r="AK14">
-        <v>0.19727544015179993</v>
+        <v>0.20581497650409247</v>
       </c>
       <c r="AL14">
-        <v>0.10150144910430087</v>
+        <v>6.8930170438745303E-2</v>
       </c>
       <c r="AM14">
-        <v>1.0127741206265468</v>
+        <v>0.7330153503602086</v>
       </c>
       <c r="AN14">
-        <v>0.203125</v>
+        <v>0.15781249999999999</v>
       </c>
       <c r="AO14">
-        <v>0.203125</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="AP14">
-        <v>0.109375</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="AQ14">
-        <v>2.328125</v>
+        <v>1.3734375000000001</v>
       </c>
       <c r="AR14">
         <v>38</v>
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>-28.47206635880265</v>
+        <v>-28.472066358802643</v>
       </c>
       <c r="H15">
         <v>-26.518403147782038</v>
@@ -2476,7 +2476,7 @@
         <v>-28.251629651019861</v>
       </c>
       <c r="J15">
-        <v>-28.251629519805977</v>
+        <v>-28.251629519805981</v>
       </c>
       <c r="K15">
         <v>0.38493155119735079</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="AB15">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         <v>0</v>
       </c>
       <c r="AJ15">
-        <v>0.18238571705324416</v>
+        <v>0.11636015019675876</v>
       </c>
       <c r="AK15">
-        <v>0.54203236397086652</v>
+        <v>0.47345682516741905</v>
       </c>
       <c r="AL15">
-        <v>5.5937414602917193E-2</v>
+        <v>5.86813617522998E-2</v>
       </c>
       <c r="AM15">
-        <v>0.83599205590630277</v>
+        <v>0.70647275286205535</v>
       </c>
       <c r="AN15">
-        <v>0.203125</v>
+        <v>0.13437499999999999</v>
       </c>
       <c r="AO15">
-        <v>0.546875</v>
+        <v>0.51718750000000002</v>
       </c>
       <c r="AP15">
         <v>6.25E-2</v>
       </c>
       <c r="AQ15">
-        <v>1.75</v>
+        <v>1.3453124999999999</v>
       </c>
       <c r="AR15">
         <v>38</v>
@@ -2613,10 +2613,10 @@
         <v>-28.718829209882983</v>
       </c>
       <c r="I16">
-        <v>-30.422741506910668</v>
+        <v>-30.422741506910661</v>
       </c>
       <c r="J16">
-        <v>-30.422741396691762</v>
+        <v>-30.422741396691769</v>
       </c>
       <c r="K16">
         <v>0.39715057634891338</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2694,28 +2694,28 @@
         <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.16717108411476342</v>
+        <v>0.12297749325881871</v>
       </c>
       <c r="AK16">
-        <v>0.3931470003733416</v>
+        <v>0.40924912205074326</v>
       </c>
       <c r="AL16">
-        <v>7.0851513957972762E-2</v>
+        <v>6.5088907898159493E-2</v>
       </c>
       <c r="AM16">
-        <v>0.71743428353691785</v>
+        <v>0.71577771598161122</v>
       </c>
       <c r="AN16">
-        <v>0.203125</v>
+        <v>0.15468750000000001</v>
       </c>
       <c r="AO16">
-        <v>0.40625</v>
+        <v>0.41718749999999999</v>
       </c>
       <c r="AP16">
-        <v>6.25E-2</v>
+        <v>6.7187499999999997E-2</v>
       </c>
       <c r="AQ16">
-        <v>2.140625</v>
+        <v>1.3546875</v>
       </c>
       <c r="AR16">
         <v>38</v>
@@ -2747,16 +2747,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>-32.797339678008413</v>
+        <v>-32.79733967800842</v>
       </c>
       <c r="H17">
-        <v>-30.943852963946512</v>
+        <v>-30.943852963946505</v>
       </c>
       <c r="I17">
-        <v>-32.608542397497068</v>
+        <v>-32.608542397497061</v>
       </c>
       <c r="J17">
-        <v>-32.608541896473739</v>
+        <v>-32.608541896473746</v>
       </c>
       <c r="K17">
         <v>0.39149652199158425</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="AB17">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -2834,28 +2834,28 @@
         <v>0</v>
       </c>
       <c r="AJ17">
-        <v>0.18115952720326078</v>
+        <v>0.11483592315935361</v>
       </c>
       <c r="AK17">
-        <v>0.24346074845371141</v>
+        <v>0.23921236188476597</v>
       </c>
       <c r="AL17">
-        <v>4.7143359330397067E-2</v>
+        <v>4.7027898403253339E-2</v>
       </c>
       <c r="AM17">
-        <v>0.64586334927198386</v>
+        <v>0.73138239200558597</v>
       </c>
       <c r="AN17">
-        <v>0.21875</v>
+        <v>0.13906250000000001</v>
       </c>
       <c r="AO17">
-        <v>0.25</v>
+        <v>0.24531249999999999</v>
       </c>
       <c r="AP17">
-        <v>7.8125E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="AQ17">
-        <v>1.984375</v>
+        <v>1.4109375</v>
       </c>
       <c r="AR17">
         <v>37</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>-34.989554546192863</v>
+        <v>-34.989554546192856</v>
       </c>
       <c r="H18">
         <v>-33.175845755433954</v>
@@ -2896,7 +2896,7 @@
         <v>-34.813054928087247</v>
       </c>
       <c r="J18">
-        <v>-34.813054609810578</v>
+        <v>-34.813054609810585</v>
       </c>
       <c r="K18">
         <v>0.40082443380713784</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -2974,28 +2974,28 @@
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.18217916035343007</v>
+        <v>0.11680264496145812</v>
       </c>
       <c r="AK18">
-        <v>0.18926142508727342</v>
+        <v>0.22844709547860539</v>
       </c>
       <c r="AL18">
-        <v>9.3642030824417827E-2</v>
+        <v>6.3140147611583514E-2</v>
       </c>
       <c r="AM18">
-        <v>0.65534924119279436</v>
+        <v>0.77702898571642542</v>
       </c>
       <c r="AN18">
-        <v>0.1875</v>
+        <v>0.15156249999999999</v>
       </c>
       <c r="AO18">
-        <v>0.1875</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="AP18">
-        <v>9.375E-2</v>
+        <v>6.4062499999999994E-2</v>
       </c>
       <c r="AQ18">
-        <v>1.671875</v>
+        <v>1.3359375</v>
       </c>
       <c r="AR18">
         <v>38</v>
@@ -3027,16 +3027,16 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>-37.205277100064592</v>
+        <v>-37.205277100064585</v>
       </c>
       <c r="H19">
-        <v>-35.425472025806513</v>
+        <v>-35.425472025806521</v>
       </c>
       <c r="I19">
-        <v>-37.037091485547222</v>
+        <v>-37.037091485547215</v>
       </c>
       <c r="J19">
-        <v>-37.037091484932006</v>
+        <v>-37.037091484932013</v>
       </c>
       <c r="K19">
         <v>0.37612521993541037</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="AB19">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -3114,28 +3114,28 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0.17355349369488882</v>
+        <v>0.1120909545487057</v>
       </c>
       <c r="AK19">
-        <v>0.20758595517078132</v>
+        <v>0.20759137038986433</v>
       </c>
       <c r="AL19">
-        <v>6.3183256847482897E-2</v>
+        <v>5.5071610317222817E-2</v>
       </c>
       <c r="AM19">
-        <v>0.6801074992911641</v>
+        <v>0.81783786973859907</v>
       </c>
       <c r="AN19">
-        <v>0.1875</v>
+        <v>0.13437499999999999</v>
       </c>
       <c r="AO19">
-        <v>0.203125</v>
+        <v>0.21875</v>
       </c>
       <c r="AP19">
-        <v>6.25E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="AQ19">
-        <v>1.78125</v>
+        <v>1.346875</v>
       </c>
       <c r="AR19">
         <v>33</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>-39.447289287596121</v>
+        <v>-39.447289287596114</v>
       </c>
       <c r="H20">
-        <v>-37.691122883265123</v>
+        <v>-37.691122883265116</v>
       </c>
       <c r="I20">
         <v>-39.281031197763191</v>
       </c>
       <c r="J20">
-        <v>-39.281031197483038</v>
+        <v>-39.281031197483046</v>
       </c>
       <c r="K20">
         <v>0.40341940240387686</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="X20">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -3254,28 +3254,28 @@
         <v>0</v>
       </c>
       <c r="AJ20">
-        <v>0.17889606349116746</v>
+        <v>0.11179215190823462</v>
       </c>
       <c r="AK20">
-        <v>0.37638287144603805</v>
+        <v>0.34882174061839571</v>
       </c>
       <c r="AL20">
-        <v>6.124694815683427E-2</v>
+        <v>4.6554099282918565E-2</v>
       </c>
       <c r="AM20">
-        <v>1.0383374366698441</v>
+        <v>0.74900613481977707</v>
       </c>
       <c r="AN20">
-        <v>0.21875</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="AO20">
-        <v>0.375</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="AP20">
-        <v>7.8125E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ20">
-        <v>2.171875</v>
+        <v>1.284375</v>
       </c>
       <c r="AR20">
         <v>36</v>
@@ -3310,13 +3310,13 @@
         <v>-41.712166486170929</v>
       </c>
       <c r="H21">
-        <v>-39.982240274184832</v>
+        <v>-39.982240274184839</v>
       </c>
       <c r="I21">
-        <v>-41.544998761928085</v>
+        <v>-41.544998761928078</v>
       </c>
       <c r="J21">
-        <v>-41.544998700327668</v>
+        <v>-41.54499870032766</v>
       </c>
       <c r="K21">
         <v>0.42650986382906808</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>0</v>
@@ -3394,28 +3394,28 @@
         <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.17965236892309547</v>
+        <v>0.11169506350197592</v>
       </c>
       <c r="AK21">
-        <v>0.35501098855983793</v>
+        <v>0.37232752695269733</v>
       </c>
       <c r="AL21">
-        <v>4.9790749082362237E-2</v>
+        <v>5.1125433281469457E-2</v>
       </c>
       <c r="AM21">
-        <v>0.91451407215628511</v>
+        <v>0.76262830856729003</v>
       </c>
       <c r="AN21">
-        <v>0.21875</v>
+        <v>0.13593749999999999</v>
       </c>
       <c r="AO21">
-        <v>0.34375</v>
+        <v>0.37812499999999999</v>
       </c>
       <c r="AP21">
-        <v>4.6875E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="AQ21">
-        <v>1.546875</v>
+        <v>1.2562500000000001</v>
       </c>
       <c r="AR21">
         <v>34</v>
@@ -3447,16 +3447,16 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-43.995860009370844</v>
+        <v>-43.995860009370851</v>
       </c>
       <c r="H22">
-        <v>-42.321045233863771</v>
+        <v>-42.321045233863764</v>
       </c>
       <c r="I22">
-        <v>-43.829708012699044</v>
+        <v>-43.829708012699037</v>
       </c>
       <c r="J22">
-        <v>-43.82970786348605</v>
+        <v>-43.829707863486057</v>
       </c>
       <c r="K22">
         <v>0.4354101206291574</v>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="X22">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>0</v>
@@ -3534,28 +3534,28 @@
         <v>0</v>
       </c>
       <c r="AJ22">
-        <v>0.19714169148126812</v>
+        <v>0.13126378185482798</v>
       </c>
       <c r="AK22">
-        <v>0.61810681162413861</v>
+        <v>0.59246107082065202</v>
       </c>
       <c r="AL22">
-        <v>7.7690016126818112E-2</v>
+        <v>5.5901207815696886E-2</v>
       </c>
       <c r="AM22">
-        <v>0.88174308195425732</v>
+        <v>0.73591270318563506</v>
       </c>
       <c r="AN22">
-        <v>0.234375</v>
+        <v>0.15937499999999999</v>
       </c>
       <c r="AO22">
-        <v>0.625</v>
+        <v>0.6015625</v>
       </c>
       <c r="AP22">
-        <v>7.8125E-2</v>
+        <v>5.7812500000000003E-2</v>
       </c>
       <c r="AQ22">
-        <v>1.625</v>
+        <v>1.496875</v>
       </c>
       <c r="AR22">
         <v>40</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>-46.297538211861578</v>
+        <v>-46.297538211861585</v>
       </c>
       <c r="H23">
-        <v>-44.670034030217863</v>
+        <v>-44.670034030217856</v>
       </c>
       <c r="I23">
-        <v>-46.134088047586843</v>
+        <v>-46.134088047586836</v>
       </c>
       <c r="J23">
-        <v>-46.134087990437791</v>
+        <v>-46.134087990437799</v>
       </c>
       <c r="K23">
         <v>0.4511769081384216</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="X23">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -3674,28 +3674,28 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>0.19951677278891317</v>
+        <v>0.13161855386065133</v>
       </c>
       <c r="AK23">
-        <v>0.40342640359126408</v>
+        <v>0.41165776128311943</v>
       </c>
       <c r="AL23">
-        <v>5.9961421366686897E-2</v>
+        <v>6.6478327346696064E-2</v>
       </c>
       <c r="AM23">
-        <v>0.84015205652212399</v>
+        <v>0.7446496654507363</v>
       </c>
       <c r="AN23">
-        <v>0.21875</v>
+        <v>0.15625</v>
       </c>
       <c r="AO23">
-        <v>0.40625</v>
+        <v>0.421875</v>
       </c>
       <c r="AP23">
-        <v>6.25E-2</v>
+        <v>6.5625000000000003E-2</v>
       </c>
       <c r="AQ23">
-        <v>1.5625</v>
+        <v>1.4624999999999999</v>
       </c>
       <c r="AR23">
         <v>41</v>
@@ -3727,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>-48.614227140706959</v>
+        <v>-48.614227140706952</v>
       </c>
       <c r="H24">
-        <v>-47.030303937355058</v>
+        <v>-47.03030393735505</v>
       </c>
       <c r="I24">
-        <v>-48.455449063603545</v>
+        <v>-48.455449063603552</v>
       </c>
       <c r="J24">
         <v>-48.455448985960452</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3814,28 +3814,28 @@
         <v>1</v>
       </c>
       <c r="AJ24">
-        <v>0.20405877500330363</v>
+        <v>0.12328113909365553</v>
       </c>
       <c r="AK24">
-        <v>0.20906007720858505</v>
+        <v>0.21027100398777718</v>
       </c>
       <c r="AL24">
-        <v>5.4465217006416086E-2</v>
+        <v>6.2344676992613646E-2</v>
       </c>
       <c r="AM24">
-        <v>0.74879433752391122</v>
+        <v>0.74228416592976343</v>
       </c>
       <c r="AN24">
-        <v>0.234375</v>
+        <v>0.14531250000000001</v>
       </c>
       <c r="AO24">
-        <v>0.21875</v>
+        <v>0.21562500000000001</v>
       </c>
       <c r="AP24">
-        <v>4.6875E-2</v>
+        <v>6.5625000000000003E-2</v>
       </c>
       <c r="AQ24">
-        <v>1.171875</v>
+        <v>1.4359375000000001</v>
       </c>
       <c r="AR24">
         <v>38</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>-50.952948051609347</v>
+        <v>-50.95294805160934</v>
       </c>
       <c r="H25">
-        <v>-49.404281659613304</v>
+        <v>-49.404281659613297</v>
       </c>
       <c r="I25">
         <v>-50.794980047543454</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3954,28 +3954,28 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0.16476938136909886</v>
+        <v>0.1425712294368712</v>
       </c>
       <c r="AK25">
-        <v>0.45325307557794181</v>
+        <v>0.48250917240072011</v>
       </c>
       <c r="AL25">
-        <v>5.0959526433484253E-2</v>
+        <v>5.9379455297797111E-2</v>
       </c>
       <c r="AM25">
-        <v>0.93996961948663604</v>
+        <v>0.77629955574115783</v>
       </c>
       <c r="AN25">
-        <v>0.1875</v>
+        <v>0.16718749999999999</v>
       </c>
       <c r="AO25">
-        <v>0.46875</v>
+        <v>0.49531249999999999</v>
       </c>
       <c r="AP25">
-        <v>6.25E-2</v>
+        <v>5.9374999999999997E-2</v>
       </c>
       <c r="AQ25">
-        <v>1.125</v>
+        <v>1.4484375</v>
       </c>
       <c r="AR25">
         <v>39</v>
@@ -4010,10 +4010,10 @@
         <v>-53.308561356743724</v>
       </c>
       <c r="H26">
-        <v>-51.800592388241995</v>
+        <v>-51.800592388241981</v>
       </c>
       <c r="I26">
-        <v>-53.153216098446656</v>
+        <v>-53.153216098446663</v>
       </c>
       <c r="J26">
         <v>-53.153216091811089</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="X26">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4094,28 +4094,28 @@
         <v>1</v>
       </c>
       <c r="AJ26">
-        <v>0.20706250713646984</v>
+        <v>0.13250306227802694</v>
       </c>
       <c r="AK26">
-        <v>0.18899713514838085</v>
+        <v>0.19214251051309955</v>
       </c>
       <c r="AL26">
-        <v>5.2143057834592985E-2</v>
+        <v>6.3525133452456667E-2</v>
       </c>
       <c r="AM26">
-        <v>0.78148033156840679</v>
+        <v>0.73159555670594778</v>
       </c>
       <c r="AN26">
-        <v>0.25</v>
+        <v>0.16093750000000001</v>
       </c>
       <c r="AO26">
-        <v>0.203125</v>
+        <v>0.2</v>
       </c>
       <c r="AP26">
-        <v>6.25E-2</v>
+        <v>6.0937499999999999E-2</v>
       </c>
       <c r="AQ26">
-        <v>0.96875</v>
+        <v>1.2703125</v>
       </c>
       <c r="AR26">
         <v>41</v>
@@ -4156,7 +4156,7 @@
         <v>-55.530107925458594</v>
       </c>
       <c r="J27">
-        <v>-55.530107906780557</v>
+        <v>-55.530107906780572</v>
       </c>
       <c r="K27">
         <v>0.48339306906840562</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X27">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -4234,28 +4234,28 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.22196056948067028</v>
+        <v>0.14202029202216834</v>
       </c>
       <c r="AK27">
-        <v>0.23035530318289762</v>
+        <v>0.22115362965343577</v>
       </c>
       <c r="AL27">
-        <v>0.10543725230836734</v>
+        <v>5.9055891425204551E-2</v>
       </c>
       <c r="AM27">
-        <v>0.82747287499983968</v>
+        <v>0.72029401076472122</v>
       </c>
       <c r="AN27">
-        <v>0.25</v>
+        <v>0.1640625</v>
       </c>
       <c r="AO27">
-        <v>0.25</v>
+        <v>0.22812499999999999</v>
       </c>
       <c r="AP27">
-        <v>0.109375</v>
+        <v>6.0937499999999999E-2</v>
       </c>
       <c r="AQ27">
-        <v>1.296875</v>
+        <v>1.20625</v>
       </c>
       <c r="AR27">
         <v>47</v>
@@ -4287,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>-58.069270629707709</v>
+        <v>-58.069270629707702</v>
       </c>
       <c r="H28">
-        <v>-56.623152249134336</v>
+        <v>-56.62315224913435</v>
       </c>
       <c r="I28">
-        <v>-57.925125332582326</v>
+        <v>-57.925125332582311</v>
       </c>
       <c r="J28">
         <v>-57.925125245053081</v>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -4374,28 +4374,28 @@
         <v>2</v>
       </c>
       <c r="AJ28">
-        <v>0.44346183897044955</v>
+        <v>0.35436488882944484</v>
       </c>
       <c r="AK28">
-        <v>0.20029071893278183</v>
+        <v>0.20136398465958277</v>
       </c>
       <c r="AL28">
-        <v>9.9354414091015808E-2</v>
+        <v>5.6862213044743114E-2</v>
       </c>
       <c r="AM28">
-        <v>0.74777662881504448</v>
+        <v>0.6979466138854703</v>
       </c>
       <c r="AN28">
-        <v>0.5</v>
+        <v>0.37812499999999999</v>
       </c>
       <c r="AO28">
         <v>0.203125</v>
       </c>
       <c r="AP28">
-        <v>0.109375</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.171875</v>
       </c>
       <c r="AR28">
         <v>122</v>
@@ -4430,10 +4430,10 @@
         <v>-60.473243805928391</v>
       </c>
       <c r="H29">
-        <v>-59.070813651333225</v>
+        <v>-59.070813651333211</v>
       </c>
       <c r="I29">
-        <v>-60.337031886869205</v>
+        <v>-60.337031886869212</v>
       </c>
       <c r="J29">
         <v>-60.337031885381251</v>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4514,28 +4514,28 @@
         <v>2</v>
       </c>
       <c r="AJ29">
-        <v>0.23653275976429444</v>
+        <v>0.13911495273715857</v>
       </c>
       <c r="AK29">
-        <v>0.20696179470829959</v>
+        <v>0.20578412118634529</v>
       </c>
       <c r="AL29">
-        <v>9.3534582851688447E-2</v>
+        <v>5.8080581132005281E-2</v>
       </c>
       <c r="AM29">
-        <v>0.85551904106372856</v>
+        <v>0.69278210083658964</v>
       </c>
       <c r="AN29">
-        <v>0.265625</v>
+        <v>0.16093750000000001</v>
       </c>
       <c r="AO29">
-        <v>0.203125</v>
+        <v>0.2109375</v>
       </c>
       <c r="AP29">
-        <v>7.8125E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="AQ29">
-        <v>1.484375</v>
+        <v>1.3359375</v>
       </c>
       <c r="AR29">
         <v>44</v>
@@ -4567,10 +4567,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>-62.893371054379394</v>
+        <v>-62.893371054379386</v>
       </c>
       <c r="H30">
-        <v>-61.535843463255077</v>
+        <v>-61.535843463255091</v>
       </c>
       <c r="I30">
         <v>-62.766028684316709</v>
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -4654,28 +4654,28 @@
         <v>2</v>
       </c>
       <c r="AJ30">
-        <v>0.30087036065312972</v>
+        <v>0.22679771516692826</v>
       </c>
       <c r="AK30">
-        <v>0.19781556667740077</v>
+        <v>0.18900347908140963</v>
       </c>
       <c r="AL30">
-        <v>4.9031877728697396E-2</v>
+        <v>5.4515861782289121E-2</v>
       </c>
       <c r="AM30">
-        <v>0.74554555986487858</v>
+        <v>0.7291095867343943</v>
       </c>
       <c r="AN30">
-        <v>0.34375</v>
+        <v>0.24687500000000001</v>
       </c>
       <c r="AO30">
-        <v>0.203125</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="AP30">
-        <v>6.25E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="AQ30">
-        <v>1.640625</v>
+        <v>1.3953125</v>
       </c>
       <c r="AR30">
         <v>78</v>
@@ -4710,13 +4710,13 @@
         <v>-65.331829663336293</v>
       </c>
       <c r="H31">
-        <v>-64.03251642513473</v>
+        <v>-64.032516425134745</v>
       </c>
       <c r="I31">
-        <v>-65.213417039676955</v>
+        <v>-65.213417039676969</v>
       </c>
       <c r="J31">
-        <v>-65.213416820585564</v>
+        <v>-65.21341682058555</v>
       </c>
       <c r="K31">
         <v>0.43955784666370334</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC31">
         <v>0</v>
@@ -4794,28 +4794,28 @@
         <v>2</v>
       </c>
       <c r="AJ31">
-        <v>0.22267774460611178</v>
+        <v>0.14637102012106706</v>
       </c>
       <c r="AK31">
-        <v>0.22783396433625377</v>
+        <v>0.21523101235271155</v>
       </c>
       <c r="AL31">
-        <v>6.8214387892954878E-2</v>
+        <v>5.5811688905268088E-2</v>
       </c>
       <c r="AM31">
-        <v>0.64906305367779982</v>
+        <v>0.72504136761545168</v>
       </c>
       <c r="AN31">
-        <v>0.25</v>
+        <v>0.171875</v>
       </c>
       <c r="AO31">
-        <v>0.234375</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="AP31">
-        <v>6.25E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="AQ31">
-        <v>1.671875</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="AR31">
         <v>40</v>
@@ -4847,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>-67.790278870202485</v>
+        <v>-67.790278870202471</v>
       </c>
       <c r="H32">
-        <v>-66.534250930183958</v>
+        <v>-66.534250930183944</v>
       </c>
       <c r="I32">
         <v>-67.682369452502499</v>
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -4934,28 +4934,28 @@
         <v>2</v>
       </c>
       <c r="AJ32">
-        <v>0.24873147244135907</v>
+        <v>0.15219430382609145</v>
       </c>
       <c r="AK32">
-        <v>0.18686196752312859</v>
+        <v>0.18496508890789815</v>
       </c>
       <c r="AL32">
-        <v>7.9806901559695526E-2</v>
+        <v>5.4338523890579728E-2</v>
       </c>
       <c r="AM32">
-        <v>0.7280116544165286</v>
+        <v>0.74505941252373087</v>
       </c>
       <c r="AN32">
-        <v>0.265625</v>
+        <v>0.22968749999999999</v>
       </c>
       <c r="AO32">
-        <v>0.203125</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="AP32">
-        <v>7.8125E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="AQ32">
-        <v>1.4375</v>
+        <v>1.3687499999999999</v>
       </c>
       <c r="AR32">
         <v>47</v>
@@ -4987,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>-70.268318247982904</v>
+        <v>-70.268318247982918</v>
       </c>
       <c r="H33">
-        <v>-69.059127736298279</v>
+        <v>-69.059127736298265</v>
       </c>
       <c r="I33">
-        <v>-70.17519426806912</v>
+        <v>-70.175194268069134</v>
       </c>
       <c r="J33">
         <v>-70.175194219244077</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -5074,28 +5074,28 @@
         <v>2</v>
       </c>
       <c r="AJ33">
-        <v>0.20920473104649834</v>
+        <v>0.11718522524221583</v>
       </c>
       <c r="AK33">
-        <v>0.16412373131207125</v>
+        <v>0.1590166968323905</v>
       </c>
       <c r="AL33">
-        <v>4.9362881632747317E-2</v>
+        <v>4.6873814259326442E-2</v>
       </c>
       <c r="AM33">
-        <v>1.0264286731490402</v>
+        <v>0.75035847656840116</v>
       </c>
       <c r="AN33">
-        <v>0.21875</v>
+        <v>0.140625</v>
       </c>
       <c r="AO33">
-        <v>0.171875</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="AP33">
-        <v>4.6875E-2</v>
+        <v>4.5312499999999999E-2</v>
       </c>
       <c r="AQ33">
-        <v>1.359375</v>
+        <v>1.2796875000000001</v>
       </c>
       <c r="AR33">
         <v>37</v>
@@ -5127,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>-72.765064259862754</v>
+        <v>-72.765064259862768</v>
       </c>
       <c r="H34">
-        <v>-71.622666905090028</v>
+        <v>-71.622666905090014</v>
       </c>
       <c r="I34">
         <v>-72.690443703271725</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="X34">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -5214,28 +5214,28 @@
         <v>2</v>
       </c>
       <c r="AJ34">
-        <v>0.25476267148375709</v>
+        <v>0.13444040417258835</v>
       </c>
       <c r="AK34">
-        <v>0.18128942699118733</v>
+        <v>0.17515030741454565</v>
       </c>
       <c r="AL34">
-        <v>4.4256697376473322E-2</v>
+        <v>4.680071730595229E-2</v>
       </c>
       <c r="AM34">
-        <v>0.84556294398464549</v>
+        <v>0.72306637068655</v>
       </c>
       <c r="AN34">
-        <v>0.28125</v>
+        <v>0.15625</v>
       </c>
       <c r="AO34">
-        <v>0.1875</v>
+        <v>0.18437500000000001</v>
       </c>
       <c r="AP34">
-        <v>4.6875E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="AQ34">
-        <v>2.453125</v>
+        <v>1.3531249999999999</v>
       </c>
       <c r="AR34">
         <v>44</v>
@@ -5267,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>-75.279872671162096</v>
+        <v>-75.27987267116211</v>
       </c>
       <c r="H35">
-        <v>-74.227171926677144</v>
+        <v>-74.22717192667713</v>
       </c>
       <c r="I35">
-        <v>-75.226063832099783</v>
+        <v>-75.226063832099769</v>
       </c>
       <c r="J35">
         <v>-75.226063793664252</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="X35">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -5354,28 +5354,28 @@
         <v>2</v>
       </c>
       <c r="AJ35">
-        <v>0.28162306096501749</v>
+        <v>0.18906660097883846</v>
       </c>
       <c r="AK35">
-        <v>0.1925541441560491</v>
+        <v>0.19473913624996272</v>
       </c>
       <c r="AL35">
-        <v>8.4194948469876726E-2</v>
+        <v>4.8283761154181329E-2</v>
       </c>
       <c r="AM35">
-        <v>0.73772783781321882</v>
+        <v>0.7570543050384938</v>
       </c>
       <c r="AN35">
-        <v>0.296875</v>
+        <v>0.20781250000000001</v>
       </c>
       <c r="AO35">
-        <v>0.203125</v>
+        <v>0.22812499999999999</v>
       </c>
       <c r="AP35">
-        <v>7.8125E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ35">
-        <v>1.234375</v>
+        <v>1.2375</v>
       </c>
       <c r="AR35">
         <v>62</v>
@@ -5413,10 +5413,10 @@
         <v>-76.851664756539762</v>
       </c>
       <c r="I36">
-        <v>-77.78256885971966</v>
+        <v>-77.782568859719646</v>
       </c>
       <c r="J36">
-        <v>-77.782568677074579</v>
+        <v>-77.782568677074565</v>
       </c>
       <c r="K36">
         <v>0.45875223443985647</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="X36">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -5494,28 +5494,28 @@
         <v>2</v>
       </c>
       <c r="AJ36">
-        <v>0.45558293251497534</v>
+        <v>0.30346541782815128</v>
       </c>
       <c r="AK36">
-        <v>0.19029581228742942</v>
+        <v>0.18304596512194427</v>
       </c>
       <c r="AL36">
-        <v>8.1228422201894426E-2</v>
+        <v>4.9379766416905377E-2</v>
       </c>
       <c r="AM36">
-        <v>0.78931922247439534</v>
+        <v>0.71413337130910914</v>
       </c>
       <c r="AN36">
-        <v>0.5</v>
+        <v>0.33124999999999999</v>
       </c>
       <c r="AO36">
         <v>0.1875</v>
       </c>
       <c r="AP36">
-        <v>7.8125E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="AQ36">
-        <v>1.875</v>
+        <v>1.3359375</v>
       </c>
       <c r="AR36">
         <v>117</v>
@@ -5556,7 +5556,7 @@
         <v>-80.363055553367417</v>
       </c>
       <c r="J37">
-        <v>-80.363055084277931</v>
+        <v>-80.363055084277917</v>
       </c>
       <c r="K37">
         <v>0.48255136459177095</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="X37">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AB37">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -5634,28 +5634,28 @@
         <v>2</v>
       </c>
       <c r="AJ37">
-        <v>0.29975899580086907</v>
+        <v>0.24104180638961675</v>
       </c>
       <c r="AK37">
-        <v>0.21922080654617954</v>
+        <v>0.22212669475719399</v>
       </c>
       <c r="AL37">
-        <v>7.8565636919508325E-2</v>
+        <v>4.7682242828784735E-2</v>
       </c>
       <c r="AM37">
-        <v>0.89317169737005853</v>
+        <v>0.70173819359113887</v>
       </c>
       <c r="AN37">
-        <v>0.328125</v>
+        <v>0.27031250000000001</v>
       </c>
       <c r="AO37">
-        <v>0.21875</v>
+        <v>0.23281250000000001</v>
       </c>
       <c r="AP37">
-        <v>7.8125E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="AQ37">
-        <v>1.375</v>
+        <v>1.3578125000000001</v>
       </c>
       <c r="AR37">
         <v>73</v>
@@ -5690,13 +5690,13 @@
         <v>-82.931825609712746</v>
       </c>
       <c r="H38">
-        <v>-82.18116559109157</v>
+        <v>-82.181165591091585</v>
       </c>
       <c r="I38">
         <v>-82.968307983809609</v>
       </c>
       <c r="J38">
-        <v>-82.968307947131237</v>
+        <v>-82.968307947131251</v>
       </c>
       <c r="K38">
         <v>0.50221987028724868</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="X38">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -5774,28 +5774,28 @@
         <v>2</v>
       </c>
       <c r="AJ38">
-        <v>0.37161218145685337</v>
+        <v>0.22121113857726193</v>
       </c>
       <c r="AK38">
-        <v>0.23194970280211483</v>
+        <v>0.21537903448514756</v>
       </c>
       <c r="AL38">
-        <v>7.6060014343502513E-2</v>
+        <v>5.2925337508102722E-2</v>
       </c>
       <c r="AM38">
-        <v>0.80306871410115122</v>
+        <v>0.69976925867372808</v>
       </c>
       <c r="AN38">
-        <v>0.40625</v>
+        <v>0.24687500000000001</v>
       </c>
       <c r="AO38">
-        <v>0.234375</v>
+        <v>0.2265625</v>
       </c>
       <c r="AP38">
-        <v>7.8125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AQ38">
-        <v>1.296875</v>
+        <v>1.1656249999999999</v>
       </c>
       <c r="AR38">
         <v>95</v>
@@ -5830,13 +5830,13 @@
         <v>-85.521781283962355</v>
       </c>
       <c r="H39">
-        <v>-84.856474981450518</v>
+        <v>-84.856474981450532</v>
       </c>
       <c r="I39">
         <v>-85.596632526905196</v>
       </c>
       <c r="J39">
-        <v>-85.596632492160978</v>
+        <v>-85.596632492160992</v>
       </c>
       <c r="K39">
         <v>0.50484473603764002</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="X39">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>4.1927950000797409E-10</v>
       </c>
       <c r="AF39">
-        <v>5.8520051413393835E-9</v>
+        <v>5.8520051413393826E-9</v>
       </c>
       <c r="AG39">
         <v>9.7893905221663191E-10</v>
@@ -5914,28 +5914,28 @@
         <v>2</v>
       </c>
       <c r="AJ39">
-        <v>0.30145025896565131</v>
+        <v>0.16888279694153879</v>
       </c>
       <c r="AK39">
-        <v>0.18897917369622308</v>
+        <v>0.18393082635480343</v>
       </c>
       <c r="AL39">
-        <v>6.8647387186043435E-2</v>
+        <v>5.0757478806213528E-2</v>
       </c>
       <c r="AM39">
-        <v>0.78606114334906674</v>
+        <v>0.71374456864618607</v>
       </c>
       <c r="AN39">
-        <v>0.3125</v>
+        <v>0.19218750000000001</v>
       </c>
       <c r="AO39">
-        <v>0.1875</v>
+        <v>0.19218750000000001</v>
       </c>
       <c r="AP39">
-        <v>7.8125E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="AQ39">
-        <v>0.796875</v>
+        <v>1.1875</v>
       </c>
       <c r="AR39">
         <v>53</v>
@@ -5967,16 +5967,16 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>-88.132342057914713</v>
+        <v>-88.132342057914698</v>
       </c>
       <c r="H40">
-        <v>-87.55259254815806</v>
+        <v>-87.552592548158046</v>
       </c>
       <c r="I40">
-        <v>-88.246821173780361</v>
+        <v>-88.246821173780376</v>
       </c>
       <c r="J40">
-        <v>-88.246821153144481</v>
+        <v>-88.246821153144495</v>
       </c>
       <c r="K40">
         <v>0.49916132208528552</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <v>1</v>
@@ -6054,28 +6054,28 @@
         <v>2</v>
       </c>
       <c r="AJ40">
-        <v>0.31631496432727307</v>
+        <v>0.21326303965934704</v>
       </c>
       <c r="AK40">
-        <v>0.13614909031659625</v>
+        <v>0.15323004178939031</v>
       </c>
       <c r="AL40">
-        <v>8.3885754900589776E-2</v>
+        <v>5.4090526679746495E-2</v>
       </c>
       <c r="AM40">
-        <v>0.81717101996672004</v>
+        <v>0.73074402049922105</v>
       </c>
       <c r="AN40">
-        <v>0.359375</v>
+        <v>0.24843750000000001</v>
       </c>
       <c r="AO40">
-        <v>0.125</v>
+        <v>0.16093750000000001</v>
       </c>
       <c r="AP40">
-        <v>6.25E-2</v>
+        <v>5.7812500000000003E-2</v>
       </c>
       <c r="AQ40">
-        <v>0.8125</v>
+        <v>1.1734374999999999</v>
       </c>
       <c r="AR40">
         <v>94</v>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>-90.765605173851611</v>
+        <v>-90.765605173851597</v>
       </c>
       <c r="H41">
         <v>-90.282991893197945</v>
@@ -6116,7 +6116,7 @@
         <v>-90.916695451818327</v>
       </c>
       <c r="J41">
-        <v>-90.916694879862945</v>
+        <v>-90.916694879862931</v>
       </c>
       <c r="K41">
         <v>0.50967433614839308</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="X41">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y41">
         <v>3</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC41">
         <v>3</v>
@@ -6194,28 +6194,28 @@
         <v>2</v>
       </c>
       <c r="AJ41">
-        <v>0.25908240072769539</v>
+        <v>0.21968453805387619</v>
       </c>
       <c r="AK41">
-        <v>0.17450128103642712</v>
+        <v>0.17105511394817524</v>
       </c>
       <c r="AL41">
-        <v>6.576457411472493E-2</v>
+        <v>5.1507115486450761E-2</v>
       </c>
       <c r="AM41">
-        <v>0.67325937491580568</v>
+        <v>0.68986313004425914</v>
       </c>
       <c r="AN41">
-        <v>0.296875</v>
+        <v>0.26718750000000002</v>
       </c>
       <c r="AO41">
-        <v>0.1875</v>
+        <v>0.17656250000000001</v>
       </c>
       <c r="AP41">
-        <v>6.25E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ41">
-        <v>0.8125</v>
+        <v>1.2093750000000001</v>
       </c>
       <c r="AR41">
         <v>70</v>
@@ -6256,7 +6256,7 @@
         <v>-93.605005856100874</v>
       </c>
       <c r="J42">
-        <v>-93.605005699738456</v>
+        <v>-93.60500569973847</v>
       </c>
       <c r="K42">
         <v>0.50984319453701232</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="X42">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y42">
         <v>5</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC42">
         <v>5</v>
@@ -6334,28 +6334,28 @@
         <v>2</v>
       </c>
       <c r="AJ42">
-        <v>0.45072885006934404</v>
+        <v>0.31890898547266211</v>
       </c>
       <c r="AK42">
-        <v>0.20380218282962151</v>
+        <v>0.19731581187493524</v>
       </c>
       <c r="AL42">
-        <v>8.2962343815551287E-2</v>
+        <v>5.1270536667632094E-2</v>
       </c>
       <c r="AM42">
-        <v>0.80553296118915074</v>
+        <v>0.71823674367987189</v>
       </c>
       <c r="AN42">
-        <v>0.515625</v>
+        <v>0.34375</v>
       </c>
       <c r="AO42">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="AP42">
-        <v>9.375E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="AQ42">
-        <v>1.4375</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>132</v>
@@ -6387,16 +6387,16 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>-96.100456526515302</v>
+        <v>-96.100456526515288</v>
       </c>
       <c r="H43">
-        <v>-95.81218652285142</v>
+        <v>-95.812186522851434</v>
       </c>
       <c r="I43">
-        <v>-96.311942957677687</v>
+        <v>-96.311942957677701</v>
       </c>
       <c r="J43">
-        <v>-96.311942913538388</v>
+        <v>-96.311942913538374</v>
       </c>
       <c r="K43">
         <v>0.54447845348470025</v>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>5</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AB43">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC43">
         <v>5</v>
@@ -6474,28 +6474,28 @@
         <v>2</v>
       </c>
       <c r="AJ43">
-        <v>0.36215451467514792</v>
+        <v>0.21203668511250165</v>
       </c>
       <c r="AK43">
-        <v>0.48007561771358409</v>
+        <v>0.45198235794285474</v>
       </c>
       <c r="AL43">
-        <v>8.3231124117483291E-2</v>
+        <v>5.2265989517531239E-2</v>
       </c>
       <c r="AM43">
-        <v>0.86995203009313016</v>
+        <v>0.73766773569758193</v>
       </c>
       <c r="AN43">
-        <v>0.40625</v>
+        <v>0.2421875</v>
       </c>
       <c r="AO43">
-        <v>0.484375</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="AP43">
-        <v>7.8125E-2</v>
+        <v>5.1562499999999997E-2</v>
       </c>
       <c r="AQ43">
-        <v>1.53125</v>
+        <v>1.359375</v>
       </c>
       <c r="AR43">
         <v>84</v>
@@ -6527,10 +6527,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>-98.803184511614603</v>
+        <v>-98.803184511614617</v>
       </c>
       <c r="H44">
-        <v>-98.590730811637201</v>
+        <v>-98.590730811637187</v>
       </c>
       <c r="I44">
         <v>-99.036918655787289</v>
@@ -6578,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="X44">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>5</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC44">
         <v>5</v>
@@ -6614,28 +6614,28 @@
         <v>2</v>
       </c>
       <c r="AJ44">
-        <v>0.25311663268958634</v>
+        <v>0.16085380705547575</v>
       </c>
       <c r="AK44">
-        <v>0.18976177982595352</v>
+        <v>0.18975305161337711</v>
       </c>
       <c r="AL44">
-        <v>6.9568873829779318E-2</v>
+        <v>5.4031959309469538E-2</v>
       </c>
       <c r="AM44">
-        <v>0.78471467591766986</v>
+        <v>0.7342100477359349</v>
       </c>
       <c r="AN44">
-        <v>0.296875</v>
+        <v>0.17812500000000001</v>
       </c>
       <c r="AO44">
-        <v>0.203125</v>
+        <v>0.20468749999999999</v>
       </c>
       <c r="AP44">
-        <v>6.25E-2</v>
+        <v>6.0937499999999999E-2</v>
       </c>
       <c r="AQ44">
-        <v>1.28125</v>
+        <v>1.2390625</v>
       </c>
       <c r="AR44">
         <v>56</v>
@@ -6670,13 +6670,13 @@
         <v>-101.53180015460191</v>
       </c>
       <c r="H45">
-        <v>-101.38384431167668</v>
+        <v>-101.3838443116767</v>
       </c>
       <c r="I45">
         <v>-101.78317175582892</v>
       </c>
       <c r="J45">
-        <v>-101.78317175504256</v>
+        <v>-101.78317175504255</v>
       </c>
       <c r="K45">
         <v>0.5805422453980924</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>8</v>
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC45">
         <v>8</v>
@@ -6754,28 +6754,28 @@
         <v>2</v>
       </c>
       <c r="AJ45">
-        <v>0.25631794079648779</v>
+        <v>0.18566517104975758</v>
       </c>
       <c r="AK45">
-        <v>0.18571949086980899</v>
+        <v>0.18030237569909585</v>
       </c>
       <c r="AL45">
-        <v>5.3124843639144159E-2</v>
+        <v>5.1588615863161477E-2</v>
       </c>
       <c r="AM45">
-        <v>0.70007838890905993</v>
+        <v>0.72297104635770926</v>
       </c>
       <c r="AN45">
-        <v>0.265625</v>
+        <v>0.21406249999999999</v>
       </c>
       <c r="AO45">
         <v>0.1875</v>
       </c>
       <c r="AP45">
-        <v>6.25E-2</v>
+        <v>5.1562499999999997E-2</v>
       </c>
       <c r="AQ45">
-        <v>1.203125</v>
+        <v>1.2578125</v>
       </c>
       <c r="AR45">
         <v>63</v>
@@ -6807,16 +6807,16 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>-104.28708248660486</v>
+        <v>-104.28708248660487</v>
       </c>
       <c r="H46">
-        <v>-104.19260010400855</v>
+        <v>-104.19260010400856</v>
       </c>
       <c r="I46">
         <v>-104.55086509421417</v>
       </c>
       <c r="J46">
-        <v>-104.55086511365558</v>
+        <v>-104.55086511365559</v>
       </c>
       <c r="K46">
         <v>0.57319571339513686</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="X46">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>13</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AC46">
         <v>13</v>
@@ -6894,28 +6894,28 @@
         <v>2</v>
       </c>
       <c r="AJ46">
-        <v>0.31813067469629108</v>
+        <v>0.1721272881286891</v>
       </c>
       <c r="AK46">
-        <v>0.19038850621017209</v>
+        <v>0.18247780389681495</v>
       </c>
       <c r="AL46">
-        <v>7.573670820466305E-2</v>
+        <v>5.2359902584437568E-2</v>
       </c>
       <c r="AM46">
-        <v>0.8436292012157337</v>
+        <v>0.71731570282287649</v>
       </c>
       <c r="AN46">
-        <v>0.359375</v>
+        <v>0.19687499999999999</v>
       </c>
       <c r="AO46">
-        <v>0.1875</v>
+        <v>0.18906249999999999</v>
       </c>
       <c r="AP46">
-        <v>6.25E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="AQ46">
-        <v>1.234375</v>
+        <v>1.33125</v>
       </c>
       <c r="AR46">
         <v>63</v>
@@ -6950,13 +6950,13 @@
         <v>-107.06821945835296</v>
       </c>
       <c r="H47">
-        <v>-107.01185610514194</v>
+        <v>-107.01185610514196</v>
       </c>
       <c r="I47">
-        <v>-107.33766152799267</v>
+        <v>-107.33766152799265</v>
       </c>
       <c r="J47">
-        <v>-107.33766147702751</v>
+        <v>-107.33766147702752</v>
       </c>
       <c r="K47">
         <v>0.54831674164704225</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="X47">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <v>17</v>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>17</v>
@@ -7034,28 +7034,28 @@
         <v>2</v>
       </c>
       <c r="AJ47">
-        <v>0.19799582267941246</v>
+        <v>0.20311738139065111</v>
       </c>
       <c r="AK47">
-        <v>0.89409254253336023</v>
+        <v>0.95286632109993741</v>
       </c>
       <c r="AL47">
-        <v>7.6953917328567559E-2</v>
+        <v>5.0315946265560373E-2</v>
       </c>
       <c r="AM47">
-        <v>0.73727238670493311</v>
+        <v>0.7169379336623497</v>
       </c>
       <c r="AN47">
-        <v>0.25</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="AO47">
-        <v>0.890625</v>
+        <v>1.1296875</v>
       </c>
       <c r="AP47">
-        <v>7.8125E-2</v>
+        <v>5.1562499999999997E-2</v>
       </c>
       <c r="AQ47">
-        <v>1.1875</v>
+        <v>1.346875</v>
       </c>
       <c r="AR47">
         <v>62</v>
@@ -7093,7 +7093,7 @@
         <v>-109.84456231963051</v>
       </c>
       <c r="I48">
-        <v>-110.14193249159001</v>
+        <v>-110.14193249159004</v>
       </c>
       <c r="J48">
         <v>-110.14193248305318</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="X48">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="Y48">
         <v>23</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="AC48">
         <v>23</v>
@@ -7174,28 +7174,28 @@
         <v>2</v>
       </c>
       <c r="AJ48">
-        <v>0.18113001910328733</v>
+        <v>0.1789121864713224</v>
       </c>
       <c r="AK48">
-        <v>0.17218521592872896</v>
+        <v>0.18386638941784481</v>
       </c>
       <c r="AL48">
-        <v>5.2666505868904492E-2</v>
+        <v>5.4887023671032278E-2</v>
       </c>
       <c r="AM48">
-        <v>0.79825600714352607</v>
+        <v>0.72654465024278514</v>
       </c>
       <c r="AN48">
-        <v>0.203125</v>
+        <v>0.2109375</v>
       </c>
       <c r="AO48">
-        <v>0.171875</v>
+        <v>0.19843749999999999</v>
       </c>
       <c r="AP48">
-        <v>4.6875E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="AQ48">
-        <v>1.265625</v>
+        <v>1.3359375</v>
       </c>
       <c r="AR48">
         <v>50</v>
@@ -7230,7 +7230,7 @@
         <v>-112.70266211994362</v>
       </c>
       <c r="H49">
-        <v>-112.69014903562362</v>
+        <v>-112.69014903562359</v>
       </c>
       <c r="I49">
         <v>-112.96324818032215</v>
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="Y49">
         <v>24</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="AC49">
         <v>24</v>
@@ -7314,28 +7314,28 @@
         <v>2</v>
       </c>
       <c r="AJ49">
-        <v>0.36763083314195832</v>
+        <v>0.26594596085608424</v>
       </c>
       <c r="AK49">
-        <v>1.1207570880380577</v>
+        <v>1.298050469934187</v>
       </c>
       <c r="AL49">
-        <v>6.069848238558876E-2</v>
+        <v>3.8560134352136149E-2</v>
       </c>
       <c r="AM49">
-        <v>1.0077792332256075</v>
+        <v>0.74511692144755703</v>
       </c>
       <c r="AN49">
-        <v>0.40625</v>
+        <v>0.28593750000000001</v>
       </c>
       <c r="AO49">
-        <v>1.125</v>
+        <v>1.3421875000000001</v>
       </c>
       <c r="AP49">
-        <v>6.25E-2</v>
+        <v>3.90625E-2</v>
       </c>
       <c r="AQ49">
-        <v>1.59375</v>
+        <v>1.2953125000000001</v>
       </c>
       <c r="AR49">
         <v>104</v>
@@ -7367,16 +7367,16 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>-115.55810283810109</v>
+        <v>-115.55810283810112</v>
       </c>
       <c r="H50">
         <v>-115.54142743207255</v>
       </c>
       <c r="I50">
-        <v>-115.80433708359523</v>
+        <v>-115.80433708359524</v>
       </c>
       <c r="J50">
-        <v>-115.8043370619945</v>
+        <v>-115.80433706199452</v>
       </c>
       <c r="K50">
         <v>0.44466936189890305</v>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="Y50">
         <v>29</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="AB50">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="AC50">
         <v>29</v>
@@ -7454,28 +7454,28 @@
         <v>2</v>
       </c>
       <c r="AJ50">
-        <v>0.3832521646757252</v>
+        <v>0.28083150270208551</v>
       </c>
       <c r="AK50">
-        <v>0.15940724641957696</v>
+        <v>0.15577246223831914</v>
       </c>
       <c r="AL50">
-        <v>6.7847461084589458E-2</v>
+        <v>3.8805854299393448E-2</v>
       </c>
       <c r="AM50">
-        <v>0.74336709231031739</v>
+        <v>0.72646314986607463</v>
       </c>
       <c r="AN50">
-        <v>0.40625</v>
+        <v>0.30781249999999999</v>
       </c>
       <c r="AO50">
-        <v>0.171875</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="AP50">
-        <v>6.25E-2</v>
+        <v>4.2187500000000003E-2</v>
       </c>
       <c r="AQ50">
-        <v>0.953125</v>
+        <v>1.2890625</v>
       </c>
       <c r="AR50">
         <v>108</v>
@@ -7513,7 +7513,7 @@
         <v>-118.41286339696799</v>
       </c>
       <c r="I51">
-        <v>-118.66550106517133</v>
+        <v>-118.66550106517136</v>
       </c>
       <c r="J51">
         <v>-118.66550099146282</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="X51">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="Y51">
         <v>30</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="AB51">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="AC51">
         <v>30</v>
@@ -7594,28 +7594,28 @@
         <v>0</v>
       </c>
       <c r="AJ51">
-        <v>0.39771081292249505</v>
+        <v>0.30941821688979038</v>
       </c>
       <c r="AK51">
-        <v>0.15417629421885004</v>
+        <v>0.15013347651227141</v>
       </c>
       <c r="AL51">
-        <v>5.7903552133756371E-2</v>
+        <v>4.0711667319375311E-2</v>
       </c>
       <c r="AM51">
-        <v>0.92016647700228493</v>
+        <v>0.7118832424512721</v>
       </c>
       <c r="AN51">
-        <v>0.4375</v>
+        <v>0.34687499999999999</v>
       </c>
       <c r="AO51">
-        <v>0.171875</v>
+        <v>0.15937499999999999</v>
       </c>
       <c r="AP51">
-        <v>6.25E-2</v>
+        <v>4.2187500000000003E-2</v>
       </c>
       <c r="AQ51">
-        <v>1.40625</v>
+        <v>1.2765625</v>
       </c>
       <c r="AR51">
         <v>120</v>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>-121.34415801163688</v>
+        <v>-121.34415801163689</v>
       </c>
       <c r="H52">
         <v>-121.30285474546849</v>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="Y52">
         <v>32</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="AC52">
         <v>32</v>
@@ -7734,28 +7734,28 @@
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0.34634875751654698</v>
+        <v>0.2241040010238064</v>
       </c>
       <c r="AK52">
-        <v>0.14900435821806998</v>
+        <v>0.1455827020341737</v>
       </c>
       <c r="AL52">
-        <v>7.5934604918615381E-2</v>
+        <v>4.7283080220297986E-2</v>
       </c>
       <c r="AM52">
-        <v>0.70585748614081523</v>
+        <v>0.7325584222348166</v>
       </c>
       <c r="AN52">
-        <v>0.375</v>
+        <v>0.24531249999999999</v>
       </c>
       <c r="AO52">
         <v>0.15625</v>
       </c>
       <c r="AP52">
-        <v>7.8125E-2</v>
+        <v>4.8437500000000001E-2</v>
       </c>
       <c r="AQ52">
-        <v>1.578125</v>
+        <v>1.3859375</v>
       </c>
       <c r="AR52">
         <v>67</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="X53">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="Y53">
         <v>37</v>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="AC53">
         <v>37</v>
@@ -7874,28 +7874,28 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0.48675086311192423</v>
+        <v>0.37679243897174169</v>
       </c>
       <c r="AK53">
-        <v>0.10913795293329759</v>
+        <v>0.10794210105469378</v>
       </c>
       <c r="AL53">
-        <v>7.2341031526197419E-2</v>
+        <v>4.6625303862335252E-2</v>
       </c>
       <c r="AM53">
-        <v>0.72874005544956877</v>
+        <v>0.72764164980369017</v>
       </c>
       <c r="AN53">
-        <v>0.515625</v>
+        <v>0.40937499999999999</v>
       </c>
       <c r="AO53">
-        <v>0.109375</v>
+        <v>0.11874999999999999</v>
       </c>
       <c r="AP53">
-        <v>7.8125E-2</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="AQ53">
-        <v>1.359375</v>
+        <v>1.4015625</v>
       </c>
       <c r="AR53">
         <v>131</v>
@@ -7933,7 +7933,7 @@
         <v>-127.11591718025684</v>
       </c>
       <c r="I54">
-        <v>-127.37206996101087</v>
+        <v>-127.37206996101085</v>
       </c>
       <c r="J54">
         <v>-127.37206996256751</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="X54">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="Y54">
         <v>38</v>
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="AC54">
         <v>38</v>
@@ -8014,28 +8014,28 @@
         <v>0</v>
       </c>
       <c r="AJ54">
-        <v>0.30938537193677057</v>
+        <v>0.21654441610160058</v>
       </c>
       <c r="AK54">
-        <v>8.9555800458530219E-2</v>
+        <v>8.8770524639831525E-2</v>
       </c>
       <c r="AL54">
-        <v>6.745776172080975E-2</v>
+        <v>4.5123047607317647E-2</v>
       </c>
       <c r="AM54">
-        <v>0.79986131193012477</v>
+        <v>0.78197456072066729</v>
       </c>
       <c r="AN54">
-        <v>0.34375</v>
+        <v>0.23906250000000001</v>
       </c>
       <c r="AO54">
         <v>9.375E-2</v>
       </c>
       <c r="AP54">
-        <v>6.25E-2</v>
+        <v>4.2187500000000003E-2</v>
       </c>
       <c r="AQ54">
-        <v>1.140625</v>
+        <v>1.4390624999999999</v>
       </c>
       <c r="AR54">
         <v>63</v>
@@ -8073,10 +8073,10 @@
         <v>-130.11197552008591</v>
       </c>
       <c r="I55">
-        <v>-130.31888390878964</v>
+        <v>-130.31888390878967</v>
       </c>
       <c r="J55">
-        <v>-130.31888393333526</v>
+        <v>-130.31888393333523</v>
       </c>
       <c r="K55">
         <v>0.21422264040450045</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="X55">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="Y55">
         <v>41</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="AC55">
         <v>41</v>
@@ -8154,28 +8154,28 @@
         <v>0</v>
       </c>
       <c r="AJ55">
-        <v>0.45889874487938243</v>
+        <v>0.26115732459377311</v>
       </c>
       <c r="AK55">
-        <v>8.7581965162480582E-2</v>
+        <v>9.0483572109230387E-2</v>
       </c>
       <c r="AL55">
-        <v>5.9079385769654637E-2</v>
+        <v>4.5323735469214123E-2</v>
       </c>
       <c r="AM55">
-        <v>0.90186022911115193</v>
+        <v>0.758341023107169</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>0.2890625</v>
       </c>
       <c r="AO55">
-        <v>9.375E-2</v>
+        <v>9.8437499999999997E-2</v>
       </c>
       <c r="AP55">
-        <v>6.25E-2</v>
+        <v>4.5312499999999999E-2</v>
       </c>
       <c r="AQ55">
-        <v>1.71875</v>
+        <v>1.3625</v>
       </c>
       <c r="AR55">
         <v>97</v>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="Y56">
         <v>45</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="AB56">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="AC56">
         <v>45</v>
@@ -8294,28 +8294,28 @@
         <v>0</v>
       </c>
       <c r="AJ56">
-        <v>0.23882990119918351</v>
+        <v>0.38210837401135489</v>
       </c>
       <c r="AK56">
-        <v>9.456351746815371E-2</v>
+        <v>9.2546965353840244E-2</v>
       </c>
       <c r="AL56">
-        <v>7.3492809645812993E-2</v>
+        <v>4.922260315603072E-2</v>
       </c>
       <c r="AM56">
-        <v>0.93568709610788159</v>
+        <v>0.73757799226820919</v>
       </c>
       <c r="AN56">
-        <v>0.28125</v>
+        <v>0.40468749999999998</v>
       </c>
       <c r="AO56">
-        <v>0.109375</v>
+        <v>0.1046875</v>
       </c>
       <c r="AP56">
-        <v>7.8125E-2</v>
+        <v>5.1562499999999997E-2</v>
       </c>
       <c r="AQ56">
-        <v>1.59375</v>
+        <v>1.2796875000000001</v>
       </c>
       <c r="AR56">
         <v>133</v>
@@ -8347,16 +8347,16 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>-136.228008424694</v>
+        <v>-136.22800842469402</v>
       </c>
       <c r="H57">
-        <v>-136.25032114643483</v>
+        <v>-136.2503211464348</v>
       </c>
       <c r="I57">
-        <v>-136.3227501975968</v>
+        <v>-136.32275019759683</v>
       </c>
       <c r="J57">
-        <v>-136.3227501968999</v>
+        <v>-136.32275019689993</v>
       </c>
       <c r="K57">
         <v>0.18420147530599706</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="X57">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="Y57">
         <v>49</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="AB57">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AC57">
         <v>49</v>
@@ -8434,28 +8434,28 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>0.37322839141083358</v>
+        <v>0.28180655640220575</v>
       </c>
       <c r="AK57">
-        <v>0.10451833158636828</v>
+        <v>0.10040567365786586</v>
       </c>
       <c r="AL57">
-        <v>5.4774410575703029E-2</v>
+        <v>4.3947530564244969E-2</v>
       </c>
       <c r="AM57">
-        <v>0.91924851850093725</v>
+        <v>0.74504696775940038</v>
       </c>
       <c r="AN57">
-        <v>0.40625</v>
+        <v>0.30781249999999999</v>
       </c>
       <c r="AO57">
-        <v>0.125</v>
+        <v>0.10781250000000001</v>
       </c>
       <c r="AP57">
-        <v>6.25E-2</v>
+        <v>4.2187500000000003E-2</v>
       </c>
       <c r="AQ57">
-        <v>1.59375</v>
+        <v>1.403125</v>
       </c>
       <c r="AR57">
         <v>84</v>
@@ -8487,13 +8487,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>-139.28456827105941</v>
+        <v>-139.28456827105944</v>
       </c>
       <c r="H58">
-        <v>-139.34994263723533</v>
+        <v>-139.3499426372353</v>
       </c>
       <c r="I58">
-        <v>-139.38329315525181</v>
+        <v>-139.38329315525178</v>
       </c>
       <c r="J58">
         <v>-139.3832931540326</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="X58">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="Y58">
         <v>53</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="AB58">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AC58">
         <v>53</v>
@@ -8574,28 +8574,28 @@
         <v>0</v>
       </c>
       <c r="AJ58">
-        <v>0.41199529923137812</v>
+        <v>0.34935497311064906</v>
       </c>
       <c r="AK58">
-        <v>8.5177375754862103E-2</v>
+        <v>8.3533491972004423E-2</v>
       </c>
       <c r="AL58">
-        <v>6.616389568501771E-2</v>
+        <v>3.6894716973022768E-2</v>
       </c>
       <c r="AM58">
-        <v>0.61814626267084227</v>
+        <v>0.72828794362136873</v>
       </c>
       <c r="AN58">
-        <v>0.453125</v>
+        <v>0.38124999999999998</v>
       </c>
       <c r="AO58">
-        <v>9.375E-2</v>
+        <v>8.9062500000000003E-2</v>
       </c>
       <c r="AP58">
-        <v>4.6875E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="AQ58">
-        <v>0.796875</v>
+        <v>1.4296875</v>
       </c>
       <c r="AR58">
         <v>134</v>
@@ -8630,13 +8630,13 @@
         <v>-142.37886103356504</v>
       </c>
       <c r="H59">
-        <v>-142.47067036050305</v>
+        <v>-142.47067036050302</v>
       </c>
       <c r="I59">
         <v>-142.47942297875036</v>
       </c>
       <c r="J59">
-        <v>-142.47942291269567</v>
+        <v>-142.47942291269564</v>
       </c>
       <c r="K59">
         <v>0.13357386643494351</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="X59">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="Y59">
         <v>54</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AC59">
         <v>54</v>
@@ -8705,7 +8705,7 @@
         <v>9.8062669096066202E-12</v>
       </c>
       <c r="AG59">
-        <v>2.2760079003753045E-10</v>
+        <v>2.276007900375304E-10</v>
       </c>
       <c r="AH59">
         <v>0</v>
@@ -8714,28 +8714,28 @@
         <v>0</v>
       </c>
       <c r="AJ59">
-        <v>0.57252513641081437</v>
+        <v>0.3029163086391361</v>
       </c>
       <c r="AK59">
-        <v>8.5265900054782434E-2</v>
+        <v>8.2121748925596677E-2</v>
       </c>
       <c r="AL59">
-        <v>5.798534088911754E-2</v>
+        <v>3.6686555837701029E-2</v>
       </c>
       <c r="AM59">
-        <v>0.84980505409604501</v>
+        <v>0.7989630752937108</v>
       </c>
       <c r="AN59">
-        <v>0.609375</v>
+        <v>0.328125</v>
       </c>
       <c r="AO59">
-        <v>9.375E-2</v>
+        <v>9.0624999999999997E-2</v>
       </c>
       <c r="AP59">
-        <v>3.125E-2</v>
+        <v>4.2187500000000003E-2</v>
       </c>
       <c r="AQ59">
-        <v>1.859375</v>
+        <v>1.4</v>
       </c>
       <c r="AR59">
         <v>132</v>
@@ -8767,16 +8767,16 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>-145.5130892495782</v>
+        <v>-145.51308924957817</v>
       </c>
       <c r="H60">
-        <v>-145.61237985622083</v>
+        <v>-145.6123798562208</v>
       </c>
       <c r="I60">
-        <v>-145.6177805332776</v>
+        <v>-145.61778053327762</v>
       </c>
       <c r="J60">
-        <v>-145.61778053206248</v>
+        <v>-145.61778053206245</v>
       </c>
       <c r="K60">
         <v>0.12027675042179453</v>
@@ -8818,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y60">
         <v>57</v>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC60">
         <v>57</v>
@@ -8854,28 +8854,28 @@
         <v>0</v>
       </c>
       <c r="AJ60">
-        <v>0.3101580351197708</v>
+        <v>0.2123633922503117</v>
       </c>
       <c r="AK60">
-        <v>6.2832046309755502E-2</v>
+        <v>6.2335215122826304E-2</v>
       </c>
       <c r="AL60">
-        <v>5.5010796115707673E-2</v>
+        <v>3.1033842381927895E-2</v>
       </c>
       <c r="AM60">
-        <v>0.94512744291786355</v>
+        <v>0.7693989980681748</v>
       </c>
       <c r="AN60">
-        <v>0.3125</v>
+        <v>0.24062500000000001</v>
       </c>
       <c r="AO60">
-        <v>7.8125E-2</v>
+        <v>6.7187499999999997E-2</v>
       </c>
       <c r="AP60">
-        <v>6.25E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AQ60">
-        <v>1.609375</v>
+        <v>1.4328125</v>
       </c>
       <c r="AR60">
         <v>83</v>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>-148.69771403927319</v>
+        <v>-148.69771403927322</v>
       </c>
       <c r="H61">
         <v>-148.80827644466217</v>
@@ -8916,7 +8916,7 @@
         <v>-148.80181708378566</v>
       </c>
       <c r="J61">
-        <v>-148.80181707477146</v>
+        <v>-148.80181707477144</v>
       </c>
       <c r="K61">
         <v>0.12989176072679243</v>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Y61">
         <v>57</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="AB61">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AC61">
         <v>57</v>
@@ -8979,13 +8979,13 @@
         <v>57</v>
       </c>
       <c r="AE61">
-        <v>9.6800839648793984E-8</v>
+        <v>9.6800839648794011E-8</v>
       </c>
       <c r="AF61">
         <v>1.9192314404392619E-11</v>
       </c>
       <c r="AG61">
-        <v>4.334804853671748E-11</v>
+        <v>4.3348048536717473E-11</v>
       </c>
       <c r="AH61">
         <v>0</v>
@@ -8994,28 +8994,28 @@
         <v>0</v>
       </c>
       <c r="AJ61">
-        <v>0.34036502802628016</v>
+        <v>0.23721395083740751</v>
       </c>
       <c r="AK61">
-        <v>6.1592706110870914E-2</v>
+        <v>5.74696330109562E-2</v>
       </c>
       <c r="AL61">
-        <v>4.6122763959576471E-2</v>
+        <v>2.8675719911975744E-2</v>
       </c>
       <c r="AM61">
-        <v>0.98160907669155184</v>
+        <v>0.77190280125871735</v>
       </c>
       <c r="AN61">
-        <v>0.34375</v>
+        <v>0.2578125</v>
       </c>
       <c r="AO61">
-        <v>6.25E-2</v>
+        <v>6.4062499999999994E-2</v>
       </c>
       <c r="AP61">
-        <v>4.6875E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="AQ61">
-        <v>1.234375</v>
+        <v>1.471875</v>
       </c>
       <c r="AR61">
         <v>89</v>
@@ -9047,13 +9047,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>-151.94854509918383</v>
+        <v>-151.9485450991838</v>
       </c>
       <c r="H62">
         <v>-152.03614774769497</v>
       </c>
       <c r="I62">
-        <v>-152.02662708454812</v>
+        <v>-152.02662708454815</v>
       </c>
       <c r="J62">
         <v>-152.0266270844397</v>
@@ -9134,28 +9134,28 @@
         <v>0</v>
       </c>
       <c r="AJ62">
-        <v>0.36533882355054287</v>
+        <v>0.21324927985548681</v>
       </c>
       <c r="AK62">
-        <v>4.4499818461037122E-2</v>
+        <v>3.7700483389286658E-2</v>
       </c>
       <c r="AL62">
-        <v>3.8045242332063627E-2</v>
+        <v>2.2891245910146879E-2</v>
       </c>
       <c r="AM62">
-        <v>0.94419537184696334</v>
+        <v>0.74799631275745515</v>
       </c>
       <c r="AN62">
-        <v>0.390625</v>
+        <v>0.23906250000000001</v>
       </c>
       <c r="AO62">
         <v>4.6875E-2</v>
       </c>
       <c r="AP62">
-        <v>3.125E-2</v>
+        <v>3.2812500000000001E-2</v>
       </c>
       <c r="AQ62">
-        <v>2.234375</v>
+        <v>1.3062499999999999</v>
       </c>
       <c r="AR62">
         <v>79</v>
